--- a/Data_frame/balancos_definitivos/MEND5.xlsx
+++ b/Data_frame/balancos_definitivos/MEND5.xlsx
@@ -441,302 +441,302 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2008</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2009</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>30/06/2009</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>30/09/2009</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>31/12/2009</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>31/03/2010</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>30/06/2010</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>30/09/2010</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>31/12/2010</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>31/03/2011</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>30/06/2011</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>30/09/2011</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>31/12/2011</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>31/03/2012</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>30/06/2012</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>30/09/2012</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>31/12/2012</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>31/03/2013</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>30/06/2013</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>30/09/2013</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>31/12/2013</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>31/03/2014</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>30/06/2014</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>30/09/2014</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>31/12/2014</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>31/03/2015</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>30/06/2015</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>30/09/2015</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>31/12/2015</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>31/03/2016</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>30/06/2016</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>30/09/2016</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>31/12/2016</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>31/03/2017</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>30/06/2017</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>30/09/2017</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>31/12/2017</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>31/03/2018</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>30/06/2018</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>30/09/2018</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>31/12/2018</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>31/03/2019</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>30/06/2019</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>30/09/2019</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>31/12/2019</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>31/03/2020</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>30/06/2020</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>30/09/2020</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>31/12/2020</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>31/03/2021</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>30/06/2021</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>30/09/2021</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>31/12/2021</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>31/03/2022</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>30/09/2022</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>31/12/2022</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>31/03/2023</t>
         </is>
       </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2023</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>30/09/2023</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>31/03/2024</t>
         </is>
       </c>
     </row>
@@ -747,184 +747,184 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5919741.952</v>
+        <v>6488367.104</v>
       </c>
       <c r="C2" t="n">
-        <v>6107920.896</v>
+        <v>6676348.928</v>
       </c>
       <c r="D2" t="n">
-        <v>6301749.76</v>
+        <v>6860867.072</v>
       </c>
       <c r="E2" t="n">
-        <v>6488367.104</v>
+        <v>7063636.992</v>
       </c>
       <c r="F2" t="n">
-        <v>6676348.928</v>
+        <v>7297648.128</v>
       </c>
       <c r="G2" t="n">
-        <v>6860867.072</v>
+        <v>7543783.936</v>
       </c>
       <c r="H2" t="n">
-        <v>7063636.992</v>
+        <v>8086044.16</v>
       </c>
       <c r="I2" t="n">
-        <v>7297648.128</v>
+        <v>8341271.04</v>
       </c>
       <c r="J2" t="n">
-        <v>7543783.936</v>
+        <v>8600178.687999999</v>
       </c>
       <c r="K2" t="n">
-        <v>8086044.16</v>
+        <v>8884289.536</v>
       </c>
       <c r="L2" t="n">
-        <v>8341271.04</v>
+        <v>9130626.048</v>
       </c>
       <c r="M2" t="n">
-        <v>8600178.687999999</v>
+        <v>9091266.560000001</v>
       </c>
       <c r="N2" t="n">
-        <v>8884289.536</v>
+        <v>9097738.24</v>
       </c>
       <c r="O2" t="n">
-        <v>9130626.048</v>
+        <v>9115709.439999999</v>
       </c>
       <c r="P2" t="n">
-        <v>9091266.560000001</v>
+        <v>9230788.607999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>9097738.24</v>
+        <v>9209148.415999999</v>
       </c>
       <c r="R2" t="n">
-        <v>9115709.439999999</v>
+        <v>9171667.968</v>
       </c>
       <c r="S2" t="n">
-        <v>9230788.607999999</v>
+        <v>9139930.112</v>
       </c>
       <c r="T2" t="n">
-        <v>9209148.415999999</v>
+        <v>9214357.504000001</v>
       </c>
       <c r="U2" t="n">
-        <v>9171667.968</v>
+        <v>9198790.655999999</v>
       </c>
       <c r="V2" t="n">
-        <v>9139930.112</v>
+        <v>9165415.424000001</v>
       </c>
       <c r="W2" t="n">
-        <v>9214357.504000001</v>
+        <v>9376831.488</v>
       </c>
       <c r="X2" t="n">
-        <v>9198790.655999999</v>
+        <v>9379074.048</v>
       </c>
       <c r="Y2" t="n">
-        <v>9165415.424000001</v>
+        <v>9368104.960000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>9376831.488</v>
+        <v>9383568.384</v>
       </c>
       <c r="AA2" t="n">
-        <v>9379074.048</v>
+        <v>9417049.088</v>
       </c>
       <c r="AB2" t="n">
-        <v>9368104.960000001</v>
+        <v>9414604.800000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>9383568.384</v>
+        <v>9420706.816</v>
       </c>
       <c r="AD2" t="n">
-        <v>9417049.088</v>
+        <v>9409111.039999999</v>
       </c>
       <c r="AE2" t="n">
-        <v>9414604.800000001</v>
+        <v>9386501.119999999</v>
       </c>
       <c r="AF2" t="n">
-        <v>9420706.816</v>
+        <v>959574.0159999999</v>
       </c>
       <c r="AG2" t="n">
-        <v>9409111.039999999</v>
+        <v>960000</v>
       </c>
       <c r="AH2" t="n">
-        <v>9386501.119999999</v>
+        <v>962337.9840000001</v>
       </c>
       <c r="AI2" t="n">
-        <v>959574.0159999999</v>
+        <v>955809.9840000001</v>
       </c>
       <c r="AJ2" t="n">
-        <v>960000</v>
+        <v>955512</v>
       </c>
       <c r="AK2" t="n">
-        <v>962337.9840000001</v>
+        <v>955824</v>
       </c>
       <c r="AL2" t="n">
-        <v>955809.9840000001</v>
+        <v>956241.024</v>
       </c>
       <c r="AM2" t="n">
-        <v>955512</v>
+        <v>956500.992</v>
       </c>
       <c r="AN2" t="n">
-        <v>955824</v>
+        <v>954643.008</v>
       </c>
       <c r="AO2" t="n">
-        <v>956241.024</v>
+        <v>954718.976</v>
       </c>
       <c r="AP2" t="n">
-        <v>956500.992</v>
+        <v>954697.9840000001</v>
       </c>
       <c r="AQ2" t="n">
-        <v>954643.008</v>
+        <v>954777.9840000001</v>
       </c>
       <c r="AR2" t="n">
-        <v>954718.976</v>
+        <v>961905.024</v>
       </c>
       <c r="AS2" t="n">
-        <v>954697.9840000001</v>
+        <v>961779.008</v>
       </c>
       <c r="AT2" t="n">
-        <v>954777.9840000001</v>
+        <v>961340.032</v>
       </c>
       <c r="AU2" t="n">
-        <v>961905.024</v>
+        <v>961156.992</v>
       </c>
       <c r="AV2" t="n">
-        <v>961779.008</v>
+        <v>961081.9840000001</v>
       </c>
       <c r="AW2" t="n">
-        <v>961340.032</v>
+        <v>948777.024</v>
       </c>
       <c r="AX2" t="n">
-        <v>961156.992</v>
+        <v>949091.008</v>
       </c>
       <c r="AY2" t="n">
-        <v>961081.9840000001</v>
+        <v>949409.9840000001</v>
       </c>
       <c r="AZ2" t="n">
-        <v>948777.024</v>
+        <v>953756.992</v>
       </c>
       <c r="BA2" t="n">
-        <v>949091.008</v>
+        <v>953436.992</v>
       </c>
       <c r="BB2" t="n">
-        <v>949409.9840000001</v>
+        <v>953033.024</v>
       </c>
       <c r="BC2" t="n">
-        <v>953756.992</v>
+        <v>952886.976</v>
       </c>
       <c r="BD2" t="n">
-        <v>953436.992</v>
+        <v>951166.0159999999</v>
       </c>
       <c r="BE2" t="n">
-        <v>953033.024</v>
+        <v>947888</v>
       </c>
       <c r="BF2" t="n">
-        <v>952886.976</v>
+        <v>949068.032</v>
       </c>
       <c r="BG2" t="n">
-        <v>951166.0159999999</v>
+        <v>947419.008</v>
       </c>
       <c r="BH2" t="n">
-        <v>947888</v>
+        <v>942688</v>
       </c>
       <c r="BI2" t="n">
-        <v>949068.032</v>
+        <v>942531.008</v>
       </c>
     </row>
     <row r="3">
@@ -934,184 +934,184 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67673</v>
+        <v>74663</v>
       </c>
       <c r="C3" t="n">
-        <v>70261</v>
+        <v>74664</v>
       </c>
       <c r="D3" t="n">
-        <v>71942</v>
+        <v>75168</v>
       </c>
       <c r="E3" t="n">
-        <v>74663</v>
+        <v>61506</v>
       </c>
       <c r="F3" t="n">
-        <v>74664</v>
+        <v>84537</v>
       </c>
       <c r="G3" t="n">
-        <v>75168</v>
+        <v>74928</v>
       </c>
       <c r="H3" t="n">
-        <v>61506</v>
+        <v>2570</v>
       </c>
       <c r="I3" t="n">
-        <v>84537</v>
+        <v>402</v>
       </c>
       <c r="J3" t="n">
-        <v>74928</v>
+        <v>575</v>
       </c>
       <c r="K3" t="n">
-        <v>2570</v>
+        <v>424</v>
       </c>
       <c r="L3" t="n">
-        <v>402</v>
+        <v>11868</v>
       </c>
       <c r="M3" t="n">
-        <v>575</v>
+        <v>12234</v>
       </c>
       <c r="N3" t="n">
-        <v>424</v>
+        <v>6439</v>
       </c>
       <c r="O3" t="n">
-        <v>11868</v>
+        <v>4042</v>
       </c>
       <c r="P3" t="n">
-        <v>12234</v>
+        <v>460</v>
       </c>
       <c r="Q3" t="n">
-        <v>6439</v>
+        <v>432</v>
       </c>
       <c r="R3" t="n">
-        <v>4042</v>
+        <v>370</v>
       </c>
       <c r="S3" t="n">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="T3" t="n">
-        <v>432</v>
+        <v>711</v>
       </c>
       <c r="U3" t="n">
-        <v>370</v>
+        <v>680</v>
       </c>
       <c r="V3" t="n">
-        <v>464</v>
+        <v>681</v>
       </c>
       <c r="W3" t="n">
-        <v>711</v>
+        <v>1215</v>
       </c>
       <c r="X3" t="n">
-        <v>680</v>
+        <v>2277</v>
       </c>
       <c r="Y3" t="n">
-        <v>681</v>
+        <v>3049</v>
       </c>
       <c r="Z3" t="n">
-        <v>1215</v>
+        <v>6454</v>
       </c>
       <c r="AA3" t="n">
-        <v>2277</v>
+        <v>6844</v>
       </c>
       <c r="AB3" t="n">
-        <v>3049</v>
+        <v>7245</v>
       </c>
       <c r="AC3" t="n">
-        <v>6454</v>
+        <v>7762</v>
       </c>
       <c r="AD3" t="n">
-        <v>6844</v>
+        <v>7795</v>
       </c>
       <c r="AE3" t="n">
-        <v>7245</v>
+        <v>7816</v>
       </c>
       <c r="AF3" t="n">
-        <v>7762</v>
+        <v>5813</v>
       </c>
       <c r="AG3" t="n">
-        <v>7795</v>
+        <v>5888</v>
       </c>
       <c r="AH3" t="n">
-        <v>7816</v>
+        <v>5928</v>
       </c>
       <c r="AI3" t="n">
-        <v>5813</v>
+        <v>5990</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5888</v>
+        <v>6112</v>
       </c>
       <c r="AK3" t="n">
-        <v>5928</v>
+        <v>6249</v>
       </c>
       <c r="AL3" t="n">
-        <v>5990</v>
+        <v>6211</v>
       </c>
       <c r="AM3" t="n">
-        <v>6112</v>
+        <v>6173</v>
       </c>
       <c r="AN3" t="n">
-        <v>6249</v>
+        <v>6322</v>
       </c>
       <c r="AO3" t="n">
-        <v>6211</v>
+        <v>6452</v>
       </c>
       <c r="AP3" t="n">
-        <v>6173</v>
+        <v>6304</v>
       </c>
       <c r="AQ3" t="n">
-        <v>6322</v>
+        <v>6384</v>
       </c>
       <c r="AR3" t="n">
-        <v>6452</v>
+        <v>6573</v>
       </c>
       <c r="AS3" t="n">
-        <v>6304</v>
+        <v>6568</v>
       </c>
       <c r="AT3" t="n">
-        <v>6384</v>
+        <v>6662</v>
       </c>
       <c r="AU3" t="n">
-        <v>6573</v>
+        <v>6756</v>
       </c>
       <c r="AV3" t="n">
-        <v>6568</v>
+        <v>6849</v>
       </c>
       <c r="AW3" t="n">
-        <v>6662</v>
+        <v>6991</v>
       </c>
       <c r="AX3" t="n">
-        <v>6756</v>
+        <v>7097</v>
       </c>
       <c r="AY3" t="n">
-        <v>6849</v>
+        <v>7191</v>
       </c>
       <c r="AZ3" t="n">
-        <v>6991</v>
+        <v>7271</v>
       </c>
       <c r="BA3" t="n">
-        <v>7097</v>
+        <v>7365</v>
       </c>
       <c r="BB3" t="n">
-        <v>7191</v>
+        <v>7458</v>
       </c>
       <c r="BC3" t="n">
-        <v>7271</v>
+        <v>7551</v>
       </c>
       <c r="BD3" t="n">
-        <v>7365</v>
+        <v>7631</v>
       </c>
       <c r="BE3" t="n">
-        <v>7458</v>
+        <v>7120</v>
       </c>
       <c r="BF3" t="n">
-        <v>7551</v>
+        <v>6689</v>
       </c>
       <c r="BG3" t="n">
-        <v>7631</v>
+        <v>6380</v>
       </c>
       <c r="BH3" t="n">
-        <v>7120</v>
+        <v>6350</v>
       </c>
       <c r="BI3" t="n">
-        <v>6689</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="4">
@@ -1121,82 +1121,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>37165</v>
       </c>
       <c r="G4" t="n">
+        <v>24983</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2281</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>37165</v>
-      </c>
       <c r="J4" t="n">
-        <v>24983</v>
+        <v>162</v>
       </c>
       <c r="K4" t="n">
-        <v>2281</v>
+        <v>124</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M4" t="n">
-        <v>162</v>
+        <v>9</v>
       </c>
       <c r="N4" t="n">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="O4" t="n">
-        <v>15</v>
+        <v>572</v>
       </c>
       <c r="P4" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="Q4" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="R4" t="n">
-        <v>572</v>
+        <v>35</v>
       </c>
       <c r="S4" t="n">
         <v>33</v>
       </c>
       <c r="T4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U4" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V4" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="W4" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="X4" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="Y4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB4" t="n">
         <v>6</v>
@@ -1205,7 +1205,7 @@
         <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>6</v>
@@ -1286,13 +1286,13 @@
         <v>6</v>
       </c>
       <c r="BE4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH4" t="n">
         <v>7</v>
@@ -1495,184 +1495,184 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67663</v>
+        <v>74543</v>
       </c>
       <c r="C6" t="n">
-        <v>70253</v>
+        <v>74661</v>
       </c>
       <c r="D6" t="n">
-        <v>71938</v>
+        <v>75167</v>
       </c>
       <c r="E6" t="n">
-        <v>74543</v>
+        <v>61505</v>
       </c>
       <c r="F6" t="n">
-        <v>74661</v>
+        <v>47372</v>
       </c>
       <c r="G6" t="n">
-        <v>75167</v>
+        <v>49945</v>
       </c>
       <c r="H6" t="n">
-        <v>61505</v>
+        <v>289</v>
       </c>
       <c r="I6" t="n">
-        <v>47372</v>
+        <v>401</v>
       </c>
       <c r="J6" t="n">
-        <v>49945</v>
+        <v>413</v>
       </c>
       <c r="K6" t="n">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="L6" t="n">
-        <v>401</v>
+        <v>11432</v>
       </c>
       <c r="M6" t="n">
-        <v>413</v>
+        <v>11871</v>
       </c>
       <c r="N6" t="n">
+        <v>6104</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3270</v>
+      </c>
+      <c r="P6" t="n">
         <v>300</v>
       </c>
-      <c r="O6" t="n">
-        <v>11432</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11871</v>
-      </c>
       <c r="Q6" t="n">
-        <v>6104</v>
+        <v>259</v>
       </c>
       <c r="R6" t="n">
-        <v>3270</v>
+        <v>200</v>
       </c>
       <c r="S6" t="n">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="T6" t="n">
-        <v>259</v>
+        <v>587</v>
       </c>
       <c r="U6" t="n">
-        <v>200</v>
+        <v>557</v>
       </c>
       <c r="V6" t="n">
-        <v>317</v>
+        <v>581</v>
       </c>
       <c r="W6" t="n">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="X6" t="n">
-        <v>557</v>
+        <v>1208</v>
       </c>
       <c r="Y6" t="n">
-        <v>581</v>
+        <v>1993</v>
       </c>
       <c r="Z6" t="n">
-        <v>599</v>
+        <v>2379</v>
       </c>
       <c r="AA6" t="n">
-        <v>1208</v>
+        <v>2767</v>
       </c>
       <c r="AB6" t="n">
-        <v>1993</v>
+        <v>3155</v>
       </c>
       <c r="AC6" t="n">
-        <v>2379</v>
+        <v>3548</v>
       </c>
       <c r="AD6" t="n">
-        <v>2767</v>
+        <v>3576</v>
       </c>
       <c r="AE6" t="n">
-        <v>3155</v>
+        <v>3605</v>
       </c>
       <c r="AF6" t="n">
-        <v>3548</v>
+        <v>3603</v>
       </c>
       <c r="AG6" t="n">
-        <v>3576</v>
+        <v>3677</v>
       </c>
       <c r="AH6" t="n">
-        <v>3605</v>
+        <v>3710</v>
       </c>
       <c r="AI6" t="n">
-        <v>3603</v>
+        <v>3739</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3677</v>
+        <v>3862</v>
       </c>
       <c r="AK6" t="n">
-        <v>3710</v>
+        <v>3991</v>
       </c>
       <c r="AL6" t="n">
-        <v>3739</v>
+        <v>3963</v>
       </c>
       <c r="AM6" t="n">
-        <v>3862</v>
+        <v>3973</v>
       </c>
       <c r="AN6" t="n">
-        <v>3991</v>
+        <v>4121</v>
       </c>
       <c r="AO6" t="n">
-        <v>3963</v>
+        <v>4251</v>
       </c>
       <c r="AP6" t="n">
-        <v>3973</v>
+        <v>4099</v>
       </c>
       <c r="AQ6" t="n">
-        <v>4121</v>
+        <v>4184</v>
       </c>
       <c r="AR6" t="n">
-        <v>4251</v>
+        <v>4372</v>
       </c>
       <c r="AS6" t="n">
-        <v>4099</v>
+        <v>4353</v>
       </c>
       <c r="AT6" t="n">
-        <v>4184</v>
+        <v>4446</v>
       </c>
       <c r="AU6" t="n">
-        <v>4372</v>
+        <v>4540</v>
       </c>
       <c r="AV6" t="n">
-        <v>4353</v>
+        <v>6843</v>
       </c>
       <c r="AW6" t="n">
-        <v>4446</v>
+        <v>6985</v>
       </c>
       <c r="AX6" t="n">
-        <v>4540</v>
+        <v>7091</v>
       </c>
       <c r="AY6" t="n">
-        <v>6843</v>
+        <v>7185</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6985</v>
+        <v>7265</v>
       </c>
       <c r="BA6" t="n">
-        <v>7091</v>
+        <v>7359</v>
       </c>
       <c r="BB6" t="n">
-        <v>7185</v>
+        <v>7452</v>
       </c>
       <c r="BC6" t="n">
-        <v>7265</v>
+        <v>7545</v>
       </c>
       <c r="BD6" t="n">
-        <v>7359</v>
+        <v>7625</v>
       </c>
       <c r="BE6" t="n">
-        <v>7452</v>
+        <v>7113</v>
       </c>
       <c r="BF6" t="n">
-        <v>7545</v>
+        <v>6682</v>
       </c>
       <c r="BG6" t="n">
-        <v>7625</v>
+        <v>6373</v>
       </c>
       <c r="BH6" t="n">
-        <v>7113</v>
+        <v>6343</v>
       </c>
       <c r="BI6" t="n">
-        <v>6682</v>
+        <v>6343</v>
       </c>
     </row>
     <row r="7">
@@ -2460,121 +2460,121 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="O11" t="n">
-        <v>421</v>
+        <v>200</v>
       </c>
       <c r="P11" t="n">
-        <v>354</v>
+        <v>127</v>
       </c>
       <c r="Q11" t="n">
-        <v>282</v>
+        <v>143</v>
       </c>
       <c r="R11" t="n">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="S11" t="n">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="T11" t="n">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="U11" t="n">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="V11" t="n">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="W11" t="n">
-        <v>93</v>
+        <v>611</v>
       </c>
       <c r="X11" t="n">
-        <v>94</v>
+        <v>1064</v>
       </c>
       <c r="Y11" t="n">
-        <v>95</v>
+        <v>1050</v>
       </c>
       <c r="Z11" t="n">
-        <v>611</v>
+        <v>4069</v>
       </c>
       <c r="AA11" t="n">
-        <v>1064</v>
+        <v>4070</v>
       </c>
       <c r="AB11" t="n">
-        <v>1050</v>
+        <v>4084</v>
       </c>
       <c r="AC11" t="n">
-        <v>4069</v>
+        <v>4208</v>
       </c>
       <c r="AD11" t="n">
-        <v>4070</v>
+        <v>4213</v>
       </c>
       <c r="AE11" t="n">
-        <v>4084</v>
+        <v>4205</v>
       </c>
       <c r="AF11" t="n">
-        <v>4208</v>
+        <v>2204</v>
       </c>
       <c r="AG11" t="n">
-        <v>4213</v>
+        <v>2205</v>
       </c>
       <c r="AH11" t="n">
-        <v>4205</v>
+        <v>2212</v>
       </c>
       <c r="AI11" t="n">
-        <v>2204</v>
+        <v>2245</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2205</v>
+        <v>2244</v>
       </c>
       <c r="AK11" t="n">
-        <v>2212</v>
+        <v>2252</v>
       </c>
       <c r="AL11" t="n">
-        <v>2245</v>
+        <v>2242</v>
       </c>
       <c r="AM11" t="n">
-        <v>2244</v>
+        <v>2194</v>
       </c>
       <c r="AN11" t="n">
-        <v>2252</v>
+        <v>2195</v>
       </c>
       <c r="AO11" t="n">
-        <v>2242</v>
+        <v>2195</v>
       </c>
       <c r="AP11" t="n">
+        <v>2199</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>2194</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>2195</v>
       </c>
       <c r="AR11" t="n">
         <v>2195</v>
       </c>
       <c r="AS11" t="n">
-        <v>2199</v>
+        <v>2209</v>
       </c>
       <c r="AT11" t="n">
-        <v>2194</v>
+        <v>2210</v>
       </c>
       <c r="AU11" t="n">
-        <v>2195</v>
+        <v>2210</v>
       </c>
       <c r="AV11" t="n">
-        <v>2209</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>2210</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>2210</v>
+        <v>0</v>
       </c>
       <c r="AY11" t="n">
         <v>0</v>
@@ -2617,184 +2617,184 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5845454.848</v>
+        <v>6407880.192</v>
       </c>
       <c r="C12" t="n">
-        <v>6031793.152</v>
+        <v>6595881.984</v>
       </c>
       <c r="D12" t="n">
-        <v>6223962.112</v>
+        <v>6779889.152</v>
       </c>
       <c r="E12" t="n">
-        <v>6407880.192</v>
+        <v>6996332.032</v>
       </c>
       <c r="F12" t="n">
-        <v>6595881.984</v>
+        <v>7205113.856</v>
       </c>
       <c r="G12" t="n">
-        <v>6779889.152</v>
+        <v>7460868.096</v>
       </c>
       <c r="H12" t="n">
-        <v>6996332.032</v>
+        <v>8034053.12</v>
       </c>
       <c r="I12" t="n">
-        <v>7205113.856</v>
+        <v>8291292.16</v>
       </c>
       <c r="J12" t="n">
-        <v>7460868.096</v>
+        <v>8552029.184</v>
       </c>
       <c r="K12" t="n">
-        <v>8034053.12</v>
+        <v>8836416.512</v>
       </c>
       <c r="L12" t="n">
-        <v>8291292.16</v>
+        <v>9068767.232000001</v>
       </c>
       <c r="M12" t="n">
-        <v>8552029.184</v>
+        <v>9030435.84</v>
       </c>
       <c r="N12" t="n">
-        <v>8836416.512</v>
+        <v>9042361.344000001</v>
       </c>
       <c r="O12" t="n">
-        <v>9068767.232000001</v>
+        <v>9061300.223999999</v>
       </c>
       <c r="P12" t="n">
-        <v>9030435.84</v>
+        <v>9179067.392000001</v>
       </c>
       <c r="Q12" t="n">
-        <v>9042361.344000001</v>
+        <v>9158673.408</v>
       </c>
       <c r="R12" t="n">
-        <v>9061300.223999999</v>
+        <v>9121381.376</v>
       </c>
       <c r="S12" t="n">
-        <v>9179067.392000001</v>
+        <v>9089675.264</v>
       </c>
       <c r="T12" t="n">
-        <v>9158673.408</v>
+        <v>9159883.776000001</v>
       </c>
       <c r="U12" t="n">
-        <v>9121381.376</v>
+        <v>9144474.624</v>
       </c>
       <c r="V12" t="n">
-        <v>9089675.264</v>
+        <v>9111224.32</v>
       </c>
       <c r="W12" t="n">
-        <v>9159883.776000001</v>
+        <v>9322232.832</v>
       </c>
       <c r="X12" t="n">
-        <v>9144474.624</v>
+        <v>9331231.744000001</v>
       </c>
       <c r="Y12" t="n">
-        <v>9111224.32</v>
+        <v>9319617.536</v>
       </c>
       <c r="Z12" t="n">
-        <v>9322232.832</v>
+        <v>9331802.112</v>
       </c>
       <c r="AA12" t="n">
-        <v>9331231.744000001</v>
+        <v>9365300.223999999</v>
       </c>
       <c r="AB12" t="n">
-        <v>9319617.536</v>
+        <v>9379748.864</v>
       </c>
       <c r="AC12" t="n">
-        <v>9331802.112</v>
+        <v>9385459.711999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>9365300.223999999</v>
+        <v>9373957.119999999</v>
       </c>
       <c r="AE12" t="n">
-        <v>9379748.864</v>
+        <v>9351451.648</v>
       </c>
       <c r="AF12" t="n">
-        <v>9385459.711999999</v>
+        <v>926080</v>
       </c>
       <c r="AG12" t="n">
-        <v>9373957.119999999</v>
+        <v>926556.032</v>
       </c>
       <c r="AH12" t="n">
-        <v>9351451.648</v>
+        <v>928979.968</v>
       </c>
       <c r="AI12" t="n">
-        <v>926080</v>
+        <v>922513.9840000001</v>
       </c>
       <c r="AJ12" t="n">
-        <v>926556.032</v>
+        <v>922484.992</v>
       </c>
       <c r="AK12" t="n">
-        <v>928979.968</v>
+        <v>922780.032</v>
       </c>
       <c r="AL12" t="n">
-        <v>922513.9840000001</v>
+        <v>923355.008</v>
       </c>
       <c r="AM12" t="n">
-        <v>922484.992</v>
+        <v>923772.992</v>
       </c>
       <c r="AN12" t="n">
-        <v>922780.032</v>
+        <v>923724.992</v>
       </c>
       <c r="AO12" t="n">
-        <v>923355.008</v>
+        <v>923790.976</v>
       </c>
       <c r="AP12" t="n">
-        <v>923772.992</v>
+        <v>924038.0159999999</v>
       </c>
       <c r="AQ12" t="n">
-        <v>923724.992</v>
+        <v>924158.0159999999</v>
       </c>
       <c r="AR12" t="n">
-        <v>923790.976</v>
+        <v>926174.0159999999</v>
       </c>
       <c r="AS12" t="n">
-        <v>924038.0159999999</v>
+        <v>926172.992</v>
       </c>
       <c r="AT12" t="n">
-        <v>924158.0159999999</v>
+        <v>925760</v>
       </c>
       <c r="AU12" t="n">
-        <v>926174.0159999999</v>
+        <v>925603.008</v>
       </c>
       <c r="AV12" t="n">
-        <v>926172.992</v>
+        <v>925406.0159999999</v>
       </c>
       <c r="AW12" t="n">
-        <v>925760</v>
+        <v>913078.976</v>
       </c>
       <c r="AX12" t="n">
-        <v>925603.008</v>
+        <v>913406.976</v>
       </c>
       <c r="AY12" t="n">
-        <v>925406.0159999999</v>
+        <v>913752</v>
       </c>
       <c r="AZ12" t="n">
-        <v>913078.976</v>
+        <v>913120</v>
       </c>
       <c r="BA12" t="n">
-        <v>913406.976</v>
+        <v>912825.9840000001</v>
       </c>
       <c r="BB12" t="n">
-        <v>913752</v>
+        <v>912449.024</v>
       </c>
       <c r="BC12" t="n">
-        <v>913120</v>
+        <v>912329.9840000001</v>
       </c>
       <c r="BD12" t="n">
-        <v>912825.9840000001</v>
+        <v>913067.008</v>
       </c>
       <c r="BE12" t="n">
-        <v>912449.024</v>
+        <v>910419.968</v>
       </c>
       <c r="BF12" t="n">
-        <v>912329.9840000001</v>
+        <v>912062.976</v>
       </c>
       <c r="BG12" t="n">
-        <v>913067.008</v>
+        <v>912206.976</v>
       </c>
       <c r="BH12" t="n">
-        <v>910419.968</v>
+        <v>905217.9840000001</v>
       </c>
       <c r="BI12" t="n">
-        <v>912062.976</v>
+        <v>905163.008</v>
       </c>
     </row>
     <row r="13">
@@ -3178,121 +3178,121 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5599483.904</v>
+        <v>6199123.968</v>
       </c>
       <c r="C15" t="n">
-        <v>5806268.928</v>
+        <v>6395725.824</v>
       </c>
       <c r="D15" t="n">
-        <v>6006208</v>
+        <v>6593928.192</v>
       </c>
       <c r="E15" t="n">
-        <v>6199123.968</v>
+        <v>6800879.104</v>
       </c>
       <c r="F15" t="n">
-        <v>6395725.824</v>
+        <v>7018039.808</v>
       </c>
       <c r="G15" t="n">
-        <v>6593928.192</v>
+        <v>7251451.904</v>
       </c>
       <c r="H15" t="n">
-        <v>6800879.104</v>
+        <v>170395.008</v>
       </c>
       <c r="I15" t="n">
-        <v>7018039.808</v>
+        <v>171322</v>
       </c>
       <c r="J15" t="n">
-        <v>7251451.904</v>
+        <v>173498</v>
       </c>
       <c r="K15" t="n">
-        <v>170395.008</v>
+        <v>174162</v>
       </c>
       <c r="L15" t="n">
-        <v>171322</v>
+        <v>135047.008</v>
       </c>
       <c r="M15" t="n">
-        <v>173498</v>
+        <v>135262</v>
       </c>
       <c r="N15" t="n">
-        <v>174162</v>
+        <v>135626</v>
       </c>
       <c r="O15" t="n">
-        <v>135047.008</v>
+        <v>186734</v>
       </c>
       <c r="P15" t="n">
-        <v>135262</v>
+        <v>186480.992</v>
       </c>
       <c r="Q15" t="n">
-        <v>135626</v>
+        <v>234455.008</v>
       </c>
       <c r="R15" t="n">
-        <v>186734</v>
+        <v>235644</v>
       </c>
       <c r="S15" t="n">
-        <v>186480.992</v>
+        <v>236348.992</v>
       </c>
       <c r="T15" t="n">
-        <v>234455.008</v>
+        <v>309892.992</v>
       </c>
       <c r="U15" t="n">
-        <v>235644</v>
+        <v>310264</v>
       </c>
       <c r="V15" t="n">
-        <v>236348.992</v>
+        <v>309390.016</v>
       </c>
       <c r="W15" t="n">
-        <v>309892.992</v>
+        <v>551990.976</v>
       </c>
       <c r="X15" t="n">
-        <v>310264</v>
+        <v>588705.9840000001</v>
       </c>
       <c r="Y15" t="n">
-        <v>309390.016</v>
+        <v>590033.024</v>
       </c>
       <c r="Z15" t="n">
-        <v>551990.976</v>
+        <v>623787.008</v>
       </c>
       <c r="AA15" t="n">
-        <v>588705.9840000001</v>
+        <v>648780.992</v>
       </c>
       <c r="AB15" t="n">
-        <v>590033.024</v>
+        <v>648833.9840000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>623787.008</v>
+        <v>667795.968</v>
       </c>
       <c r="AD15" t="n">
-        <v>648780.992</v>
+        <v>667795.968</v>
       </c>
       <c r="AE15" t="n">
-        <v>648833.9840000001</v>
+        <v>662115.008</v>
       </c>
       <c r="AF15" t="n">
-        <v>667795.968</v>
+        <v>896246.0159999999</v>
       </c>
       <c r="AG15" t="n">
-        <v>667795.968</v>
+        <v>895643.008</v>
       </c>
       <c r="AH15" t="n">
-        <v>662115.008</v>
+        <v>897900.032</v>
       </c>
       <c r="AI15" t="n">
-        <v>896246.0159999999</v>
+        <v>880499.968</v>
       </c>
       <c r="AJ15" t="n">
-        <v>895643.008</v>
+        <v>880814.0159999999</v>
       </c>
       <c r="AK15" t="n">
-        <v>897900.032</v>
+        <v>880865.9840000001</v>
       </c>
       <c r="AL15" t="n">
-        <v>880499.968</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>880814.0159999999</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>880865.9840000001</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
         <v>0</v>
@@ -3473,16 +3473,16 @@
         <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>880865.9840000001</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>881102.976</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>881102.976</v>
       </c>
       <c r="AO16" t="n">
-        <v>880865.9840000001</v>
+        <v>881102.976</v>
       </c>
       <c r="AP16" t="n">
         <v>881102.976</v>
@@ -3506,22 +3506,22 @@
         <v>881102.976</v>
       </c>
       <c r="AW16" t="n">
-        <v>881102.976</v>
+        <v>880505.024</v>
       </c>
       <c r="AX16" t="n">
-        <v>881102.976</v>
+        <v>880504</v>
       </c>
       <c r="AY16" t="n">
-        <v>881102.976</v>
+        <v>880504</v>
       </c>
       <c r="AZ16" t="n">
         <v>880505.024</v>
       </c>
       <c r="BA16" t="n">
-        <v>880504</v>
+        <v>880505.024</v>
       </c>
       <c r="BB16" t="n">
-        <v>880504</v>
+        <v>880505.024</v>
       </c>
       <c r="BC16" t="n">
         <v>880505.024</v>
@@ -3533,16 +3533,16 @@
         <v>880505.024</v>
       </c>
       <c r="BF16" t="n">
-        <v>880505.024</v>
+        <v>881889.024</v>
       </c>
       <c r="BG16" t="n">
-        <v>880505.024</v>
+        <v>881891.968</v>
       </c>
       <c r="BH16" t="n">
-        <v>880505.024</v>
+        <v>881772.992</v>
       </c>
       <c r="BI16" t="n">
-        <v>881889.024</v>
+        <v>881785.024</v>
       </c>
     </row>
     <row r="17">
@@ -3757,85 +3757,85 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>284700</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>295012</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>302972</v>
       </c>
       <c r="K18" t="n">
-        <v>284700</v>
+        <v>304755.008</v>
       </c>
       <c r="L18" t="n">
-        <v>295012</v>
+        <v>306272.992</v>
       </c>
       <c r="M18" t="n">
-        <v>302972</v>
+        <v>310111.008</v>
       </c>
       <c r="N18" t="n">
-        <v>304755.008</v>
+        <v>375894.016</v>
       </c>
       <c r="O18" t="n">
-        <v>306272.992</v>
+        <v>405390.016</v>
       </c>
       <c r="P18" t="n">
-        <v>310111.008</v>
+        <v>588494.0159999999</v>
       </c>
       <c r="Q18" t="n">
-        <v>375894.016</v>
+        <v>590590.0159999999</v>
       </c>
       <c r="R18" t="n">
-        <v>405390.016</v>
+        <v>618299.008</v>
       </c>
       <c r="S18" t="n">
-        <v>588494.0159999999</v>
+        <v>645865.9840000001</v>
       </c>
       <c r="T18" t="n">
-        <v>590590.0159999999</v>
+        <v>711841.024</v>
       </c>
       <c r="U18" t="n">
-        <v>618299.008</v>
+        <v>754681.9840000001</v>
       </c>
       <c r="V18" t="n">
-        <v>645865.9840000001</v>
+        <v>787657.024</v>
       </c>
       <c r="W18" t="n">
-        <v>711841.024</v>
+        <v>816841.024</v>
       </c>
       <c r="X18" t="n">
-        <v>754681.9840000001</v>
+        <v>849632</v>
       </c>
       <c r="Y18" t="n">
-        <v>787657.024</v>
+        <v>901592</v>
       </c>
       <c r="Z18" t="n">
-        <v>816841.024</v>
+        <v>936184</v>
       </c>
       <c r="AA18" t="n">
-        <v>849632</v>
+        <v>973910.0159999999</v>
       </c>
       <c r="AB18" t="n">
-        <v>901592</v>
+        <v>1047294.016</v>
       </c>
       <c r="AC18" t="n">
-        <v>936184</v>
+        <v>1097240.96</v>
       </c>
       <c r="AD18" t="n">
-        <v>973910.0159999999</v>
+        <v>1150280.96</v>
       </c>
       <c r="AE18" t="n">
-        <v>1047294.016</v>
+        <v>1192129.024</v>
       </c>
       <c r="AF18" t="n">
-        <v>1097240.96</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>1150280.96</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>1192129.024</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
@@ -4113,64 +4113,64 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>66411</v>
+        <v>76522</v>
       </c>
       <c r="C20" t="n">
-        <v>60093</v>
+        <v>81714</v>
       </c>
       <c r="D20" t="n">
-        <v>68652</v>
+        <v>66003</v>
       </c>
       <c r="E20" t="n">
-        <v>76522</v>
+        <v>75560</v>
       </c>
       <c r="F20" t="n">
-        <v>81714</v>
+        <v>78201</v>
       </c>
       <c r="G20" t="n">
-        <v>66003</v>
+        <v>96940</v>
       </c>
       <c r="H20" t="n">
-        <v>75560</v>
+        <v>16424</v>
       </c>
       <c r="I20" t="n">
-        <v>78201</v>
+        <v>9143</v>
       </c>
       <c r="J20" t="n">
-        <v>96940</v>
+        <v>793</v>
       </c>
       <c r="K20" t="n">
-        <v>16424</v>
+        <v>1044</v>
       </c>
       <c r="L20" t="n">
-        <v>9143</v>
+        <v>1138</v>
       </c>
       <c r="M20" t="n">
-        <v>793</v>
+        <v>1319</v>
       </c>
       <c r="N20" t="n">
-        <v>1044</v>
+        <v>1535</v>
       </c>
       <c r="O20" t="n">
-        <v>1138</v>
+        <v>1688</v>
       </c>
       <c r="P20" t="n">
-        <v>1319</v>
+        <v>2030</v>
       </c>
       <c r="Q20" t="n">
-        <v>1535</v>
+        <v>5</v>
       </c>
       <c r="R20" t="n">
-        <v>1688</v>
+        <v>5</v>
       </c>
       <c r="S20" t="n">
-        <v>2030</v>
+        <v>5</v>
       </c>
       <c r="T20" t="n">
         <v>5</v>
       </c>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="V20" t="n">
         <v>5</v>
@@ -4179,55 +4179,55 @@
         <v>5</v>
       </c>
       <c r="X20" t="n">
-        <v>233</v>
+        <v>5</v>
       </c>
       <c r="Y20" t="n">
-        <v>5</v>
+        <v>9214</v>
       </c>
       <c r="Z20" t="n">
-        <v>5</v>
+        <v>10285</v>
       </c>
       <c r="AA20" t="n">
-        <v>5</v>
+        <v>18642</v>
       </c>
       <c r="AB20" t="n">
-        <v>9214</v>
+        <v>16986</v>
       </c>
       <c r="AC20" t="n">
-        <v>10285</v>
+        <v>16330</v>
       </c>
       <c r="AD20" t="n">
-        <v>18642</v>
+        <v>18675</v>
       </c>
       <c r="AE20" t="n">
-        <v>16986</v>
+        <v>23502</v>
       </c>
       <c r="AF20" t="n">
-        <v>16330</v>
+        <v>25193</v>
       </c>
       <c r="AG20" t="n">
-        <v>18675</v>
+        <v>28243</v>
       </c>
       <c r="AH20" t="n">
-        <v>23502</v>
+        <v>28407</v>
       </c>
       <c r="AI20" t="n">
-        <v>25193</v>
+        <v>39336</v>
       </c>
       <c r="AJ20" t="n">
-        <v>28243</v>
+        <v>38975</v>
       </c>
       <c r="AK20" t="n">
-        <v>28407</v>
+        <v>39218</v>
       </c>
       <c r="AL20" t="n">
-        <v>39336</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>38975</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>39218</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
         <v>0</v>
@@ -4300,184 +4300,184 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>179560</v>
+        <v>132234</v>
       </c>
       <c r="C21" t="n">
-        <v>165431.008</v>
+        <v>118442</v>
       </c>
       <c r="D21" t="n">
-        <v>149102</v>
+        <v>119958</v>
       </c>
       <c r="E21" t="n">
-        <v>132234</v>
+        <v>119893</v>
       </c>
       <c r="F21" t="n">
-        <v>118442</v>
+        <v>108873</v>
       </c>
       <c r="G21" t="n">
-        <v>119958</v>
+        <v>112476</v>
       </c>
       <c r="H21" t="n">
-        <v>119893</v>
+        <v>7562533.888</v>
       </c>
       <c r="I21" t="n">
-        <v>108873</v>
+        <v>7815815.168</v>
       </c>
       <c r="J21" t="n">
-        <v>112476</v>
+        <v>8074765.824</v>
       </c>
       <c r="K21" t="n">
-        <v>7562533.888</v>
+        <v>8356455.936</v>
       </c>
       <c r="L21" t="n">
-        <v>7815815.168</v>
+        <v>8626309.119999999</v>
       </c>
       <c r="M21" t="n">
-        <v>8074765.824</v>
+        <v>8583744</v>
       </c>
       <c r="N21" t="n">
-        <v>8356455.936</v>
+        <v>8529306.112</v>
       </c>
       <c r="O21" t="n">
-        <v>8626309.119999999</v>
+        <v>8467487.744000001</v>
       </c>
       <c r="P21" t="n">
-        <v>8583744</v>
+        <v>8402061.823999999</v>
       </c>
       <c r="Q21" t="n">
-        <v>8529306.112</v>
+        <v>8333622.784</v>
       </c>
       <c r="R21" t="n">
-        <v>8467487.744000001</v>
+        <v>8267432.96</v>
       </c>
       <c r="S21" t="n">
-        <v>8402061.823999999</v>
+        <v>8207455.232</v>
       </c>
       <c r="T21" t="n">
-        <v>8333622.784</v>
+        <v>8138144.768</v>
       </c>
       <c r="U21" t="n">
-        <v>8267432.96</v>
+        <v>8079296</v>
       </c>
       <c r="V21" t="n">
-        <v>8207455.232</v>
+        <v>8014172.16</v>
       </c>
       <c r="W21" t="n">
-        <v>8138144.768</v>
+        <v>7953396.224</v>
       </c>
       <c r="X21" t="n">
-        <v>8079296</v>
+        <v>7892889.088</v>
       </c>
       <c r="Y21" t="n">
-        <v>8014172.16</v>
+        <v>7818779.136</v>
       </c>
       <c r="Z21" t="n">
-        <v>7953396.224</v>
+        <v>7761546.24</v>
       </c>
       <c r="AA21" t="n">
-        <v>7892889.088</v>
+        <v>7723966.976</v>
       </c>
       <c r="AB21" t="n">
-        <v>7818779.136</v>
+        <v>7666634.752</v>
       </c>
       <c r="AC21" t="n">
-        <v>7761546.24</v>
+        <v>7604092.928</v>
       </c>
       <c r="AD21" t="n">
-        <v>7723966.976</v>
+        <v>7537205.248</v>
       </c>
       <c r="AE21" t="n">
-        <v>7666634.752</v>
+        <v>7473705.984</v>
       </c>
       <c r="AF21" t="n">
-        <v>7604092.928</v>
+        <v>4641</v>
       </c>
       <c r="AG21" t="n">
-        <v>7537205.248</v>
+        <v>2670</v>
       </c>
       <c r="AH21" t="n">
-        <v>7473705.984</v>
+        <v>2673</v>
       </c>
       <c r="AI21" t="n">
-        <v>4641</v>
+        <v>2678</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2670</v>
+        <v>2696</v>
       </c>
       <c r="AK21" t="n">
-        <v>2673</v>
+        <v>2696</v>
       </c>
       <c r="AL21" t="n">
-        <v>2678</v>
+        <v>39773</v>
       </c>
       <c r="AM21" t="n">
-        <v>2696</v>
+        <v>39935</v>
       </c>
       <c r="AN21" t="n">
-        <v>2696</v>
+        <v>39868</v>
       </c>
       <c r="AO21" t="n">
-        <v>39773</v>
+        <v>39934</v>
       </c>
       <c r="AP21" t="n">
-        <v>39935</v>
+        <v>40181</v>
       </c>
       <c r="AQ21" t="n">
-        <v>39868</v>
+        <v>40301</v>
       </c>
       <c r="AR21" t="n">
-        <v>39934</v>
+        <v>42317</v>
       </c>
       <c r="AS21" t="n">
-        <v>40181</v>
+        <v>42299</v>
       </c>
       <c r="AT21" t="n">
-        <v>40301</v>
+        <v>41886</v>
       </c>
       <c r="AU21" t="n">
-        <v>42317</v>
+        <v>41730</v>
       </c>
       <c r="AV21" t="n">
-        <v>42299</v>
+        <v>41532</v>
       </c>
       <c r="AW21" t="n">
-        <v>41886</v>
+        <v>29803</v>
       </c>
       <c r="AX21" t="n">
-        <v>41730</v>
+        <v>30132</v>
       </c>
       <c r="AY21" t="n">
-        <v>41532</v>
+        <v>30502</v>
       </c>
       <c r="AZ21" t="n">
-        <v>29803</v>
+        <v>29869</v>
       </c>
       <c r="BA21" t="n">
-        <v>30132</v>
+        <v>29575</v>
       </c>
       <c r="BB21" t="n">
-        <v>30502</v>
+        <v>29198</v>
       </c>
       <c r="BC21" t="n">
-        <v>29869</v>
+        <v>29028</v>
       </c>
       <c r="BD21" t="n">
-        <v>29575</v>
+        <v>29609</v>
       </c>
       <c r="BE21" t="n">
-        <v>29198</v>
+        <v>26910</v>
       </c>
       <c r="BF21" t="n">
-        <v>29028</v>
+        <v>27169</v>
       </c>
       <c r="BG21" t="n">
-        <v>29609</v>
+        <v>27310</v>
       </c>
       <c r="BH21" t="n">
-        <v>26910</v>
+        <v>22229</v>
       </c>
       <c r="BI21" t="n">
-        <v>27169</v>
+        <v>22162</v>
       </c>
     </row>
     <row r="22">
@@ -4487,184 +4487,184 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4227</v>
+        <v>3501</v>
       </c>
       <c r="C22" t="n">
         <v>3501</v>
       </c>
       <c r="D22" t="n">
-        <v>3501</v>
+        <v>3521</v>
       </c>
       <c r="E22" t="n">
-        <v>3501</v>
+        <v>3521</v>
       </c>
       <c r="F22" t="n">
-        <v>3501</v>
+        <v>5727</v>
       </c>
       <c r="G22" t="n">
-        <v>3521</v>
+        <v>5725</v>
       </c>
       <c r="H22" t="n">
-        <v>3521</v>
+        <v>21284</v>
       </c>
       <c r="I22" t="n">
-        <v>5727</v>
+        <v>21566</v>
       </c>
       <c r="J22" t="n">
-        <v>5725</v>
+        <v>19691</v>
       </c>
       <c r="K22" t="n">
-        <v>21284</v>
+        <v>19691</v>
       </c>
       <c r="L22" t="n">
-        <v>21566</v>
+        <v>22360</v>
       </c>
       <c r="M22" t="n">
-        <v>19691</v>
+        <v>21092</v>
       </c>
       <c r="N22" t="n">
-        <v>19691</v>
+        <v>21559</v>
       </c>
       <c r="O22" t="n">
-        <v>22360</v>
+        <v>23114</v>
       </c>
       <c r="P22" t="n">
-        <v>21092</v>
+        <v>24135</v>
       </c>
       <c r="Q22" t="n">
-        <v>21559</v>
+        <v>24135</v>
       </c>
       <c r="R22" t="n">
-        <v>23114</v>
+        <v>24135</v>
       </c>
       <c r="S22" t="n">
         <v>24135</v>
       </c>
       <c r="T22" t="n">
-        <v>24135</v>
+        <v>27139</v>
       </c>
       <c r="U22" t="n">
-        <v>24135</v>
+        <v>27139</v>
       </c>
       <c r="V22" t="n">
-        <v>24135</v>
+        <v>27139</v>
       </c>
       <c r="W22" t="n">
         <v>27139</v>
       </c>
       <c r="X22" t="n">
-        <v>27139</v>
+        <v>19445</v>
       </c>
       <c r="Y22" t="n">
-        <v>27139</v>
+        <v>19445</v>
       </c>
       <c r="Z22" t="n">
-        <v>27139</v>
+        <v>19445</v>
       </c>
       <c r="AA22" t="n">
-        <v>19445</v>
+        <v>19164</v>
       </c>
       <c r="AB22" t="n">
-        <v>19445</v>
+        <v>2164</v>
       </c>
       <c r="AC22" t="n">
-        <v>19445</v>
+        <v>2164</v>
       </c>
       <c r="AD22" t="n">
-        <v>19164</v>
+        <v>2164</v>
       </c>
       <c r="AE22" t="n">
         <v>2164</v>
       </c>
       <c r="AF22" t="n">
-        <v>2164</v>
+        <v>2738</v>
       </c>
       <c r="AG22" t="n">
-        <v>2164</v>
+        <v>2738</v>
       </c>
       <c r="AH22" t="n">
-        <v>2164</v>
+        <v>2738</v>
       </c>
       <c r="AI22" t="n">
         <v>2738</v>
       </c>
       <c r="AJ22" t="n">
-        <v>2738</v>
+        <v>2468</v>
       </c>
       <c r="AK22" t="n">
-        <v>2738</v>
+        <v>2468</v>
       </c>
       <c r="AL22" t="n">
-        <v>2738</v>
+        <v>2468</v>
       </c>
       <c r="AM22" t="n">
         <v>2468</v>
       </c>
       <c r="AN22" t="n">
-        <v>2468</v>
+        <v>629</v>
       </c>
       <c r="AO22" t="n">
-        <v>2468</v>
+        <v>629</v>
       </c>
       <c r="AP22" t="n">
-        <v>2468</v>
+        <v>629</v>
       </c>
       <c r="AQ22" t="n">
         <v>629</v>
       </c>
       <c r="AR22" t="n">
-        <v>629</v>
+        <v>5670</v>
       </c>
       <c r="AS22" t="n">
-        <v>629</v>
+        <v>5670</v>
       </c>
       <c r="AT22" t="n">
-        <v>629</v>
+        <v>5670</v>
       </c>
       <c r="AU22" t="n">
         <v>5670</v>
       </c>
       <c r="AV22" t="n">
-        <v>5670</v>
+        <v>5819</v>
       </c>
       <c r="AW22" t="n">
-        <v>5670</v>
+        <v>5819</v>
       </c>
       <c r="AX22" t="n">
-        <v>5670</v>
+        <v>5819</v>
       </c>
       <c r="AY22" t="n">
         <v>5819</v>
       </c>
       <c r="AZ22" t="n">
-        <v>5819</v>
+        <v>10838</v>
       </c>
       <c r="BA22" t="n">
-        <v>5819</v>
+        <v>10838</v>
       </c>
       <c r="BB22" t="n">
-        <v>5819</v>
+        <v>10838</v>
       </c>
       <c r="BC22" t="n">
         <v>10838</v>
       </c>
       <c r="BD22" t="n">
-        <v>10838</v>
+        <v>10915</v>
       </c>
       <c r="BE22" t="n">
-        <v>10838</v>
+        <v>10915</v>
       </c>
       <c r="BF22" t="n">
-        <v>10838</v>
+        <v>10915</v>
       </c>
       <c r="BG22" t="n">
         <v>10915</v>
       </c>
       <c r="BH22" t="n">
-        <v>10915</v>
+        <v>13305</v>
       </c>
       <c r="BI22" t="n">
-        <v>10915</v>
+        <v>13305</v>
       </c>
     </row>
     <row r="23">
@@ -4674,184 +4674,184 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2387</v>
+        <v>2323</v>
       </c>
       <c r="C23" t="n">
-        <v>2366</v>
+        <v>2302</v>
       </c>
       <c r="D23" t="n">
-        <v>2345</v>
+        <v>2289</v>
       </c>
       <c r="E23" t="n">
-        <v>2323</v>
+        <v>2278</v>
       </c>
       <c r="F23" t="n">
-        <v>2302</v>
+        <v>2270</v>
       </c>
       <c r="G23" t="n">
-        <v>2289</v>
+        <v>2263</v>
       </c>
       <c r="H23" t="n">
-        <v>2278</v>
+        <v>28137</v>
       </c>
       <c r="I23" t="n">
-        <v>2270</v>
+        <v>28011</v>
       </c>
       <c r="J23" t="n">
-        <v>2263</v>
+        <v>27884</v>
       </c>
       <c r="K23" t="n">
-        <v>28137</v>
+        <v>27758</v>
       </c>
       <c r="L23" t="n">
-        <v>28011</v>
+        <v>27631</v>
       </c>
       <c r="M23" t="n">
-        <v>27884</v>
+        <v>27505</v>
       </c>
       <c r="N23" t="n">
-        <v>27758</v>
+        <v>27379</v>
       </c>
       <c r="O23" t="n">
-        <v>27631</v>
+        <v>27253</v>
       </c>
       <c r="P23" t="n">
-        <v>27505</v>
+        <v>27127</v>
       </c>
       <c r="Q23" t="n">
-        <v>27379</v>
+        <v>25908</v>
       </c>
       <c r="R23" t="n">
-        <v>27253</v>
+        <v>25782</v>
       </c>
       <c r="S23" t="n">
-        <v>27127</v>
+        <v>25656</v>
       </c>
       <c r="T23" t="n">
-        <v>25908</v>
+        <v>26623</v>
       </c>
       <c r="U23" t="n">
-        <v>25782</v>
+        <v>26497</v>
       </c>
       <c r="V23" t="n">
-        <v>25656</v>
+        <v>26371</v>
       </c>
       <c r="W23" t="n">
-        <v>26623</v>
+        <v>26245</v>
       </c>
       <c r="X23" t="n">
-        <v>26497</v>
+        <v>26120</v>
       </c>
       <c r="Y23" t="n">
-        <v>26371</v>
+        <v>25993</v>
       </c>
       <c r="Z23" t="n">
-        <v>26245</v>
+        <v>25867</v>
       </c>
       <c r="AA23" t="n">
-        <v>26120</v>
+        <v>25741</v>
       </c>
       <c r="AB23" t="n">
-        <v>25993</v>
+        <v>25447</v>
       </c>
       <c r="AC23" t="n">
-        <v>25867</v>
+        <v>25321</v>
       </c>
       <c r="AD23" t="n">
-        <v>25741</v>
+        <v>25195</v>
       </c>
       <c r="AE23" t="n">
-        <v>25447</v>
+        <v>25069</v>
       </c>
       <c r="AF23" t="n">
-        <v>25321</v>
+        <v>24943</v>
       </c>
       <c r="AG23" t="n">
-        <v>25195</v>
+        <v>24818</v>
       </c>
       <c r="AH23" t="n">
-        <v>25069</v>
+        <v>24692</v>
       </c>
       <c r="AI23" t="n">
-        <v>24943</v>
+        <v>24568</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24818</v>
+        <v>24447</v>
       </c>
       <c r="AK23" t="n">
-        <v>24692</v>
+        <v>24327</v>
       </c>
       <c r="AL23" t="n">
-        <v>24568</v>
+        <v>24207</v>
       </c>
       <c r="AM23" t="n">
-        <v>24447</v>
+        <v>24087</v>
       </c>
       <c r="AN23" t="n">
-        <v>24327</v>
+        <v>23967</v>
       </c>
       <c r="AO23" t="n">
-        <v>24207</v>
+        <v>23847</v>
       </c>
       <c r="AP23" t="n">
-        <v>24087</v>
+        <v>23727</v>
       </c>
       <c r="AQ23" t="n">
-        <v>23967</v>
+        <v>23607</v>
       </c>
       <c r="AR23" t="n">
-        <v>23847</v>
+        <v>23488</v>
       </c>
       <c r="AS23" t="n">
-        <v>23727</v>
+        <v>23368</v>
       </c>
       <c r="AT23" t="n">
-        <v>23607</v>
+        <v>23248</v>
       </c>
       <c r="AU23" t="n">
-        <v>23488</v>
+        <v>23128</v>
       </c>
       <c r="AV23" t="n">
-        <v>23368</v>
+        <v>23008</v>
       </c>
       <c r="AW23" t="n">
-        <v>23248</v>
+        <v>22888</v>
       </c>
       <c r="AX23" t="n">
-        <v>23128</v>
+        <v>22768</v>
       </c>
       <c r="AY23" t="n">
-        <v>23008</v>
+        <v>22648</v>
       </c>
       <c r="AZ23" t="n">
-        <v>22888</v>
+        <v>22528</v>
       </c>
       <c r="BA23" t="n">
-        <v>22768</v>
+        <v>22408</v>
       </c>
       <c r="BB23" t="n">
-        <v>22648</v>
+        <v>22288</v>
       </c>
       <c r="BC23" t="n">
-        <v>22528</v>
+        <v>22168</v>
       </c>
       <c r="BD23" t="n">
-        <v>22408</v>
+        <v>19553</v>
       </c>
       <c r="BE23" t="n">
-        <v>22288</v>
+        <v>19433</v>
       </c>
       <c r="BF23" t="n">
-        <v>22168</v>
+        <v>19401</v>
       </c>
       <c r="BG23" t="n">
-        <v>19553</v>
+        <v>17917</v>
       </c>
       <c r="BH23" t="n">
-        <v>19433</v>
+        <v>17815</v>
       </c>
       <c r="BI23" t="n">
-        <v>19401</v>
+        <v>17713</v>
       </c>
     </row>
     <row r="24">
@@ -5235,184 +5235,184 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5919741.952</v>
+        <v>6488367.104</v>
       </c>
       <c r="C26" t="n">
-        <v>6107920.896</v>
+        <v>6676348.928</v>
       </c>
       <c r="D26" t="n">
-        <v>6301749.76</v>
+        <v>6860867.072</v>
       </c>
       <c r="E26" t="n">
-        <v>6488367.104</v>
+        <v>7063636.992</v>
       </c>
       <c r="F26" t="n">
-        <v>6676348.928</v>
+        <v>7297648.128</v>
       </c>
       <c r="G26" t="n">
-        <v>6860867.072</v>
+        <v>7543783.936</v>
       </c>
       <c r="H26" t="n">
-        <v>7063636.992</v>
+        <v>8086044.16</v>
       </c>
       <c r="I26" t="n">
-        <v>7297648.128</v>
+        <v>8341271.04</v>
       </c>
       <c r="J26" t="n">
-        <v>7543783.936</v>
+        <v>8600178.687999999</v>
       </c>
       <c r="K26" t="n">
-        <v>8086044.16</v>
+        <v>8884289.536</v>
       </c>
       <c r="L26" t="n">
-        <v>8341271.04</v>
+        <v>9130626.048</v>
       </c>
       <c r="M26" t="n">
-        <v>8600178.687999999</v>
+        <v>9091266.560000001</v>
       </c>
       <c r="N26" t="n">
-        <v>8884289.536</v>
+        <v>9097738.24</v>
       </c>
       <c r="O26" t="n">
-        <v>9130626.048</v>
+        <v>9115709.439999999</v>
       </c>
       <c r="P26" t="n">
-        <v>9091266.560000001</v>
+        <v>9230788.607999999</v>
       </c>
       <c r="Q26" t="n">
-        <v>9097738.24</v>
+        <v>9209148.415999999</v>
       </c>
       <c r="R26" t="n">
-        <v>9115709.439999999</v>
+        <v>9171667.968</v>
       </c>
       <c r="S26" t="n">
-        <v>9230788.607999999</v>
+        <v>9139930.112</v>
       </c>
       <c r="T26" t="n">
-        <v>9209148.415999999</v>
+        <v>9214357.504000001</v>
       </c>
       <c r="U26" t="n">
-        <v>9171667.968</v>
+        <v>9198790.655999999</v>
       </c>
       <c r="V26" t="n">
-        <v>9139930.112</v>
+        <v>9165415.424000001</v>
       </c>
       <c r="W26" t="n">
-        <v>9214357.504000001</v>
+        <v>9376831.488</v>
       </c>
       <c r="X26" t="n">
-        <v>9198790.655999999</v>
+        <v>9379074.048</v>
       </c>
       <c r="Y26" t="n">
-        <v>9165415.424000001</v>
+        <v>9368104.960000001</v>
       </c>
       <c r="Z26" t="n">
-        <v>9376831.488</v>
+        <v>9383568.384</v>
       </c>
       <c r="AA26" t="n">
-        <v>9379074.048</v>
+        <v>9417049.088</v>
       </c>
       <c r="AB26" t="n">
-        <v>9368104.960000001</v>
+        <v>9414604.800000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>9383568.384</v>
+        <v>9420706.816</v>
       </c>
       <c r="AD26" t="n">
-        <v>9417049.088</v>
+        <v>9409111.039999999</v>
       </c>
       <c r="AE26" t="n">
-        <v>9414604.800000001</v>
+        <v>9386501.119999999</v>
       </c>
       <c r="AF26" t="n">
-        <v>9420706.816</v>
+        <v>959574.0159999999</v>
       </c>
       <c r="AG26" t="n">
-        <v>9409111.039999999</v>
+        <v>960000</v>
       </c>
       <c r="AH26" t="n">
-        <v>9386501.119999999</v>
+        <v>962337.9840000001</v>
       </c>
       <c r="AI26" t="n">
-        <v>959574.0159999999</v>
+        <v>955809.9840000001</v>
       </c>
       <c r="AJ26" t="n">
-        <v>960000</v>
+        <v>955512</v>
       </c>
       <c r="AK26" t="n">
-        <v>962337.9840000001</v>
+        <v>955824</v>
       </c>
       <c r="AL26" t="n">
-        <v>955809.9840000001</v>
+        <v>956241.024</v>
       </c>
       <c r="AM26" t="n">
-        <v>955512</v>
+        <v>956500.992</v>
       </c>
       <c r="AN26" t="n">
-        <v>955824</v>
+        <v>954643.008</v>
       </c>
       <c r="AO26" t="n">
-        <v>956241.024</v>
+        <v>954718.976</v>
       </c>
       <c r="AP26" t="n">
-        <v>956500.992</v>
+        <v>954697.9840000001</v>
       </c>
       <c r="AQ26" t="n">
-        <v>954643.008</v>
+        <v>954777.9840000001</v>
       </c>
       <c r="AR26" t="n">
-        <v>954718.976</v>
+        <v>961905.024</v>
       </c>
       <c r="AS26" t="n">
-        <v>954697.9840000001</v>
+        <v>961779.008</v>
       </c>
       <c r="AT26" t="n">
-        <v>954777.9840000001</v>
+        <v>961340.032</v>
       </c>
       <c r="AU26" t="n">
-        <v>961905.024</v>
+        <v>961156.992</v>
       </c>
       <c r="AV26" t="n">
-        <v>961779.008</v>
+        <v>961081.9840000001</v>
       </c>
       <c r="AW26" t="n">
-        <v>961340.032</v>
+        <v>948777.024</v>
       </c>
       <c r="AX26" t="n">
-        <v>961156.992</v>
+        <v>949091.008</v>
       </c>
       <c r="AY26" t="n">
-        <v>961081.9840000001</v>
+        <v>949409.9840000001</v>
       </c>
       <c r="AZ26" t="n">
-        <v>948777.024</v>
+        <v>953756.992</v>
       </c>
       <c r="BA26" t="n">
-        <v>949091.008</v>
+        <v>953436.992</v>
       </c>
       <c r="BB26" t="n">
-        <v>949409.9840000001</v>
+        <v>953033.024</v>
       </c>
       <c r="BC26" t="n">
-        <v>953756.992</v>
+        <v>952886.976</v>
       </c>
       <c r="BD26" t="n">
-        <v>953436.992</v>
+        <v>951166.0159999999</v>
       </c>
       <c r="BE26" t="n">
-        <v>953033.024</v>
+        <v>947888</v>
       </c>
       <c r="BF26" t="n">
-        <v>952886.976</v>
+        <v>949068.032</v>
       </c>
       <c r="BG26" t="n">
-        <v>951166.0159999999</v>
+        <v>947419.008</v>
       </c>
       <c r="BH26" t="n">
-        <v>947888</v>
+        <v>942688</v>
       </c>
       <c r="BI26" t="n">
-        <v>949068.032</v>
+        <v>942531.008</v>
       </c>
     </row>
     <row r="27">
@@ -5422,184 +5422,184 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1648505.984</v>
+        <v>1083604.992</v>
       </c>
       <c r="C27" t="n">
-        <v>982129.9840000001</v>
+        <v>1139464.96</v>
       </c>
       <c r="D27" t="n">
-        <v>1030537.984</v>
+        <v>1820553.984</v>
       </c>
       <c r="E27" t="n">
-        <v>1083604.992</v>
+        <v>1929664</v>
       </c>
       <c r="F27" t="n">
-        <v>1139464.96</v>
+        <v>126239</v>
       </c>
       <c r="G27" t="n">
-        <v>1820553.984</v>
+        <v>127814</v>
       </c>
       <c r="H27" t="n">
-        <v>1929664</v>
+        <v>26845</v>
       </c>
       <c r="I27" t="n">
-        <v>126239</v>
+        <v>25828</v>
       </c>
       <c r="J27" t="n">
-        <v>127814</v>
+        <v>27096</v>
       </c>
       <c r="K27" t="n">
-        <v>26845</v>
+        <v>27253</v>
       </c>
       <c r="L27" t="n">
-        <v>25828</v>
+        <v>27387</v>
       </c>
       <c r="M27" t="n">
-        <v>27096</v>
+        <v>32048</v>
       </c>
       <c r="N27" t="n">
-        <v>27253</v>
+        <v>39552</v>
       </c>
       <c r="O27" t="n">
-        <v>27387</v>
+        <v>14952</v>
       </c>
       <c r="P27" t="n">
-        <v>32048</v>
+        <v>15364</v>
       </c>
       <c r="Q27" t="n">
-        <v>39552</v>
+        <v>14462</v>
       </c>
       <c r="R27" t="n">
-        <v>14952</v>
+        <v>15364</v>
       </c>
       <c r="S27" t="n">
-        <v>15364</v>
+        <v>15148</v>
       </c>
       <c r="T27" t="n">
-        <v>14462</v>
+        <v>14953</v>
       </c>
       <c r="U27" t="n">
-        <v>15364</v>
+        <v>15005</v>
       </c>
       <c r="V27" t="n">
-        <v>15148</v>
+        <v>15646</v>
       </c>
       <c r="W27" t="n">
-        <v>14953</v>
+        <v>37620</v>
       </c>
       <c r="X27" t="n">
-        <v>15005</v>
+        <v>42120</v>
       </c>
       <c r="Y27" t="n">
-        <v>15646</v>
+        <v>763768</v>
       </c>
       <c r="Z27" t="n">
-        <v>37620</v>
+        <v>772214.976</v>
       </c>
       <c r="AA27" t="n">
-        <v>42120</v>
+        <v>790433.024</v>
       </c>
       <c r="AB27" t="n">
-        <v>763768</v>
+        <v>864844.032</v>
       </c>
       <c r="AC27" t="n">
-        <v>772214.976</v>
+        <v>876854.976</v>
       </c>
       <c r="AD27" t="n">
-        <v>790433.024</v>
+        <v>888174.976</v>
       </c>
       <c r="AE27" t="n">
-        <v>864844.032</v>
+        <v>972950.976</v>
       </c>
       <c r="AF27" t="n">
-        <v>876854.976</v>
+        <v>992110.0159999999</v>
       </c>
       <c r="AG27" t="n">
-        <v>888174.976</v>
+        <v>1031291.008</v>
       </c>
       <c r="AH27" t="n">
-        <v>972950.976</v>
+        <v>1062027.008</v>
       </c>
       <c r="AI27" t="n">
-        <v>992110.0159999999</v>
+        <v>1093572.992</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1031291.008</v>
+        <v>1133223.936</v>
       </c>
       <c r="AK27" t="n">
-        <v>1062027.008</v>
+        <v>1167355.008</v>
       </c>
       <c r="AL27" t="n">
-        <v>1093572.992</v>
+        <v>1190642.944</v>
       </c>
       <c r="AM27" t="n">
-        <v>1133223.936</v>
+        <v>1226146.944</v>
       </c>
       <c r="AN27" t="n">
-        <v>1167355.008</v>
+        <v>1286779.008</v>
       </c>
       <c r="AO27" t="n">
-        <v>1190642.944</v>
+        <v>1286944</v>
       </c>
       <c r="AP27" t="n">
-        <v>1226146.944</v>
+        <v>1324788.992</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1286779.008</v>
+        <v>1324676.992</v>
       </c>
       <c r="AR27" t="n">
-        <v>1286944</v>
+        <v>1344241.024</v>
       </c>
       <c r="AS27" t="n">
-        <v>1324788.992</v>
+        <v>1354734.976</v>
       </c>
       <c r="AT27" t="n">
-        <v>1324676.992</v>
+        <v>1354523.008</v>
       </c>
       <c r="AU27" t="n">
-        <v>1344241.024</v>
+        <v>1354443.008</v>
       </c>
       <c r="AV27" t="n">
-        <v>1354734.976</v>
+        <v>1760576</v>
       </c>
       <c r="AW27" t="n">
-        <v>1354523.008</v>
+        <v>1760694.016</v>
       </c>
       <c r="AX27" t="n">
-        <v>1354443.008</v>
+        <v>1634697.984</v>
       </c>
       <c r="AY27" t="n">
-        <v>1760576</v>
+        <v>1635289.984</v>
       </c>
       <c r="AZ27" t="n">
-        <v>1760694.016</v>
+        <v>2089713.024</v>
       </c>
       <c r="BA27" t="n">
-        <v>1634697.984</v>
+        <v>2089764.992</v>
       </c>
       <c r="BB27" t="n">
-        <v>1635289.984</v>
+        <v>2319237.12</v>
       </c>
       <c r="BC27" t="n">
-        <v>2089713.024</v>
+        <v>2388600.064</v>
       </c>
       <c r="BD27" t="n">
-        <v>2089764.992</v>
+        <v>2439107.072</v>
       </c>
       <c r="BE27" t="n">
-        <v>2319237.12</v>
+        <v>2439079.936</v>
       </c>
       <c r="BF27" t="n">
-        <v>2388600.064</v>
+        <v>2585167.872</v>
       </c>
       <c r="BG27" t="n">
-        <v>2439107.072</v>
+        <v>2662556.928</v>
       </c>
       <c r="BH27" t="n">
-        <v>2439079.936</v>
+        <v>2836236.032</v>
       </c>
       <c r="BI27" t="n">
-        <v>2585167.872</v>
+        <v>2921231.104</v>
       </c>
     </row>
     <row r="28">
@@ -5627,166 +5627,166 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>774</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>764</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="K28" t="n">
-        <v>774</v>
+        <v>862</v>
       </c>
       <c r="L28" t="n">
-        <v>764</v>
+        <v>672</v>
       </c>
       <c r="M28" t="n">
-        <v>807</v>
+        <v>854</v>
       </c>
       <c r="N28" t="n">
-        <v>862</v>
+        <v>911</v>
       </c>
       <c r="O28" t="n">
-        <v>672</v>
+        <v>893</v>
       </c>
       <c r="P28" t="n">
-        <v>854</v>
+        <v>366</v>
       </c>
       <c r="Q28" t="n">
-        <v>911</v>
+        <v>495</v>
       </c>
       <c r="R28" t="n">
-        <v>893</v>
+        <v>547</v>
       </c>
       <c r="S28" t="n">
-        <v>366</v>
+        <v>541</v>
       </c>
       <c r="T28" t="n">
-        <v>495</v>
+        <v>325</v>
       </c>
       <c r="U28" t="n">
-        <v>547</v>
+        <v>333</v>
       </c>
       <c r="V28" t="n">
-        <v>541</v>
+        <v>347</v>
       </c>
       <c r="W28" t="n">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="X28" t="n">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Y28" t="n">
-        <v>347</v>
+        <v>544</v>
       </c>
       <c r="Z28" t="n">
-        <v>299</v>
+        <v>558</v>
       </c>
       <c r="AA28" t="n">
-        <v>329</v>
+        <v>403</v>
       </c>
       <c r="AB28" t="n">
-        <v>544</v>
+        <v>382</v>
       </c>
       <c r="AC28" t="n">
-        <v>558</v>
+        <v>629</v>
       </c>
       <c r="AD28" t="n">
-        <v>403</v>
+        <v>548</v>
       </c>
       <c r="AE28" t="n">
-        <v>382</v>
+        <v>610</v>
       </c>
       <c r="AF28" t="n">
-        <v>629</v>
+        <v>595</v>
       </c>
       <c r="AG28" t="n">
-        <v>548</v>
+        <v>520</v>
       </c>
       <c r="AH28" t="n">
-        <v>610</v>
+        <v>412</v>
       </c>
       <c r="AI28" t="n">
-        <v>595</v>
+        <v>441</v>
       </c>
       <c r="AJ28" t="n">
-        <v>520</v>
+        <v>407</v>
       </c>
       <c r="AK28" t="n">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="AL28" t="n">
         <v>441</v>
       </c>
       <c r="AM28" t="n">
-        <v>407</v>
+        <v>470</v>
       </c>
       <c r="AN28" t="n">
-        <v>427</v>
+        <v>592</v>
       </c>
       <c r="AO28" t="n">
-        <v>441</v>
+        <v>604</v>
       </c>
       <c r="AP28" t="n">
-        <v>470</v>
+        <v>614</v>
       </c>
       <c r="AQ28" t="n">
-        <v>592</v>
+        <v>541</v>
       </c>
       <c r="AR28" t="n">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="AS28" t="n">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="AT28" t="n">
-        <v>541</v>
+        <v>432</v>
       </c>
       <c r="AU28" t="n">
-        <v>584</v>
+        <v>432</v>
       </c>
       <c r="AV28" t="n">
-        <v>596</v>
+        <v>443</v>
       </c>
       <c r="AW28" t="n">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="AX28" t="n">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="AY28" t="n">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="AZ28" t="n">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="BA28" t="n">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="BB28" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="BC28" t="n">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="BD28" t="n">
-        <v>463</v>
+        <v>212</v>
       </c>
       <c r="BE28" t="n">
-        <v>466</v>
+        <v>220</v>
       </c>
       <c r="BF28" t="n">
-        <v>469</v>
+        <v>219</v>
       </c>
       <c r="BG28" t="n">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="BH28" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="BI28" t="n">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29">
@@ -5796,184 +5796,184 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>16565</v>
+        <v>17153</v>
       </c>
       <c r="C29" t="n">
-        <v>16801</v>
+        <v>17284</v>
       </c>
       <c r="D29" t="n">
-        <v>16980</v>
+        <v>17485</v>
       </c>
       <c r="E29" t="n">
-        <v>17153</v>
+        <v>17731</v>
       </c>
       <c r="F29" t="n">
-        <v>17284</v>
+        <v>18173</v>
       </c>
       <c r="G29" t="n">
-        <v>17485</v>
+        <v>18448</v>
       </c>
       <c r="H29" t="n">
-        <v>17731</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>18173</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>18448</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="O29" t="n">
-        <v>304</v>
+        <v>783</v>
       </c>
       <c r="P29" t="n">
-        <v>336</v>
+        <v>600</v>
       </c>
       <c r="Q29" t="n">
-        <v>583</v>
+        <v>751</v>
       </c>
       <c r="R29" t="n">
-        <v>783</v>
+        <v>736</v>
       </c>
       <c r="S29" t="n">
-        <v>600</v>
+        <v>417</v>
       </c>
       <c r="T29" t="n">
-        <v>751</v>
+        <v>175</v>
       </c>
       <c r="U29" t="n">
-        <v>736</v>
+        <v>482</v>
       </c>
       <c r="V29" t="n">
-        <v>417</v>
+        <v>860</v>
       </c>
       <c r="W29" t="n">
-        <v>175</v>
+        <v>1622</v>
       </c>
       <c r="X29" t="n">
-        <v>482</v>
+        <v>1931</v>
       </c>
       <c r="Y29" t="n">
-        <v>860</v>
+        <v>2950</v>
       </c>
       <c r="Z29" t="n">
-        <v>1622</v>
+        <v>3203</v>
       </c>
       <c r="AA29" t="n">
-        <v>1931</v>
+        <v>3487</v>
       </c>
       <c r="AB29" t="n">
-        <v>2950</v>
+        <v>3721</v>
       </c>
       <c r="AC29" t="n">
-        <v>3203</v>
+        <v>4224</v>
       </c>
       <c r="AD29" t="n">
-        <v>3487</v>
+        <v>3996</v>
       </c>
       <c r="AE29" t="n">
-        <v>3721</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>4224</v>
+        <v>3732</v>
       </c>
       <c r="AG29" t="n">
-        <v>3996</v>
+        <v>3606</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>3590</v>
       </c>
       <c r="AI29" t="n">
-        <v>3732</v>
+        <v>3402</v>
       </c>
       <c r="AJ29" t="n">
-        <v>3606</v>
+        <v>3339</v>
       </c>
       <c r="AK29" t="n">
-        <v>3590</v>
+        <v>3311</v>
       </c>
       <c r="AL29" t="n">
-        <v>3402</v>
+        <v>3340</v>
       </c>
       <c r="AM29" t="n">
-        <v>3339</v>
+        <v>3308</v>
       </c>
       <c r="AN29" t="n">
-        <v>3311</v>
+        <v>3281</v>
       </c>
       <c r="AO29" t="n">
+        <v>3304</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>3346</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>3378</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>3401</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>3396</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3414</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>3388</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>3593</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>3652</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>3674</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>3647</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>3332</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>3397</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>3391</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>3361</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>3337</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>3338</v>
+      </c>
+      <c r="BF29" t="n">
         <v>3340</v>
       </c>
-      <c r="AP29" t="n">
-        <v>3308</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>3281</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>3304</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>3346</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>3378</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>3401</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>3396</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>3414</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>3388</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>3593</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>3652</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>3674</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>3647</v>
-      </c>
-      <c r="BC29" t="n">
+      <c r="BG29" t="n">
         <v>3332</v>
       </c>
-      <c r="BD29" t="n">
-        <v>3397</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>3391</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>3361</v>
-      </c>
-      <c r="BG29" t="n">
-        <v>3337</v>
-      </c>
       <c r="BH29" t="n">
-        <v>3338</v>
+        <v>3357</v>
       </c>
       <c r="BI29" t="n">
-        <v>3340</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="30">
@@ -6001,166 +6001,166 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2355</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2369</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>3843</v>
       </c>
       <c r="K30" t="n">
-        <v>2355</v>
+        <v>3911</v>
       </c>
       <c r="L30" t="n">
-        <v>2369</v>
+        <v>3697</v>
       </c>
       <c r="M30" t="n">
-        <v>3843</v>
+        <v>3768</v>
       </c>
       <c r="N30" t="n">
-        <v>3911</v>
+        <v>3828</v>
       </c>
       <c r="O30" t="n">
-        <v>3697</v>
+        <v>3881</v>
       </c>
       <c r="P30" t="n">
-        <v>3768</v>
+        <v>4688</v>
       </c>
       <c r="Q30" t="n">
-        <v>3828</v>
+        <v>3549</v>
       </c>
       <c r="R30" t="n">
-        <v>3881</v>
+        <v>3584</v>
       </c>
       <c r="S30" t="n">
-        <v>4688</v>
+        <v>3761</v>
       </c>
       <c r="T30" t="n">
-        <v>3549</v>
+        <v>3526</v>
       </c>
       <c r="U30" t="n">
-        <v>3584</v>
+        <v>3634</v>
       </c>
       <c r="V30" t="n">
-        <v>3761</v>
+        <v>3193</v>
       </c>
       <c r="W30" t="n">
-        <v>3526</v>
+        <v>2513</v>
       </c>
       <c r="X30" t="n">
-        <v>3634</v>
+        <v>1880</v>
       </c>
       <c r="Y30" t="n">
-        <v>3193</v>
+        <v>1363</v>
       </c>
       <c r="Z30" t="n">
-        <v>2513</v>
+        <v>1128</v>
       </c>
       <c r="AA30" t="n">
-        <v>1880</v>
+        <v>667</v>
       </c>
       <c r="AB30" t="n">
-        <v>1363</v>
+        <v>441</v>
       </c>
       <c r="AC30" t="n">
-        <v>1128</v>
+        <v>663</v>
       </c>
       <c r="AD30" t="n">
-        <v>667</v>
+        <v>727</v>
       </c>
       <c r="AE30" t="n">
-        <v>441</v>
+        <v>718</v>
       </c>
       <c r="AF30" t="n">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="AG30" t="n">
-        <v>727</v>
+        <v>703</v>
       </c>
       <c r="AH30" t="n">
-        <v>718</v>
+        <v>677</v>
       </c>
       <c r="AI30" t="n">
-        <v>666</v>
+        <v>633</v>
       </c>
       <c r="AJ30" t="n">
-        <v>703</v>
+        <v>302</v>
       </c>
       <c r="AK30" t="n">
-        <v>677</v>
+        <v>540</v>
       </c>
       <c r="AL30" t="n">
-        <v>633</v>
+        <v>545</v>
       </c>
       <c r="AM30" t="n">
-        <v>302</v>
+        <v>499</v>
       </c>
       <c r="AN30" t="n">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="AO30" t="n">
-        <v>545</v>
+        <v>645</v>
       </c>
       <c r="AP30" t="n">
-        <v>499</v>
+        <v>635</v>
       </c>
       <c r="AQ30" t="n">
+        <v>599</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>654</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>655</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>670</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>652</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>661</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>710</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>696</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>702</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>686</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>687</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>665</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>665</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>653</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>616</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>620</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>587</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>558</v>
+      </c>
+      <c r="BI30" t="n">
         <v>553</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>645</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>635</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>599</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>654</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>655</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>670</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>652</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>661</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>710</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>696</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>702</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>686</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>687</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>665</v>
-      </c>
-      <c r="BF30" t="n">
-        <v>665</v>
-      </c>
-      <c r="BG30" t="n">
-        <v>653</v>
-      </c>
-      <c r="BH30" t="n">
-        <v>616</v>
-      </c>
-      <c r="BI30" t="n">
-        <v>620</v>
       </c>
     </row>
     <row r="31">
@@ -6170,25 +6170,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1483852.032</v>
+        <v>914570.0160000001</v>
       </c>
       <c r="C31" t="n">
-        <v>815065.9839999999</v>
+        <v>969512.9920000001</v>
       </c>
       <c r="D31" t="n">
-        <v>862776</v>
+        <v>1698438.048</v>
       </c>
       <c r="E31" t="n">
-        <v>914570.0160000001</v>
+        <v>1806168</v>
       </c>
       <c r="F31" t="n">
-        <v>969512.9920000001</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1698438.048</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1806168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -6233,64 +6233,64 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>28439</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>33268</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>739683.968</v>
       </c>
       <c r="Z31" t="n">
-        <v>28439</v>
+        <v>747219.968</v>
       </c>
       <c r="AA31" t="n">
-        <v>33268</v>
+        <v>756022.976</v>
       </c>
       <c r="AB31" t="n">
-        <v>739683.968</v>
+        <v>821865.024</v>
       </c>
       <c r="AC31" t="n">
-        <v>747219.968</v>
+        <v>821865.024</v>
       </c>
       <c r="AD31" t="n">
-        <v>756022.976</v>
+        <v>821865.024</v>
       </c>
       <c r="AE31" t="n">
-        <v>821865.024</v>
+        <v>945145.024</v>
       </c>
       <c r="AF31" t="n">
-        <v>821865.024</v>
+        <v>964494.0159999999</v>
       </c>
       <c r="AG31" t="n">
-        <v>821865.024</v>
+        <v>1003966.976</v>
       </c>
       <c r="AH31" t="n">
-        <v>945145.024</v>
+        <v>1034755.968</v>
       </c>
       <c r="AI31" t="n">
-        <v>964494.0159999999</v>
+        <v>1066468.992</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1003966.976</v>
+        <v>1106596.992</v>
       </c>
       <c r="AK31" t="n">
-        <v>1034755.968</v>
+        <v>1140465.024</v>
       </c>
       <c r="AL31" t="n">
-        <v>1066468.992</v>
+        <v>1163719.936</v>
       </c>
       <c r="AM31" t="n">
-        <v>1106596.992</v>
+        <v>1199302.016</v>
       </c>
       <c r="AN31" t="n">
-        <v>1140465.024</v>
+        <v>1242067.968</v>
       </c>
       <c r="AO31" t="n">
-        <v>1163719.936</v>
+        <v>1242067.968</v>
       </c>
       <c r="AP31" t="n">
-        <v>1199302.016</v>
+        <v>1242067.968</v>
       </c>
       <c r="AQ31" t="n">
         <v>1242067.968</v>
@@ -6308,46 +6308,46 @@
         <v>1242067.968</v>
       </c>
       <c r="AV31" t="n">
-        <v>1242067.968</v>
+        <v>1606844.032</v>
       </c>
       <c r="AW31" t="n">
-        <v>1242067.968</v>
+        <v>1606844.032</v>
       </c>
       <c r="AX31" t="n">
-        <v>1242067.968</v>
+        <v>1606844.032</v>
       </c>
       <c r="AY31" t="n">
         <v>1606844.032</v>
       </c>
       <c r="AZ31" t="n">
-        <v>1606844.032</v>
+        <v>2061550.976</v>
       </c>
       <c r="BA31" t="n">
-        <v>1606844.032</v>
+        <v>2061550.976</v>
       </c>
       <c r="BB31" t="n">
-        <v>1606844.032</v>
+        <v>2291063.04</v>
       </c>
       <c r="BC31" t="n">
-        <v>2061550.976</v>
+        <v>2360463.872</v>
       </c>
       <c r="BD31" t="n">
-        <v>2061550.976</v>
+        <v>2412410.112</v>
       </c>
       <c r="BE31" t="n">
-        <v>2291063.04</v>
+        <v>2412410.112</v>
       </c>
       <c r="BF31" t="n">
-        <v>2360463.872</v>
+        <v>2558493.952</v>
       </c>
       <c r="BG31" t="n">
-        <v>2412410.112</v>
+        <v>2635919.104</v>
       </c>
       <c r="BH31" t="n">
-        <v>2412410.112</v>
+        <v>2809602.048</v>
       </c>
       <c r="BI31" t="n">
-        <v>2558493.952</v>
+        <v>2894560</v>
       </c>
     </row>
     <row r="32">
@@ -6731,175 +6731,175 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>51913</v>
+        <v>53451</v>
       </c>
       <c r="C34" t="n">
-        <v>53163</v>
+        <v>54143</v>
       </c>
       <c r="D34" t="n">
-        <v>52779</v>
+        <v>49145</v>
       </c>
       <c r="E34" t="n">
-        <v>53451</v>
+        <v>49141</v>
       </c>
       <c r="F34" t="n">
-        <v>54143</v>
+        <v>50458</v>
       </c>
       <c r="G34" t="n">
-        <v>49145</v>
+        <v>48303</v>
       </c>
       <c r="H34" t="n">
-        <v>49141</v>
+        <v>23716</v>
       </c>
       <c r="I34" t="n">
-        <v>50458</v>
+        <v>22695</v>
       </c>
       <c r="J34" t="n">
-        <v>48303</v>
+        <v>22446</v>
       </c>
       <c r="K34" t="n">
-        <v>23716</v>
+        <v>22480</v>
       </c>
       <c r="L34" t="n">
-        <v>22695</v>
+        <v>22714</v>
       </c>
       <c r="M34" t="n">
-        <v>22446</v>
+        <v>27090</v>
       </c>
       <c r="N34" t="n">
-        <v>22480</v>
+        <v>34230</v>
       </c>
       <c r="O34" t="n">
-        <v>22714</v>
+        <v>9395</v>
       </c>
       <c r="P34" t="n">
-        <v>27090</v>
+        <v>9710</v>
       </c>
       <c r="Q34" t="n">
-        <v>34230</v>
+        <v>9667</v>
       </c>
       <c r="R34" t="n">
-        <v>9395</v>
+        <v>10497</v>
       </c>
       <c r="S34" t="n">
-        <v>9710</v>
+        <v>10429</v>
       </c>
       <c r="T34" t="n">
-        <v>9667</v>
+        <v>10927</v>
       </c>
       <c r="U34" t="n">
-        <v>10497</v>
+        <v>10556</v>
       </c>
       <c r="V34" t="n">
-        <v>10429</v>
+        <v>11246</v>
       </c>
       <c r="W34" t="n">
-        <v>10927</v>
+        <v>4747</v>
       </c>
       <c r="X34" t="n">
-        <v>10556</v>
+        <v>4712</v>
       </c>
       <c r="Y34" t="n">
-        <v>11246</v>
+        <v>19227</v>
       </c>
       <c r="Z34" t="n">
-        <v>4747</v>
+        <v>20106</v>
       </c>
       <c r="AA34" t="n">
-        <v>4712</v>
+        <v>29853</v>
       </c>
       <c r="AB34" t="n">
-        <v>19227</v>
+        <v>38435</v>
       </c>
       <c r="AC34" t="n">
-        <v>20106</v>
+        <v>49474</v>
       </c>
       <c r="AD34" t="n">
-        <v>29853</v>
+        <v>61039</v>
       </c>
       <c r="AE34" t="n">
-        <v>38435</v>
+        <v>26478</v>
       </c>
       <c r="AF34" t="n">
-        <v>49474</v>
+        <v>22623</v>
       </c>
       <c r="AG34" t="n">
-        <v>61039</v>
+        <v>22495</v>
       </c>
       <c r="AH34" t="n">
-        <v>26478</v>
+        <v>22592</v>
       </c>
       <c r="AI34" t="n">
-        <v>22623</v>
+        <v>22628</v>
       </c>
       <c r="AJ34" t="n">
+        <v>22579</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>22612</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>22597</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>22568</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>40285</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>40323</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>78126</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>78091</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>97534</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>108020</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>107939</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>107903</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>149035.008</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>149032.992</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>23034</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>23641</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>23681</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>23667</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>23652</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>23641</v>
+      </c>
+      <c r="BD34" t="n">
         <v>22495</v>
       </c>
-      <c r="AK34" t="n">
-        <v>22592</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>22628</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>22579</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>22612</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>22597</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>22568</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>40285</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>40323</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>78126</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>78091</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>97534</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>108020</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>107939</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>107903</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>149035.008</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>149032.992</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>23034</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>23641</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>23681</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>23667</v>
-      </c>
       <c r="BE34" t="n">
-        <v>23652</v>
+        <v>22496</v>
       </c>
       <c r="BF34" t="n">
-        <v>23641</v>
+        <v>22495</v>
       </c>
       <c r="BG34" t="n">
         <v>22495</v>
@@ -6908,7 +6908,7 @@
         <v>22496</v>
       </c>
       <c r="BI34" t="n">
-        <v>22495</v>
+        <v>22496</v>
       </c>
     </row>
     <row r="35">
@@ -6918,31 +6918,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>96176</v>
+        <v>98431</v>
       </c>
       <c r="C35" t="n">
-        <v>97100</v>
+        <v>98525</v>
       </c>
       <c r="D35" t="n">
-        <v>98003</v>
+        <v>55486</v>
       </c>
       <c r="E35" t="n">
-        <v>98431</v>
+        <v>56624</v>
       </c>
       <c r="F35" t="n">
-        <v>98525</v>
+        <v>57608</v>
       </c>
       <c r="G35" t="n">
-        <v>55486</v>
+        <v>61063</v>
       </c>
       <c r="H35" t="n">
-        <v>56624</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>57608</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>61063</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -7292,184 +7292,184 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1743894.016</v>
+        <v>2639465.984</v>
       </c>
       <c r="C37" t="n">
-        <v>2531097.088</v>
+        <v>2691749.12</v>
       </c>
       <c r="D37" t="n">
-        <v>2585497.088</v>
+        <v>2009790.976</v>
       </c>
       <c r="E37" t="n">
-        <v>2639465.984</v>
+        <v>2044674.048</v>
       </c>
       <c r="F37" t="n">
-        <v>2691749.12</v>
+        <v>4009542.912</v>
       </c>
       <c r="G37" t="n">
-        <v>2009790.976</v>
+        <v>4168371.968</v>
       </c>
       <c r="H37" t="n">
-        <v>2044674.048</v>
+        <v>4315960.832</v>
       </c>
       <c r="I37" t="n">
-        <v>4009542.912</v>
+        <v>4439763.968</v>
       </c>
       <c r="J37" t="n">
-        <v>4168371.968</v>
+        <v>4542751.744</v>
       </c>
       <c r="K37" t="n">
-        <v>4315960.832</v>
+        <v>4671136.768</v>
       </c>
       <c r="L37" t="n">
-        <v>4439763.968</v>
+        <v>4774102.016</v>
       </c>
       <c r="M37" t="n">
-        <v>4542751.744</v>
+        <v>4805070.848</v>
       </c>
       <c r="N37" t="n">
-        <v>4671136.768</v>
+        <v>4871212.032</v>
       </c>
       <c r="O37" t="n">
-        <v>4774102.016</v>
+        <v>4861165.056</v>
       </c>
       <c r="P37" t="n">
-        <v>4805070.848</v>
+        <v>5441516.032</v>
       </c>
       <c r="Q37" t="n">
-        <v>4871212.032</v>
+        <v>5444127.744</v>
       </c>
       <c r="R37" t="n">
-        <v>4861165.056</v>
+        <v>5477085.184</v>
       </c>
       <c r="S37" t="n">
-        <v>5441516.032</v>
+        <v>5580759.04</v>
       </c>
       <c r="T37" t="n">
-        <v>5444127.744</v>
+        <v>5713831.936</v>
       </c>
       <c r="U37" t="n">
-        <v>5477085.184</v>
+        <v>5782134.784</v>
       </c>
       <c r="V37" t="n">
-        <v>5580759.04</v>
+        <v>5812747.776</v>
       </c>
       <c r="W37" t="n">
-        <v>5713831.936</v>
+        <v>6059727.872</v>
       </c>
       <c r="X37" t="n">
-        <v>5782134.784</v>
+        <v>6084944.896</v>
       </c>
       <c r="Y37" t="n">
-        <v>5812747.776</v>
+        <v>5444033.024</v>
       </c>
       <c r="Z37" t="n">
-        <v>6059727.872</v>
+        <v>5518211.072</v>
       </c>
       <c r="AA37" t="n">
-        <v>6084944.896</v>
+        <v>5607671.808</v>
       </c>
       <c r="AB37" t="n">
-        <v>5444033.024</v>
+        <v>5691240.96</v>
       </c>
       <c r="AC37" t="n">
-        <v>5518211.072</v>
+        <v>5769619.968</v>
       </c>
       <c r="AD37" t="n">
-        <v>5607671.808</v>
+        <v>5849887.232</v>
       </c>
       <c r="AE37" t="n">
-        <v>5691240.96</v>
+        <v>5950353.92</v>
       </c>
       <c r="AF37" t="n">
-        <v>5769619.968</v>
+        <v>8013763.072</v>
       </c>
       <c r="AG37" t="n">
-        <v>5849887.232</v>
+        <v>8201142.784</v>
       </c>
       <c r="AH37" t="n">
-        <v>5950353.92</v>
+        <v>8317783.04</v>
       </c>
       <c r="AI37" t="n">
-        <v>8013763.072</v>
+        <v>8485642.24</v>
       </c>
       <c r="AJ37" t="n">
-        <v>8201142.784</v>
+        <v>9413933.056</v>
       </c>
       <c r="AK37" t="n">
-        <v>8317783.04</v>
+        <v>9625195.52</v>
       </c>
       <c r="AL37" t="n">
-        <v>8485642.24</v>
+        <v>9913145.344000001</v>
       </c>
       <c r="AM37" t="n">
-        <v>9413933.056</v>
+        <v>10177936.384</v>
       </c>
       <c r="AN37" t="n">
-        <v>9625195.52</v>
+        <v>10384461.824</v>
       </c>
       <c r="AO37" t="n">
-        <v>9913145.344000001</v>
+        <v>10456103.936</v>
       </c>
       <c r="AP37" t="n">
-        <v>10177936.384</v>
+        <v>10492483.584</v>
       </c>
       <c r="AQ37" t="n">
-        <v>10384461.824</v>
+        <v>10502248.448</v>
       </c>
       <c r="AR37" t="n">
-        <v>10456103.936</v>
+        <v>10847556.608</v>
       </c>
       <c r="AS37" t="n">
-        <v>10492483.584</v>
+        <v>10905697.28</v>
       </c>
       <c r="AT37" t="n">
-        <v>10502248.448</v>
+        <v>10996339.712</v>
       </c>
       <c r="AU37" t="n">
-        <v>10847556.608</v>
+        <v>11289447.424</v>
       </c>
       <c r="AV37" t="n">
-        <v>10905697.28</v>
+        <v>11559760.896</v>
       </c>
       <c r="AW37" t="n">
-        <v>10996339.712</v>
+        <v>11850465.28</v>
       </c>
       <c r="AX37" t="n">
-        <v>11289447.424</v>
+        <v>12226475.008</v>
       </c>
       <c r="AY37" t="n">
-        <v>11559760.896</v>
+        <v>12281703.424</v>
       </c>
       <c r="AZ37" t="n">
-        <v>11850465.28</v>
+        <v>12566672.384</v>
       </c>
       <c r="BA37" t="n">
-        <v>12226475.008</v>
+        <v>12809438.208</v>
       </c>
       <c r="BB37" t="n">
-        <v>12281703.424</v>
+        <v>13410795.52</v>
       </c>
       <c r="BC37" t="n">
-        <v>12566672.384</v>
+        <v>13424142.336</v>
       </c>
       <c r="BD37" t="n">
-        <v>12809438.208</v>
+        <v>13413054.464</v>
       </c>
       <c r="BE37" t="n">
-        <v>13410795.52</v>
+        <v>13440037.888</v>
       </c>
       <c r="BF37" t="n">
-        <v>13424142.336</v>
+        <v>13754094.592</v>
       </c>
       <c r="BG37" t="n">
-        <v>13413054.464</v>
+        <v>13859030.016</v>
       </c>
       <c r="BH37" t="n">
-        <v>13440037.888</v>
+        <v>13999178.752</v>
       </c>
       <c r="BI37" t="n">
-        <v>13754094.592</v>
+        <v>14339024.896</v>
       </c>
     </row>
     <row r="38">
@@ -7479,184 +7479,184 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>764673.024</v>
       </c>
       <c r="C38" t="n">
-        <v>748350.976</v>
+        <v>775116.992</v>
       </c>
       <c r="D38" t="n">
-        <v>754116.992</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>764673.024</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>775116.992</v>
+        <v>1923631.008</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2034776.032</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1500663.04</v>
       </c>
       <c r="I38" t="n">
-        <v>1923631.008</v>
+        <v>1540704</v>
       </c>
       <c r="J38" t="n">
-        <v>2034776.032</v>
+        <v>1564024.96</v>
       </c>
       <c r="K38" t="n">
-        <v>1500663.04</v>
+        <v>1599662.976</v>
       </c>
       <c r="L38" t="n">
-        <v>1540704</v>
+        <v>1628925.952</v>
       </c>
       <c r="M38" t="n">
-        <v>1564024.96</v>
+        <v>1651361.024</v>
       </c>
       <c r="N38" t="n">
-        <v>1599662.976</v>
+        <v>1707244.032</v>
       </c>
       <c r="O38" t="n">
-        <v>1628925.952</v>
+        <v>1773378.048</v>
       </c>
       <c r="P38" t="n">
-        <v>1651361.024</v>
+        <v>1801288.96</v>
       </c>
       <c r="Q38" t="n">
-        <v>1707244.032</v>
+        <v>1833283.968</v>
       </c>
       <c r="R38" t="n">
-        <v>1773378.048</v>
+        <v>1872681.984</v>
       </c>
       <c r="S38" t="n">
-        <v>1801288.96</v>
+        <v>1922690.944</v>
       </c>
       <c r="T38" t="n">
-        <v>1833283.968</v>
+        <v>1974072.96</v>
       </c>
       <c r="U38" t="n">
-        <v>1872681.984</v>
+        <v>2034608</v>
       </c>
       <c r="V38" t="n">
-        <v>1922690.944</v>
+        <v>2057714.048</v>
       </c>
       <c r="W38" t="n">
-        <v>1974072.96</v>
+        <v>2783589.12</v>
       </c>
       <c r="X38" t="n">
-        <v>2034608</v>
+        <v>2842555.904</v>
       </c>
       <c r="Y38" t="n">
-        <v>2057714.048</v>
+        <v>2214828.032</v>
       </c>
       <c r="Z38" t="n">
-        <v>2783589.12</v>
+        <v>2279745.024</v>
       </c>
       <c r="AA38" t="n">
-        <v>2842555.904</v>
+        <v>2291505.92</v>
       </c>
       <c r="AB38" t="n">
-        <v>2214828.032</v>
+        <v>2386277.12</v>
       </c>
       <c r="AC38" t="n">
-        <v>2279745.024</v>
+        <v>2464087.04</v>
       </c>
       <c r="AD38" t="n">
-        <v>2291505.92</v>
+        <v>2543874.048</v>
       </c>
       <c r="AE38" t="n">
-        <v>2386277.12</v>
+        <v>2590192.128</v>
       </c>
       <c r="AF38" t="n">
-        <v>2464087.04</v>
+        <v>6420527.104</v>
       </c>
       <c r="AG38" t="n">
-        <v>2543874.048</v>
+        <v>6595277.824</v>
       </c>
       <c r="AH38" t="n">
-        <v>2590192.128</v>
+        <v>6699625.984</v>
       </c>
       <c r="AI38" t="n">
-        <v>6420527.104</v>
+        <v>6856437.248</v>
       </c>
       <c r="AJ38" t="n">
-        <v>6595277.824</v>
+        <v>7058278.912</v>
       </c>
       <c r="AK38" t="n">
-        <v>6699625.984</v>
+        <v>7256972.8</v>
       </c>
       <c r="AL38" t="n">
-        <v>6856437.248</v>
+        <v>7531422.208</v>
       </c>
       <c r="AM38" t="n">
-        <v>7058278.912</v>
+        <v>7782429.184</v>
       </c>
       <c r="AN38" t="n">
-        <v>7256972.8</v>
+        <v>7922585.088</v>
       </c>
       <c r="AO38" t="n">
-        <v>7531422.208</v>
+        <v>7983732.224</v>
       </c>
       <c r="AP38" t="n">
-        <v>7782429.184</v>
+        <v>8047047.168</v>
       </c>
       <c r="AQ38" t="n">
-        <v>7922585.088</v>
+        <v>8046383.104</v>
       </c>
       <c r="AR38" t="n">
-        <v>7983732.224</v>
+        <v>8135351.808</v>
       </c>
       <c r="AS38" t="n">
-        <v>8047047.168</v>
+        <v>8188619.776</v>
       </c>
       <c r="AT38" t="n">
-        <v>8046383.104</v>
+        <v>8270230.016</v>
       </c>
       <c r="AU38" t="n">
-        <v>8135351.808</v>
+        <v>8554315.776000001</v>
       </c>
       <c r="AV38" t="n">
-        <v>8188619.776</v>
+        <v>8804604.927999999</v>
       </c>
       <c r="AW38" t="n">
-        <v>8270230.016</v>
+        <v>9095985.152000001</v>
       </c>
       <c r="AX38" t="n">
-        <v>8554315.776000001</v>
+        <v>9339504.640000001</v>
       </c>
       <c r="AY38" t="n">
-        <v>8804604.927999999</v>
+        <v>9381058.560000001</v>
       </c>
       <c r="AZ38" t="n">
-        <v>9095985.152000001</v>
+        <v>9452648.448000001</v>
       </c>
       <c r="BA38" t="n">
-        <v>9339504.640000001</v>
+        <v>9686168.575999999</v>
       </c>
       <c r="BB38" t="n">
-        <v>9381058.560000001</v>
+        <v>9806168.063999999</v>
       </c>
       <c r="BC38" t="n">
-        <v>9452648.448000001</v>
+        <v>9753815.039999999</v>
       </c>
       <c r="BD38" t="n">
-        <v>9686168.575999999</v>
+        <v>9717747.711999999</v>
       </c>
       <c r="BE38" t="n">
-        <v>9806168.063999999</v>
+        <v>9737194.495999999</v>
       </c>
       <c r="BF38" t="n">
-        <v>9753815.039999999</v>
+        <v>9915542.528000001</v>
       </c>
       <c r="BG38" t="n">
-        <v>9717747.711999999</v>
+        <v>9954657.279999999</v>
       </c>
       <c r="BH38" t="n">
-        <v>9737194.495999999</v>
+        <v>10015974.4</v>
       </c>
       <c r="BI38" t="n">
-        <v>9915542.528000001</v>
+        <v>10093244.416</v>
       </c>
     </row>
     <row r="39">
@@ -7690,58 +7690,58 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>3004</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>14155</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>21193</v>
       </c>
       <c r="M39" t="n">
-        <v>3004</v>
+        <v>28337</v>
       </c>
       <c r="N39" t="n">
-        <v>14155</v>
+        <v>30936</v>
       </c>
       <c r="O39" t="n">
-        <v>21193</v>
+        <v>1151</v>
       </c>
       <c r="P39" t="n">
-        <v>28337</v>
+        <v>1414</v>
       </c>
       <c r="Q39" t="n">
-        <v>30936</v>
+        <v>5443</v>
       </c>
       <c r="R39" t="n">
-        <v>1151</v>
+        <v>9644</v>
       </c>
       <c r="S39" t="n">
-        <v>1414</v>
+        <v>11712</v>
       </c>
       <c r="T39" t="n">
-        <v>5443</v>
+        <v>12825</v>
       </c>
       <c r="U39" t="n">
-        <v>9644</v>
+        <v>15079</v>
       </c>
       <c r="V39" t="n">
-        <v>11712</v>
+        <v>16552</v>
       </c>
       <c r="W39" t="n">
-        <v>12825</v>
+        <v>27249</v>
       </c>
       <c r="X39" t="n">
-        <v>15079</v>
+        <v>11288</v>
       </c>
       <c r="Y39" t="n">
-        <v>16552</v>
+        <v>0</v>
       </c>
       <c r="Z39" t="n">
-        <v>27249</v>
+        <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>11288</v>
+        <v>0</v>
       </c>
       <c r="AB39" t="n">
         <v>0</v>
@@ -7853,184 +7853,184 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1634928</v>
+        <v>1765826.944</v>
       </c>
       <c r="C40" t="n">
-        <v>1673779.968</v>
+        <v>1807666.048</v>
       </c>
       <c r="D40" t="n">
-        <v>1722413.952</v>
+        <v>1884696.96</v>
       </c>
       <c r="E40" t="n">
-        <v>1765826.944</v>
+        <v>1919580.032</v>
       </c>
       <c r="F40" t="n">
-        <v>1807666.048</v>
+        <v>1960818.048</v>
       </c>
       <c r="G40" t="n">
-        <v>1884696.96</v>
+        <v>2008502.016</v>
       </c>
       <c r="H40" t="n">
-        <v>1919580.032</v>
+        <v>937902.976</v>
       </c>
       <c r="I40" t="n">
-        <v>1960818.048</v>
+        <v>942206.0159999999</v>
       </c>
       <c r="J40" t="n">
-        <v>2008502.016</v>
+        <v>943366.976</v>
       </c>
       <c r="K40" t="n">
-        <v>937902.976</v>
+        <v>944465.9840000001</v>
       </c>
       <c r="L40" t="n">
-        <v>942206.0159999999</v>
+        <v>945633.9840000001</v>
       </c>
       <c r="M40" t="n">
-        <v>943366.976</v>
+        <v>947065.024</v>
       </c>
       <c r="N40" t="n">
-        <v>944465.9840000001</v>
+        <v>949182.0159999999</v>
       </c>
       <c r="O40" t="n">
-        <v>945633.9840000001</v>
+        <v>908115.008</v>
       </c>
       <c r="P40" t="n">
-        <v>947065.024</v>
+        <v>912649.024</v>
       </c>
       <c r="Q40" t="n">
-        <v>949182.0159999999</v>
+        <v>919540.992</v>
       </c>
       <c r="R40" t="n">
-        <v>908115.008</v>
+        <v>924073.024</v>
       </c>
       <c r="S40" t="n">
-        <v>912649.024</v>
+        <v>1048067.008</v>
       </c>
       <c r="T40" t="n">
-        <v>919540.992</v>
+        <v>1054824</v>
       </c>
       <c r="U40" t="n">
-        <v>924073.024</v>
+        <v>1059398.976</v>
       </c>
       <c r="V40" t="n">
-        <v>1048067.008</v>
+        <v>1065376</v>
       </c>
       <c r="W40" t="n">
-        <v>1054824</v>
+        <v>1065580.032</v>
       </c>
       <c r="X40" t="n">
-        <v>1059398.976</v>
+        <v>1072131.008</v>
       </c>
       <c r="Y40" t="n">
-        <v>1065376</v>
+        <v>1069155.968</v>
       </c>
       <c r="Z40" t="n">
-        <v>1065580.032</v>
+        <v>1075316.992</v>
       </c>
       <c r="AA40" t="n">
-        <v>1072131.008</v>
+        <v>1151374.976</v>
       </c>
       <c r="AB40" t="n">
-        <v>1069155.968</v>
+        <v>1151298.944</v>
       </c>
       <c r="AC40" t="n">
-        <v>1075316.992</v>
+        <v>1151027.968</v>
       </c>
       <c r="AD40" t="n">
-        <v>1151374.976</v>
+        <v>1149222.016</v>
       </c>
       <c r="AE40" t="n">
-        <v>1151298.944</v>
+        <v>1202093.056</v>
       </c>
       <c r="AF40" t="n">
-        <v>1151027.968</v>
+        <v>1445804.032</v>
       </c>
       <c r="AG40" t="n">
-        <v>1149222.016</v>
+        <v>1455682.944</v>
       </c>
       <c r="AH40" t="n">
-        <v>1202093.056</v>
+        <v>1466141.056</v>
       </c>
       <c r="AI40" t="n">
-        <v>1445804.032</v>
+        <v>1474998.016</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1455682.944</v>
+        <v>1485251.968</v>
       </c>
       <c r="AK40" t="n">
-        <v>1466141.056</v>
+        <v>1495020.032</v>
       </c>
       <c r="AL40" t="n">
-        <v>1474998.016</v>
+        <v>1506834.944</v>
       </c>
       <c r="AM40" t="n">
-        <v>1485251.968</v>
+        <v>1518621.952</v>
       </c>
       <c r="AN40" t="n">
-        <v>1495020.032</v>
+        <v>1510210.944</v>
       </c>
       <c r="AO40" t="n">
-        <v>1506834.944</v>
+        <v>1520102.016</v>
       </c>
       <c r="AP40" t="n">
-        <v>1518621.952</v>
+        <v>1493102.976</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1510210.944</v>
+        <v>1503416.064</v>
       </c>
       <c r="AR40" t="n">
-        <v>1520102.016</v>
+        <v>1491497.984</v>
       </c>
       <c r="AS40" t="n">
-        <v>1493102.976</v>
+        <v>1496273.024</v>
       </c>
       <c r="AT40" t="n">
-        <v>1503416.064</v>
+        <v>1505209.984</v>
       </c>
       <c r="AU40" t="n">
-        <v>1491497.984</v>
+        <v>1514135.04</v>
       </c>
       <c r="AV40" t="n">
-        <v>1496273.024</v>
+        <v>1480877.952</v>
       </c>
       <c r="AW40" t="n">
-        <v>1505209.984</v>
+        <v>1493832.96</v>
       </c>
       <c r="AX40" t="n">
-        <v>1514135.04</v>
+        <v>1627520</v>
       </c>
       <c r="AY40" t="n">
-        <v>1480877.952</v>
+        <v>1641097.984</v>
       </c>
       <c r="AZ40" t="n">
-        <v>1493832.96</v>
+        <v>1655154.944</v>
       </c>
       <c r="BA40" t="n">
-        <v>1627520</v>
+        <v>1664269.056</v>
       </c>
       <c r="BB40" t="n">
-        <v>1641097.984</v>
+        <v>1683131.008</v>
       </c>
       <c r="BC40" t="n">
-        <v>1655154.944</v>
+        <v>1692848</v>
       </c>
       <c r="BD40" t="n">
-        <v>1664269.056</v>
+        <v>1702680.064</v>
       </c>
       <c r="BE40" t="n">
-        <v>1683131.008</v>
+        <v>1711234.944</v>
       </c>
       <c r="BF40" t="n">
-        <v>1692848</v>
+        <v>1727825.024</v>
       </c>
       <c r="BG40" t="n">
-        <v>1702680.064</v>
+        <v>1737842.944</v>
       </c>
       <c r="BH40" t="n">
-        <v>1711234.944</v>
+        <v>1750144</v>
       </c>
       <c r="BI40" t="n">
-        <v>1727825.024</v>
+        <v>1758025.984</v>
       </c>
     </row>
     <row r="41">
@@ -8058,166 +8058,166 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1641120</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1720592</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1796103.936</v>
       </c>
       <c r="K41" t="n">
-        <v>1641120</v>
+        <v>1876610.048</v>
       </c>
       <c r="L41" t="n">
-        <v>1720592</v>
+        <v>1951922.048</v>
       </c>
       <c r="M41" t="n">
-        <v>1796103.936</v>
+        <v>1951880.96</v>
       </c>
       <c r="N41" t="n">
-        <v>1876610.048</v>
+        <v>1955794.048</v>
       </c>
       <c r="O41" t="n">
-        <v>1951922.048</v>
+        <v>1950646.016</v>
       </c>
       <c r="P41" t="n">
-        <v>1951880.96</v>
+        <v>1950605.056</v>
       </c>
       <c r="Q41" t="n">
-        <v>1955794.048</v>
+        <v>1970429.952</v>
       </c>
       <c r="R41" t="n">
-        <v>1950646.016</v>
+        <v>1955256.064</v>
       </c>
       <c r="S41" t="n">
-        <v>1950605.056</v>
+        <v>1950482.944</v>
       </c>
       <c r="T41" t="n">
-        <v>1970429.952</v>
+        <v>1950441.984</v>
       </c>
       <c r="U41" t="n">
-        <v>1955256.064</v>
+        <v>1950401.024</v>
       </c>
       <c r="V41" t="n">
-        <v>1950482.944</v>
+        <v>1950360.064</v>
       </c>
       <c r="W41" t="n">
-        <v>1950441.984</v>
+        <v>1950318.976</v>
       </c>
       <c r="X41" t="n">
-        <v>1950401.024</v>
+        <v>1950279.04</v>
       </c>
       <c r="Y41" t="n">
-        <v>1950360.064</v>
+        <v>1950237.952</v>
       </c>
       <c r="Z41" t="n">
-        <v>1950318.976</v>
+        <v>1950194.944</v>
       </c>
       <c r="AA41" t="n">
-        <v>1950279.04</v>
+        <v>1950153.984</v>
       </c>
       <c r="AB41" t="n">
-        <v>1950237.952</v>
+        <v>1950114.048</v>
       </c>
       <c r="AC41" t="n">
-        <v>1950194.944</v>
+        <v>1950072.96</v>
       </c>
       <c r="AD41" t="n">
-        <v>1950153.984</v>
+        <v>1950032</v>
       </c>
       <c r="AE41" t="n">
-        <v>1950114.048</v>
+        <v>1949991.04</v>
       </c>
       <c r="AF41" t="n">
-        <v>1950072.96</v>
+        <v>7628</v>
       </c>
       <c r="AG41" t="n">
-        <v>1950032</v>
+        <v>7588</v>
       </c>
       <c r="AH41" t="n">
-        <v>1949991.04</v>
+        <v>7547</v>
       </c>
       <c r="AI41" t="n">
-        <v>7628</v>
+        <v>7506</v>
       </c>
       <c r="AJ41" t="n">
-        <v>7588</v>
+        <v>7465</v>
       </c>
       <c r="AK41" t="n">
-        <v>7547</v>
+        <v>7424</v>
       </c>
       <c r="AL41" t="n">
-        <v>7506</v>
+        <v>7384</v>
       </c>
       <c r="AM41" t="n">
-        <v>7465</v>
+        <v>7343</v>
       </c>
       <c r="AN41" t="n">
-        <v>7424</v>
+        <v>7302</v>
       </c>
       <c r="AO41" t="n">
-        <v>7384</v>
+        <v>7261</v>
       </c>
       <c r="AP41" t="n">
-        <v>7343</v>
+        <v>7221</v>
       </c>
       <c r="AQ41" t="n">
-        <v>7302</v>
+        <v>7180</v>
       </c>
       <c r="AR41" t="n">
-        <v>7261</v>
+        <v>7139</v>
       </c>
       <c r="AS41" t="n">
-        <v>7221</v>
+        <v>7098</v>
       </c>
       <c r="AT41" t="n">
-        <v>7180</v>
+        <v>7057</v>
       </c>
       <c r="AU41" t="n">
-        <v>7139</v>
+        <v>7016</v>
       </c>
       <c r="AV41" t="n">
-        <v>7098</v>
+        <v>6976</v>
       </c>
       <c r="AW41" t="n">
-        <v>7057</v>
+        <v>6935</v>
       </c>
       <c r="AX41" t="n">
-        <v>7016</v>
+        <v>6894</v>
       </c>
       <c r="AY41" t="n">
-        <v>6976</v>
+        <v>6853</v>
       </c>
       <c r="AZ41" t="n">
-        <v>6935</v>
+        <v>6803</v>
       </c>
       <c r="BA41" t="n">
-        <v>6894</v>
+        <v>6762</v>
       </c>
       <c r="BB41" t="n">
-        <v>6853</v>
+        <v>6717</v>
       </c>
       <c r="BC41" t="n">
-        <v>6803</v>
+        <v>6677</v>
       </c>
       <c r="BD41" t="n">
-        <v>6762</v>
+        <v>5787</v>
       </c>
       <c r="BE41" t="n">
-        <v>6717</v>
+        <v>5745</v>
       </c>
       <c r="BF41" t="n">
-        <v>6677</v>
+        <v>5256</v>
       </c>
       <c r="BG41" t="n">
-        <v>5787</v>
+        <v>5224</v>
       </c>
       <c r="BH41" t="n">
-        <v>5745</v>
+        <v>5211</v>
       </c>
       <c r="BI41" t="n">
-        <v>5256</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="42">
@@ -8420,178 +8420,178 @@
         <v>108966</v>
       </c>
       <c r="D43" t="n">
-        <v>108966</v>
+        <v>125094</v>
       </c>
       <c r="E43" t="n">
-        <v>108966</v>
+        <v>125094</v>
       </c>
       <c r="F43" t="n">
-        <v>108966</v>
+        <v>125094</v>
       </c>
       <c r="G43" t="n">
         <v>125094</v>
       </c>
       <c r="H43" t="n">
-        <v>125094</v>
+        <v>236275.008</v>
       </c>
       <c r="I43" t="n">
-        <v>125094</v>
+        <v>236262</v>
       </c>
       <c r="J43" t="n">
-        <v>125094</v>
+        <v>236252</v>
       </c>
       <c r="K43" t="n">
-        <v>236275.008</v>
+        <v>236243.008</v>
       </c>
       <c r="L43" t="n">
-        <v>236262</v>
+        <v>226427.008</v>
       </c>
       <c r="M43" t="n">
-        <v>236252</v>
+        <v>226427.008</v>
       </c>
       <c r="N43" t="n">
-        <v>236243.008</v>
+        <v>228056</v>
       </c>
       <c r="O43" t="n">
-        <v>226427.008</v>
+        <v>227875.008</v>
       </c>
       <c r="P43" t="n">
-        <v>226427.008</v>
+        <v>775558.976</v>
       </c>
       <c r="Q43" t="n">
-        <v>228056</v>
+        <v>715430.0159999999</v>
       </c>
       <c r="R43" t="n">
-        <v>227875.008</v>
+        <v>715430.0159999999</v>
       </c>
       <c r="S43" t="n">
-        <v>775558.976</v>
+        <v>647806.0159999999</v>
       </c>
       <c r="T43" t="n">
-        <v>715430.0159999999</v>
+        <v>721667.968</v>
       </c>
       <c r="U43" t="n">
-        <v>715430.0159999999</v>
+        <v>722648</v>
       </c>
       <c r="V43" t="n">
-        <v>647806.0159999999</v>
+        <v>722745.9840000001</v>
       </c>
       <c r="W43" t="n">
-        <v>721667.968</v>
+        <v>232991.008</v>
       </c>
       <c r="X43" t="n">
-        <v>722648</v>
+        <v>208691.008</v>
       </c>
       <c r="Y43" t="n">
-        <v>722745.9840000001</v>
+        <v>209811.008</v>
       </c>
       <c r="Z43" t="n">
-        <v>232991.008</v>
+        <v>212954</v>
       </c>
       <c r="AA43" t="n">
-        <v>208691.008</v>
+        <v>214636.992</v>
       </c>
       <c r="AB43" t="n">
-        <v>209811.008</v>
+        <v>203551.008</v>
       </c>
       <c r="AC43" t="n">
-        <v>212954</v>
+        <v>204432</v>
       </c>
       <c r="AD43" t="n">
-        <v>214636.992</v>
+        <v>206759.008</v>
       </c>
       <c r="AE43" t="n">
-        <v>203551.008</v>
+        <v>208078</v>
       </c>
       <c r="AF43" t="n">
-        <v>204432</v>
+        <v>139804</v>
       </c>
       <c r="AG43" t="n">
-        <v>206759.008</v>
+        <v>142594</v>
       </c>
       <c r="AH43" t="n">
-        <v>208078</v>
+        <v>144468.992</v>
       </c>
       <c r="AI43" t="n">
-        <v>139804</v>
+        <v>146700.992</v>
       </c>
       <c r="AJ43" t="n">
-        <v>142594</v>
+        <v>862937.024</v>
       </c>
       <c r="AK43" t="n">
-        <v>144468.992</v>
+        <v>865779.008</v>
       </c>
       <c r="AL43" t="n">
-        <v>146700.992</v>
+        <v>867504</v>
       </c>
       <c r="AM43" t="n">
-        <v>862937.024</v>
+        <v>869542.0159999999</v>
       </c>
       <c r="AN43" t="n">
-        <v>865779.008</v>
+        <v>944364.032</v>
       </c>
       <c r="AO43" t="n">
-        <v>867504</v>
+        <v>945009.024</v>
       </c>
       <c r="AP43" t="n">
-        <v>869542.0159999999</v>
+        <v>945113.024</v>
       </c>
       <c r="AQ43" t="n">
-        <v>944364.032</v>
+        <v>945268.992</v>
       </c>
       <c r="AR43" t="n">
-        <v>945009.024</v>
+        <v>1213568</v>
       </c>
       <c r="AS43" t="n">
-        <v>945113.024</v>
+        <v>1213705.984</v>
       </c>
       <c r="AT43" t="n">
-        <v>945268.992</v>
+        <v>1213842.944</v>
       </c>
       <c r="AU43" t="n">
-        <v>1213568</v>
+        <v>1213980.032</v>
       </c>
       <c r="AV43" t="n">
-        <v>1213705.984</v>
+        <v>1267302.016</v>
       </c>
       <c r="AW43" t="n">
-        <v>1213842.944</v>
+        <v>1253712</v>
       </c>
       <c r="AX43" t="n">
-        <v>1213980.032</v>
+        <v>1252556.032</v>
       </c>
       <c r="AY43" t="n">
-        <v>1267302.016</v>
+        <v>1252692.992</v>
       </c>
       <c r="AZ43" t="n">
-        <v>1253712</v>
+        <v>1452066.048</v>
       </c>
       <c r="BA43" t="n">
-        <v>1252556.032</v>
+        <v>1452237.952</v>
       </c>
       <c r="BB43" t="n">
-        <v>1252692.992</v>
+        <v>1914780.032</v>
       </c>
       <c r="BC43" t="n">
-        <v>1452066.048</v>
+        <v>1970802.048</v>
       </c>
       <c r="BD43" t="n">
-        <v>1452237.952</v>
+        <v>1986839.04</v>
       </c>
       <c r="BE43" t="n">
-        <v>1914780.032</v>
+        <v>1985863.04</v>
       </c>
       <c r="BF43" t="n">
-        <v>1970802.048</v>
+        <v>2105470.976</v>
       </c>
       <c r="BG43" t="n">
-        <v>1986839.04</v>
+        <v>2161306.112</v>
       </c>
       <c r="BH43" t="n">
-        <v>1985863.04</v>
+        <v>2227849.984</v>
       </c>
       <c r="BI43" t="n">
-        <v>2105470.976</v>
+        <v>2482577.92</v>
       </c>
     </row>
     <row r="44">
@@ -9162,184 +9162,184 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2527342.08</v>
+        <v>2765296.128</v>
       </c>
       <c r="C47" t="n">
-        <v>2594693.888</v>
+        <v>2845135.104</v>
       </c>
       <c r="D47" t="n">
-        <v>2685714.944</v>
+        <v>3030522.112</v>
       </c>
       <c r="E47" t="n">
-        <v>2765296.128</v>
+        <v>3089298.944</v>
       </c>
       <c r="F47" t="n">
-        <v>2845135.104</v>
+        <v>3161865.984</v>
       </c>
       <c r="G47" t="n">
-        <v>3030522.112</v>
+        <v>3247598.08</v>
       </c>
       <c r="H47" t="n">
-        <v>3089298.944</v>
+        <v>3743237.888</v>
       </c>
       <c r="I47" t="n">
-        <v>3161865.984</v>
+        <v>3875678.976</v>
       </c>
       <c r="J47" t="n">
-        <v>3247598.08</v>
+        <v>4030330.88</v>
       </c>
       <c r="K47" t="n">
-        <v>3743237.888</v>
+        <v>4185900.032</v>
       </c>
       <c r="L47" t="n">
-        <v>3875678.976</v>
+        <v>4329137.152</v>
       </c>
       <c r="M47" t="n">
-        <v>4030330.88</v>
+        <v>4254148.096</v>
       </c>
       <c r="N47" t="n">
-        <v>4185900.032</v>
+        <v>4186973.952</v>
       </c>
       <c r="O47" t="n">
-        <v>4329137.152</v>
+        <v>4239591.936</v>
       </c>
       <c r="P47" t="n">
-        <v>4254148.096</v>
+        <v>3773908.992</v>
       </c>
       <c r="Q47" t="n">
-        <v>4186973.952</v>
+        <v>3750557.952</v>
       </c>
       <c r="R47" t="n">
-        <v>4239591.936</v>
+        <v>3679218.944</v>
       </c>
       <c r="S47" t="n">
-        <v>3773908.992</v>
+        <v>3544023.04</v>
       </c>
       <c r="T47" t="n">
-        <v>3750557.952</v>
+        <v>3485572.096</v>
       </c>
       <c r="U47" t="n">
-        <v>3679218.944</v>
+        <v>3401650.944</v>
       </c>
       <c r="V47" t="n">
-        <v>3544023.04</v>
+        <v>3337020.928</v>
       </c>
       <c r="W47" t="n">
-        <v>3485572.096</v>
+        <v>3279483.904</v>
       </c>
       <c r="X47" t="n">
-        <v>3401650.944</v>
+        <v>3252008.96</v>
       </c>
       <c r="Y47" t="n">
-        <v>3337020.928</v>
+        <v>3160304.128</v>
       </c>
       <c r="Z47" t="n">
-        <v>3279483.904</v>
+        <v>3093142.016</v>
       </c>
       <c r="AA47" t="n">
-        <v>3252008.96</v>
+        <v>3018944</v>
       </c>
       <c r="AB47" t="n">
-        <v>3160304.128</v>
+        <v>2858520.064</v>
       </c>
       <c r="AC47" t="n">
-        <v>3093142.016</v>
+        <v>2774232.064</v>
       </c>
       <c r="AD47" t="n">
-        <v>3018944</v>
+        <v>2671048.96</v>
       </c>
       <c r="AE47" t="n">
-        <v>2858520.064</v>
+        <v>2463195.904</v>
       </c>
       <c r="AF47" t="n">
-        <v>2774232.064</v>
+        <v>-8046299.136</v>
       </c>
       <c r="AG47" t="n">
-        <v>2671048.96</v>
+        <v>-8272434.176</v>
       </c>
       <c r="AH47" t="n">
-        <v>2463195.904</v>
+        <v>-8417472</v>
       </c>
       <c r="AI47" t="n">
-        <v>-8046299.136</v>
+        <v>-8623405.056</v>
       </c>
       <c r="AJ47" t="n">
-        <v>-8272434.176</v>
+        <v>-9591645.184</v>
       </c>
       <c r="AK47" t="n">
-        <v>-8417472</v>
+        <v>-9836727.296</v>
       </c>
       <c r="AL47" t="n">
-        <v>-8623405.056</v>
+        <v>-10147547.136</v>
       </c>
       <c r="AM47" t="n">
-        <v>-9591645.184</v>
+        <v>-10447582.208</v>
       </c>
       <c r="AN47" t="n">
-        <v>-9836727.296</v>
+        <v>-10716598.272</v>
       </c>
       <c r="AO47" t="n">
-        <v>-10147547.136</v>
+        <v>-10788329.472</v>
       </c>
       <c r="AP47" t="n">
-        <v>-10447582.208</v>
+        <v>-10862574.592</v>
       </c>
       <c r="AQ47" t="n">
-        <v>-10716598.272</v>
+        <v>-10872146.944</v>
       </c>
       <c r="AR47" t="n">
-        <v>-10788329.472</v>
+        <v>-11229892.608</v>
       </c>
       <c r="AS47" t="n">
-        <v>-10862574.592</v>
+        <v>-11298653.184</v>
       </c>
       <c r="AT47" t="n">
-        <v>-10872146.944</v>
+        <v>-11389522.944</v>
       </c>
       <c r="AU47" t="n">
-        <v>-11229892.608</v>
+        <v>-11682733.056</v>
       </c>
       <c r="AV47" t="n">
-        <v>-11298653.184</v>
+        <v>-12359255.04</v>
       </c>
       <c r="AW47" t="n">
-        <v>-11389522.944</v>
+        <v>-12662381.568</v>
       </c>
       <c r="AX47" t="n">
-        <v>-11682733.056</v>
+        <v>-12912081.92</v>
       </c>
       <c r="AY47" t="n">
-        <v>-12359255.04</v>
+        <v>-12967582.72</v>
       </c>
       <c r="AZ47" t="n">
-        <v>-12662381.568</v>
+        <v>-13702628.352</v>
       </c>
       <c r="BA47" t="n">
-        <v>-12912081.92</v>
+        <v>-13945765.888</v>
       </c>
       <c r="BB47" t="n">
-        <v>-12967582.72</v>
+        <v>-14776999.936</v>
       </c>
       <c r="BC47" t="n">
-        <v>-13702628.352</v>
+        <v>-14859854.848</v>
       </c>
       <c r="BD47" t="n">
-        <v>-13945765.888</v>
+        <v>-14900995.072</v>
       </c>
       <c r="BE47" t="n">
-        <v>-14776999.936</v>
+        <v>-14931229.696</v>
       </c>
       <c r="BF47" t="n">
-        <v>-14859854.848</v>
+        <v>-15390194.688</v>
       </c>
       <c r="BG47" t="n">
-        <v>-14900995.072</v>
+        <v>-15574167.552</v>
       </c>
       <c r="BH47" t="n">
-        <v>-14931229.696</v>
+        <v>-15892726.784</v>
       </c>
       <c r="BI47" t="n">
-        <v>-15390194.688</v>
+        <v>-16317724.672</v>
       </c>
     </row>
     <row r="48">
@@ -9352,46 +9352,46 @@
         <v>1100099.968</v>
       </c>
       <c r="C48" t="n">
-        <v>1100099.968</v>
+        <v>1297400.064</v>
       </c>
       <c r="D48" t="n">
-        <v>1100099.968</v>
+        <v>1297400.064</v>
       </c>
       <c r="E48" t="n">
-        <v>1100099.968</v>
+        <v>1297400.064</v>
       </c>
       <c r="F48" t="n">
-        <v>1297400.064</v>
+        <v>1521400.064</v>
       </c>
       <c r="G48" t="n">
-        <v>1297400.064</v>
+        <v>1521400.064</v>
       </c>
       <c r="H48" t="n">
-        <v>1297400.064</v>
+        <v>1521400.064</v>
       </c>
       <c r="I48" t="n">
         <v>1521400.064</v>
       </c>
       <c r="J48" t="n">
-        <v>1521400.064</v>
+        <v>1863399.936</v>
       </c>
       <c r="K48" t="n">
-        <v>1521400.064</v>
+        <v>1863399.936</v>
       </c>
       <c r="L48" t="n">
-        <v>1521400.064</v>
+        <v>1863399.936</v>
       </c>
       <c r="M48" t="n">
         <v>1863399.936</v>
       </c>
       <c r="N48" t="n">
-        <v>1863399.936</v>
+        <v>2163399.936</v>
       </c>
       <c r="O48" t="n">
-        <v>1863399.936</v>
+        <v>2163399.936</v>
       </c>
       <c r="P48" t="n">
-        <v>1863399.936</v>
+        <v>2163399.936</v>
       </c>
       <c r="Q48" t="n">
         <v>2163399.936</v>
@@ -9910,103 +9910,103 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1100091.008</v>
+        <v>1494594.048</v>
       </c>
       <c r="C51" t="n">
-        <v>1494594.048</v>
+        <v>1297293.952</v>
       </c>
       <c r="D51" t="n">
-        <v>1494594.048</v>
+        <v>1733122.048</v>
       </c>
       <c r="E51" t="n">
-        <v>1494594.048</v>
+        <v>1733122.048</v>
       </c>
       <c r="F51" t="n">
-        <v>1297293.952</v>
+        <v>1509122.048</v>
       </c>
       <c r="G51" t="n">
-        <v>1733122.048</v>
+        <v>1509122.048</v>
       </c>
       <c r="H51" t="n">
-        <v>1733122.048</v>
+        <v>2204355.072</v>
       </c>
       <c r="I51" t="n">
-        <v>1509122.048</v>
+        <v>2204355.072</v>
       </c>
       <c r="J51" t="n">
-        <v>1509122.048</v>
+        <v>1862354.944</v>
       </c>
       <c r="K51" t="n">
-        <v>2204355.072</v>
+        <v>1862354.944</v>
       </c>
       <c r="L51" t="n">
-        <v>2204355.072</v>
+        <v>2448809.984</v>
       </c>
       <c r="M51" t="n">
-        <v>1862354.944</v>
+        <v>2448809.984</v>
       </c>
       <c r="N51" t="n">
-        <v>1862354.944</v>
+        <v>2148809.984</v>
       </c>
       <c r="O51" t="n">
-        <v>2448809.984</v>
+        <v>2148809.984</v>
       </c>
       <c r="P51" t="n">
-        <v>2448809.984</v>
+        <v>1593972.992</v>
       </c>
       <c r="Q51" t="n">
-        <v>2148809.984</v>
+        <v>1593972.992</v>
       </c>
       <c r="R51" t="n">
-        <v>2148809.984</v>
+        <v>1593972.992</v>
       </c>
       <c r="S51" t="n">
         <v>1593972.992</v>
       </c>
       <c r="T51" t="n">
-        <v>1593972.992</v>
+        <v>1306019.968</v>
       </c>
       <c r="U51" t="n">
-        <v>1593972.992</v>
+        <v>1306019.968</v>
       </c>
       <c r="V51" t="n">
-        <v>1593972.992</v>
+        <v>1306019.968</v>
       </c>
       <c r="W51" t="n">
         <v>1306019.968</v>
       </c>
       <c r="X51" t="n">
-        <v>1306019.968</v>
+        <v>1072844.992</v>
       </c>
       <c r="Y51" t="n">
-        <v>1306019.968</v>
+        <v>1072844.992</v>
       </c>
       <c r="Z51" t="n">
-        <v>1306019.968</v>
+        <v>1072844.992</v>
       </c>
       <c r="AA51" t="n">
         <v>1072844.992</v>
       </c>
       <c r="AB51" t="n">
-        <v>1072844.992</v>
+        <v>679744</v>
       </c>
       <c r="AC51" t="n">
-        <v>1072844.992</v>
+        <v>679744</v>
       </c>
       <c r="AD51" t="n">
-        <v>1072844.992</v>
+        <v>679744</v>
       </c>
       <c r="AE51" t="n">
         <v>679744</v>
       </c>
       <c r="AF51" t="n">
-        <v>679744</v>
+        <v>0</v>
       </c>
       <c r="AG51" t="n">
-        <v>679744</v>
+        <v>0</v>
       </c>
       <c r="AH51" t="n">
-        <v>679744</v>
+        <v>0</v>
       </c>
       <c r="AI51" t="n">
         <v>0</v>
@@ -10097,184 +10097,184 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>327151.008</v>
+        <v>170602</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>250440.992</v>
       </c>
       <c r="D52" t="n">
-        <v>91021</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>170602</v>
+        <v>58777</v>
       </c>
       <c r="F52" t="n">
-        <v>250440.992</v>
+        <v>131344</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>217076</v>
       </c>
       <c r="H52" t="n">
-        <v>58777</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>131344</v>
+        <v>132520</v>
       </c>
       <c r="J52" t="n">
-        <v>217076</v>
+        <v>287251.008</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>442899.008</v>
       </c>
       <c r="L52" t="n">
-        <v>132520</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>287251.008</v>
+        <v>-74910</v>
       </c>
       <c r="N52" t="n">
-        <v>442899.008</v>
+        <v>-142004.992</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>-89308</v>
       </c>
       <c r="P52" t="n">
-        <v>-74910</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>-142004.992</v>
+        <v>-22332</v>
       </c>
       <c r="R52" t="n">
-        <v>-89308</v>
+        <v>-94690</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>-229886</v>
       </c>
       <c r="T52" t="n">
-        <v>-22332</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>-94690</v>
+        <v>-83921</v>
       </c>
       <c r="V52" t="n">
-        <v>-229886</v>
+        <v>-148392.992</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>-206088</v>
       </c>
       <c r="X52" t="n">
-        <v>-83921</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>-148392.992</v>
+        <v>-91626</v>
       </c>
       <c r="Z52" t="n">
-        <v>-206088</v>
+        <v>-158708.992</v>
       </c>
       <c r="AA52" t="n">
-        <v>0</v>
+        <v>-233064.992</v>
       </c>
       <c r="AB52" t="n">
-        <v>-91626</v>
+        <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>-158708.992</v>
+        <v>-84288</v>
       </c>
       <c r="AD52" t="n">
-        <v>-233064.992</v>
+        <v>-187471.008</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>-395324</v>
       </c>
       <c r="AF52" t="n">
-        <v>-84288</v>
+        <v>-10224758.784</v>
       </c>
       <c r="AG52" t="n">
-        <v>-187471.008</v>
+        <v>-10224693.248</v>
       </c>
       <c r="AH52" t="n">
-        <v>-395324</v>
+        <v>-10595774.464</v>
       </c>
       <c r="AI52" t="n">
-        <v>-10224758.784</v>
+        <v>-10801629.184</v>
       </c>
       <c r="AJ52" t="n">
-        <v>-10224693.248</v>
+        <v>-11769780.224</v>
       </c>
       <c r="AK52" t="n">
-        <v>-10595774.464</v>
+        <v>-12014783.488</v>
       </c>
       <c r="AL52" t="n">
-        <v>-10801629.184</v>
+        <v>-12325524.48</v>
       </c>
       <c r="AM52" t="n">
-        <v>-11769780.224</v>
+        <v>-12625479.68</v>
       </c>
       <c r="AN52" t="n">
-        <v>-12014783.488</v>
+        <v>-12894416.896</v>
       </c>
       <c r="AO52" t="n">
-        <v>-12325524.48</v>
+        <v>-12966069.248</v>
       </c>
       <c r="AP52" t="n">
-        <v>-12625479.68</v>
+        <v>-13040234.496</v>
       </c>
       <c r="AQ52" t="n">
-        <v>-12894416.896</v>
+        <v>-13049728</v>
       </c>
       <c r="AR52" t="n">
-        <v>-12966069.248</v>
+        <v>-13407394.816</v>
       </c>
       <c r="AS52" t="n">
-        <v>-13040234.496</v>
+        <v>-13476075.52</v>
       </c>
       <c r="AT52" t="n">
-        <v>-13049728</v>
+        <v>-13566867.456</v>
       </c>
       <c r="AU52" t="n">
-        <v>-13407394.816</v>
+        <v>-13859997.696</v>
       </c>
       <c r="AV52" t="n">
-        <v>-13476075.52</v>
+        <v>-14536439.808</v>
       </c>
       <c r="AW52" t="n">
-        <v>-13566867.456</v>
+        <v>-14839488.512</v>
       </c>
       <c r="AX52" t="n">
-        <v>-13859997.696</v>
+        <v>-15089108.992</v>
       </c>
       <c r="AY52" t="n">
-        <v>-14536439.808</v>
+        <v>-15144529.92</v>
       </c>
       <c r="AZ52" t="n">
-        <v>-14839488.512</v>
+        <v>-15879495.68</v>
       </c>
       <c r="BA52" t="n">
-        <v>-15089108.992</v>
+        <v>-16122555.392</v>
       </c>
       <c r="BB52" t="n">
-        <v>-15144529.92</v>
+        <v>-16953709.568</v>
       </c>
       <c r="BC52" t="n">
-        <v>-15879495.68</v>
+        <v>-17036483.584</v>
       </c>
       <c r="BD52" t="n">
-        <v>-16122555.392</v>
+        <v>-17075898.368</v>
       </c>
       <c r="BE52" t="n">
-        <v>-16953709.568</v>
+        <v>-17106054.144</v>
       </c>
       <c r="BF52" t="n">
-        <v>-17036483.584</v>
+        <v>-17564418.048</v>
       </c>
       <c r="BG52" t="n">
-        <v>-17075898.368</v>
+        <v>-17747662.848</v>
       </c>
       <c r="BH52" t="n">
-        <v>-17106054.144</v>
+        <v>-18066483.2</v>
       </c>
       <c r="BI52" t="n">
-        <v>-17564418.048</v>
+        <v>-18491414.528</v>
       </c>
     </row>
     <row r="53">
@@ -10302,166 +10302,166 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>17483</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>17404</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>17325</v>
       </c>
       <c r="K53" t="n">
-        <v>17483</v>
+        <v>17246</v>
       </c>
       <c r="L53" t="n">
-        <v>17404</v>
+        <v>16927</v>
       </c>
       <c r="M53" t="n">
-        <v>17325</v>
+        <v>16848</v>
       </c>
       <c r="N53" t="n">
-        <v>17246</v>
+        <v>16769</v>
       </c>
       <c r="O53" t="n">
-        <v>16927</v>
+        <v>16690</v>
       </c>
       <c r="P53" t="n">
-        <v>16848</v>
+        <v>16536</v>
       </c>
       <c r="Q53" t="n">
-        <v>16769</v>
+        <v>15517</v>
       </c>
       <c r="R53" t="n">
-        <v>16690</v>
+        <v>15438</v>
       </c>
       <c r="S53" t="n">
-        <v>16536</v>
+        <v>15359</v>
       </c>
       <c r="T53" t="n">
-        <v>15517</v>
+        <v>16152</v>
       </c>
       <c r="U53" t="n">
-        <v>15438</v>
+        <v>16152</v>
       </c>
       <c r="V53" t="n">
-        <v>15359</v>
+        <v>15994</v>
       </c>
       <c r="W53" t="n">
         <v>16152</v>
       </c>
       <c r="X53" t="n">
-        <v>16152</v>
+        <v>15764</v>
       </c>
       <c r="Y53" t="n">
-        <v>15994</v>
+        <v>15685</v>
       </c>
       <c r="Z53" t="n">
-        <v>16152</v>
+        <v>15606</v>
       </c>
       <c r="AA53" t="n">
         <v>15764</v>
       </c>
       <c r="AB53" t="n">
-        <v>15685</v>
+        <v>15376</v>
       </c>
       <c r="AC53" t="n">
-        <v>15606</v>
+        <v>15376</v>
       </c>
       <c r="AD53" t="n">
-        <v>15764</v>
+        <v>15376</v>
       </c>
       <c r="AE53" t="n">
         <v>15376</v>
       </c>
       <c r="AF53" t="n">
-        <v>15376</v>
+        <v>15060</v>
       </c>
       <c r="AG53" t="n">
-        <v>15376</v>
+        <v>14994</v>
       </c>
       <c r="AH53" t="n">
-        <v>15376</v>
+        <v>14902</v>
       </c>
       <c r="AI53" t="n">
-        <v>15060</v>
+        <v>14824</v>
       </c>
       <c r="AJ53" t="n">
-        <v>14994</v>
+        <v>14735</v>
       </c>
       <c r="AK53" t="n">
-        <v>14902</v>
+        <v>14656</v>
       </c>
       <c r="AL53" t="n">
-        <v>14824</v>
+        <v>14577</v>
       </c>
       <c r="AM53" t="n">
-        <v>14735</v>
+        <v>14498</v>
       </c>
       <c r="AN53" t="n">
-        <v>14656</v>
+        <v>14419</v>
       </c>
       <c r="AO53" t="n">
-        <v>14577</v>
+        <v>14340</v>
       </c>
       <c r="AP53" t="n">
-        <v>14498</v>
+        <v>14260</v>
       </c>
       <c r="AQ53" t="n">
-        <v>14419</v>
+        <v>14181</v>
       </c>
       <c r="AR53" t="n">
-        <v>14340</v>
+        <v>14102</v>
       </c>
       <c r="AS53" t="n">
-        <v>14260</v>
+        <v>14023</v>
       </c>
       <c r="AT53" t="n">
-        <v>14181</v>
+        <v>13944</v>
       </c>
       <c r="AU53" t="n">
-        <v>14102</v>
+        <v>13865</v>
       </c>
       <c r="AV53" t="n">
-        <v>14023</v>
+        <v>13785</v>
       </c>
       <c r="AW53" t="n">
-        <v>13944</v>
+        <v>13706</v>
       </c>
       <c r="AX53" t="n">
-        <v>13865</v>
+        <v>13627</v>
       </c>
       <c r="AY53" t="n">
-        <v>13785</v>
+        <v>13547</v>
       </c>
       <c r="AZ53" t="n">
-        <v>13706</v>
+        <v>13468</v>
       </c>
       <c r="BA53" t="n">
-        <v>13627</v>
+        <v>13389</v>
       </c>
       <c r="BB53" t="n">
-        <v>13547</v>
+        <v>13310</v>
       </c>
       <c r="BC53" t="n">
-        <v>13468</v>
+        <v>13230</v>
       </c>
       <c r="BD53" t="n">
-        <v>13389</v>
+        <v>11503</v>
       </c>
       <c r="BE53" t="n">
-        <v>13310</v>
+        <v>11424</v>
       </c>
       <c r="BF53" t="n">
-        <v>13230</v>
+        <v>10823</v>
       </c>
       <c r="BG53" t="n">
-        <v>11503</v>
+        <v>10094</v>
       </c>
       <c r="BH53" t="n">
-        <v>11424</v>
+        <v>10357</v>
       </c>
       <c r="BI53" t="n">
-        <v>10823</v>
+        <v>10289</v>
       </c>
     </row>
     <row r="54">
@@ -10706,19 +10706,19 @@
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>1098</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>1177</v>
       </c>
       <c r="T55" t="n">
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>1098</v>
+        <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>1177</v>
+        <v>0</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
@@ -10751,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="AG55" t="n">
-        <v>0</v>
+        <v>-226135.008</v>
       </c>
       <c r="AH55" t="n">
         <v>0</v>
@@ -10760,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" t="n">
-        <v>-226135.008</v>
+        <v>0</v>
       </c>
       <c r="AK55" t="n">
         <v>0</v>
@@ -11032,29 +11032,23 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="C57" t="n">
-        <v>452</v>
+        <v>599</v>
       </c>
       <c r="D57" t="n">
-        <v>531</v>
+        <v>611</v>
       </c>
       <c r="E57" t="n">
-        <v>551</v>
+        <v>486</v>
       </c>
       <c r="F57" t="n">
-        <v>599</v>
-      </c>
-      <c r="G57" t="n">
-        <v>611</v>
-      </c>
-      <c r="H57" t="n">
-        <v>486</v>
-      </c>
-      <c r="I57" t="n">
         <v>336</v>
       </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
@@ -11129,15 +11123,9 @@
       <c r="F58" t="n">
         <v>0</v>
       </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
@@ -11198,184 +11186,184 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="C59" t="n">
-        <v>452</v>
+        <v>599</v>
       </c>
       <c r="D59" t="n">
-        <v>531</v>
+        <v>611</v>
       </c>
       <c r="E59" t="n">
-        <v>551</v>
+        <v>486</v>
       </c>
       <c r="F59" t="n">
-        <v>599</v>
+        <v>336</v>
       </c>
       <c r="G59" t="n">
-        <v>611</v>
+        <v>71</v>
       </c>
       <c r="H59" t="n">
-        <v>486</v>
+        <v>434</v>
       </c>
       <c r="I59" t="n">
-        <v>336</v>
+        <v>434</v>
       </c>
       <c r="J59" t="n">
-        <v>71</v>
+        <v>411</v>
       </c>
       <c r="K59" t="n">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="L59" t="n">
-        <v>434</v>
+        <v>657</v>
       </c>
       <c r="M59" t="n">
-        <v>411</v>
+        <v>709</v>
       </c>
       <c r="N59" t="n">
-        <v>416</v>
+        <v>613</v>
       </c>
       <c r="O59" t="n">
-        <v>657</v>
+        <v>742</v>
       </c>
       <c r="P59" t="n">
-        <v>709</v>
+        <v>771</v>
       </c>
       <c r="Q59" t="n">
-        <v>613</v>
+        <v>545</v>
       </c>
       <c r="R59" t="n">
-        <v>742</v>
+        <v>377</v>
       </c>
       <c r="S59" t="n">
-        <v>771</v>
+        <v>2267</v>
       </c>
       <c r="T59" t="n">
-        <v>545</v>
+        <v>2303</v>
       </c>
       <c r="U59" t="n">
-        <v>377</v>
+        <v>1865</v>
       </c>
       <c r="V59" t="n">
-        <v>2267</v>
+        <v>1648</v>
       </c>
       <c r="W59" t="n">
-        <v>2303</v>
+        <v>1763</v>
       </c>
       <c r="X59" t="n">
-        <v>1865</v>
+        <v>1674</v>
       </c>
       <c r="Y59" t="n">
-        <v>1648</v>
+        <v>1704</v>
       </c>
       <c r="Z59" t="n">
-        <v>1763</v>
+        <v>1116</v>
       </c>
       <c r="AA59" t="n">
-        <v>1674</v>
+        <v>1025</v>
       </c>
       <c r="AB59" t="n">
-        <v>1704</v>
+        <v>1047</v>
       </c>
       <c r="AC59" t="n">
-        <v>1116</v>
+        <v>1042</v>
       </c>
       <c r="AD59" t="n">
-        <v>1025</v>
+        <v>1099</v>
       </c>
       <c r="AE59" t="n">
-        <v>1047</v>
+        <v>1138</v>
       </c>
       <c r="AF59" t="n">
-        <v>1042</v>
+        <v>1124</v>
       </c>
       <c r="AG59" t="n">
-        <v>1099</v>
+        <v>1110</v>
       </c>
       <c r="AH59" t="n">
-        <v>1138</v>
+        <v>950</v>
       </c>
       <c r="AI59" t="n">
-        <v>1124</v>
+        <v>949</v>
       </c>
       <c r="AJ59" t="n">
-        <v>1110</v>
+        <v>918</v>
       </c>
       <c r="AK59" t="n">
-        <v>950</v>
+        <v>934</v>
       </c>
       <c r="AL59" t="n">
-        <v>949</v>
+        <v>916</v>
       </c>
       <c r="AM59" t="n">
         <v>918</v>
       </c>
       <c r="AN59" t="n">
-        <v>934</v>
+        <v>471</v>
       </c>
       <c r="AO59" t="n">
-        <v>916</v>
+        <v>465</v>
       </c>
       <c r="AP59" t="n">
-        <v>918</v>
+        <v>457</v>
       </c>
       <c r="AQ59" t="n">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="AR59" t="n">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="AS59" t="n">
-        <v>457</v>
+        <v>364</v>
       </c>
       <c r="AT59" t="n">
-        <v>457</v>
+        <v>109</v>
       </c>
       <c r="AU59" t="n">
-        <v>453</v>
+        <v>296</v>
       </c>
       <c r="AV59" t="n">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="AW59" t="n">
-        <v>109</v>
+        <v>293</v>
       </c>
       <c r="AX59" t="n">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="AY59" t="n">
-        <v>385</v>
+        <v>274</v>
       </c>
       <c r="AZ59" t="n">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="BA59" t="n">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="BB59" t="n">
-        <v>274</v>
+        <v>428</v>
       </c>
       <c r="BC59" t="n">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BD59" t="n">
-        <v>287</v>
+        <v>413</v>
       </c>
       <c r="BE59" t="n">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="BF59" t="n">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="BG59" t="n">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="BH59" t="n">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="BI59" t="n">
-        <v>387</v>
+        <v>433</v>
       </c>
     </row>
     <row r="60">
@@ -11400,34 +11388,34 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>-509</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>-127</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>-127</v>
       </c>
       <c r="J60" t="n">
-        <v>-509</v>
+        <v>-120</v>
       </c>
       <c r="K60" t="n">
-        <v>-127</v>
+        <v>-120</v>
       </c>
       <c r="L60" t="n">
-        <v>-127</v>
+        <v>-139</v>
       </c>
       <c r="M60" t="n">
-        <v>-120</v>
+        <v>-126</v>
       </c>
       <c r="N60" t="n">
         <v>-120</v>
       </c>
       <c r="O60" t="n">
-        <v>-139</v>
+        <v>-120</v>
       </c>
       <c r="P60" t="n">
-        <v>-126</v>
+        <v>-138</v>
       </c>
       <c r="Q60" t="n">
         <v>-120</v>
@@ -11436,7 +11424,7 @@
         <v>-120</v>
       </c>
       <c r="S60" t="n">
-        <v>-138</v>
+        <v>-120</v>
       </c>
       <c r="T60" t="n">
         <v>-120</v>
@@ -11538,31 +11526,31 @@
         <v>-120</v>
       </c>
       <c r="BA60" t="n">
-        <v>-120</v>
+        <v>-360</v>
       </c>
       <c r="BB60" t="n">
         <v>-120</v>
       </c>
       <c r="BC60" t="n">
+        <v>120</v>
+      </c>
+      <c r="BD60" t="n">
         <v>-120</v>
-      </c>
-      <c r="BD60" t="n">
-        <v>-360</v>
       </c>
       <c r="BE60" t="n">
         <v>-120</v>
       </c>
       <c r="BF60" t="n">
-        <v>120</v>
+        <v>-96</v>
       </c>
       <c r="BG60" t="n">
-        <v>-120</v>
+        <v>-102</v>
       </c>
       <c r="BH60" t="n">
-        <v>-120</v>
+        <v>-102</v>
       </c>
       <c r="BI60" t="n">
-        <v>-96</v>
+        <v>-101</v>
       </c>
     </row>
     <row r="61">
@@ -11572,184 +11560,184 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="C61" t="n">
-        <v>452</v>
+        <v>599</v>
       </c>
       <c r="D61" t="n">
-        <v>531</v>
+        <v>611</v>
       </c>
       <c r="E61" t="n">
-        <v>551</v>
+        <v>486</v>
       </c>
       <c r="F61" t="n">
-        <v>599</v>
+        <v>336</v>
       </c>
       <c r="G61" t="n">
-        <v>611</v>
+        <v>-438</v>
       </c>
       <c r="H61" t="n">
-        <v>486</v>
+        <v>307</v>
       </c>
       <c r="I61" t="n">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="J61" t="n">
-        <v>-438</v>
+        <v>291</v>
       </c>
       <c r="K61" t="n">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="L61" t="n">
-        <v>307</v>
+        <v>518</v>
       </c>
       <c r="M61" t="n">
-        <v>291</v>
+        <v>583</v>
       </c>
       <c r="N61" t="n">
-        <v>296</v>
+        <v>493</v>
       </c>
       <c r="O61" t="n">
-        <v>518</v>
+        <v>622</v>
       </c>
       <c r="P61" t="n">
-        <v>583</v>
+        <v>633</v>
       </c>
       <c r="Q61" t="n">
-        <v>493</v>
+        <v>425</v>
       </c>
       <c r="R61" t="n">
-        <v>622</v>
+        <v>257</v>
       </c>
       <c r="S61" t="n">
-        <v>633</v>
+        <v>2147</v>
       </c>
       <c r="T61" t="n">
-        <v>425</v>
+        <v>2183</v>
       </c>
       <c r="U61" t="n">
-        <v>257</v>
+        <v>1745</v>
       </c>
       <c r="V61" t="n">
-        <v>2147</v>
+        <v>1528</v>
       </c>
       <c r="W61" t="n">
-        <v>2183</v>
+        <v>1643</v>
       </c>
       <c r="X61" t="n">
-        <v>1745</v>
+        <v>1554</v>
       </c>
       <c r="Y61" t="n">
-        <v>1528</v>
+        <v>1584</v>
       </c>
       <c r="Z61" t="n">
-        <v>1643</v>
+        <v>996</v>
       </c>
       <c r="AA61" t="n">
-        <v>1554</v>
+        <v>905</v>
       </c>
       <c r="AB61" t="n">
-        <v>1584</v>
+        <v>927</v>
       </c>
       <c r="AC61" t="n">
-        <v>996</v>
+        <v>922</v>
       </c>
       <c r="AD61" t="n">
-        <v>905</v>
+        <v>979</v>
       </c>
       <c r="AE61" t="n">
-        <v>927</v>
+        <v>1018</v>
       </c>
       <c r="AF61" t="n">
-        <v>922</v>
+        <v>1004</v>
       </c>
       <c r="AG61" t="n">
-        <v>979</v>
+        <v>990</v>
       </c>
       <c r="AH61" t="n">
-        <v>1018</v>
+        <v>830</v>
       </c>
       <c r="AI61" t="n">
-        <v>1004</v>
+        <v>829</v>
       </c>
       <c r="AJ61" t="n">
-        <v>990</v>
+        <v>798</v>
       </c>
       <c r="AK61" t="n">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="AL61" t="n">
-        <v>829</v>
+        <v>796</v>
       </c>
       <c r="AM61" t="n">
         <v>798</v>
       </c>
       <c r="AN61" t="n">
-        <v>814</v>
+        <v>351</v>
       </c>
       <c r="AO61" t="n">
-        <v>796</v>
+        <v>345</v>
       </c>
       <c r="AP61" t="n">
-        <v>798</v>
+        <v>337</v>
       </c>
       <c r="AQ61" t="n">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="AR61" t="n">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AS61" t="n">
-        <v>337</v>
+        <v>244</v>
       </c>
       <c r="AT61" t="n">
-        <v>337</v>
+        <v>-11</v>
       </c>
       <c r="AU61" t="n">
-        <v>333</v>
+        <v>176</v>
       </c>
       <c r="AV61" t="n">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="AW61" t="n">
-        <v>-11</v>
+        <v>173</v>
       </c>
       <c r="AX61" t="n">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="AY61" t="n">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="AZ61" t="n">
-        <v>173</v>
+        <v>247</v>
       </c>
       <c r="BA61" t="n">
-        <v>133</v>
+        <v>-73</v>
       </c>
       <c r="BB61" t="n">
-        <v>154</v>
+        <v>308</v>
       </c>
       <c r="BC61" t="n">
-        <v>247</v>
+        <v>483</v>
       </c>
       <c r="BD61" t="n">
-        <v>-73</v>
+        <v>293</v>
       </c>
       <c r="BE61" t="n">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="BF61" t="n">
-        <v>483</v>
+        <v>291</v>
       </c>
       <c r="BG61" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="BH61" t="n">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="BI61" t="n">
-        <v>291</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62">
@@ -11946,184 +11934,184 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-5539</v>
+        <v>-4335</v>
       </c>
       <c r="C63" t="n">
-        <v>-3516</v>
+        <v>-8763</v>
       </c>
       <c r="D63" t="n">
-        <v>-3872</v>
+        <v>-2714</v>
       </c>
       <c r="E63" t="n">
-        <v>-4335</v>
+        <v>-5009</v>
       </c>
       <c r="F63" t="n">
-        <v>-8763</v>
+        <v>-5075</v>
       </c>
       <c r="G63" t="n">
-        <v>-2714</v>
+        <v>422230.016</v>
       </c>
       <c r="H63" t="n">
-        <v>-5009</v>
+        <v>-2758</v>
       </c>
       <c r="I63" t="n">
-        <v>-5075</v>
+        <v>-2758</v>
       </c>
       <c r="J63" t="n">
-        <v>422230.016</v>
+        <v>-4092</v>
       </c>
       <c r="K63" t="n">
-        <v>-2758</v>
+        <v>-4009</v>
       </c>
       <c r="L63" t="n">
-        <v>-2758</v>
+        <v>-6489</v>
       </c>
       <c r="M63" t="n">
-        <v>-4092</v>
+        <v>-4056</v>
       </c>
       <c r="N63" t="n">
-        <v>-4009</v>
+        <v>-6945</v>
       </c>
       <c r="O63" t="n">
-        <v>-6489</v>
+        <v>-12355</v>
       </c>
       <c r="P63" t="n">
-        <v>-4056</v>
+        <v>-2410</v>
       </c>
       <c r="Q63" t="n">
-        <v>-6945</v>
+        <v>-3056</v>
       </c>
       <c r="R63" t="n">
-        <v>-12355</v>
+        <v>-3644</v>
       </c>
       <c r="S63" t="n">
-        <v>-2410</v>
+        <v>-2512</v>
       </c>
       <c r="T63" t="n">
-        <v>-3056</v>
+        <v>-3316</v>
       </c>
       <c r="U63" t="n">
-        <v>-3644</v>
+        <v>-2326</v>
       </c>
       <c r="V63" t="n">
-        <v>-2512</v>
+        <v>-2905</v>
       </c>
       <c r="W63" t="n">
-        <v>-3316</v>
+        <v>-27407</v>
       </c>
       <c r="X63" t="n">
-        <v>-2326</v>
+        <v>549</v>
       </c>
       <c r="Y63" t="n">
-        <v>-2905</v>
+        <v>-4648</v>
       </c>
       <c r="Z63" t="n">
-        <v>-27407</v>
+        <v>4005</v>
       </c>
       <c r="AA63" t="n">
-        <v>549</v>
+        <v>-6263</v>
       </c>
       <c r="AB63" t="n">
-        <v>-4648</v>
+        <v>-1330</v>
       </c>
       <c r="AC63" t="n">
-        <v>4005</v>
+        <v>-1948</v>
       </c>
       <c r="AD63" t="n">
-        <v>-6263</v>
+        <v>2163</v>
       </c>
       <c r="AE63" t="n">
-        <v>-1330</v>
+        <v>-1064</v>
       </c>
       <c r="AF63" t="n">
-        <v>-1948</v>
+        <v>-539</v>
       </c>
       <c r="AG63" t="n">
-        <v>2163</v>
+        <v>-687</v>
       </c>
       <c r="AH63" t="n">
-        <v>-1064</v>
+        <v>-664</v>
       </c>
       <c r="AI63" t="n">
-        <v>-539</v>
+        <v>-2690</v>
       </c>
       <c r="AJ63" t="n">
-        <v>-687</v>
+        <v>-230</v>
       </c>
       <c r="AK63" t="n">
-        <v>-664</v>
+        <v>-722</v>
       </c>
       <c r="AL63" t="n">
-        <v>-2690</v>
+        <v>-388</v>
       </c>
       <c r="AM63" t="n">
-        <v>-230</v>
+        <v>-373</v>
       </c>
       <c r="AN63" t="n">
-        <v>-722</v>
+        <v>-390</v>
       </c>
       <c r="AO63" t="n">
-        <v>-388</v>
+        <v>-404</v>
       </c>
       <c r="AP63" t="n">
-        <v>-373</v>
+        <v>-587</v>
       </c>
       <c r="AQ63" t="n">
-        <v>-390</v>
+        <v>-112</v>
       </c>
       <c r="AR63" t="n">
-        <v>-404</v>
+        <v>-264</v>
       </c>
       <c r="AS63" t="n">
-        <v>-587</v>
+        <v>-323</v>
       </c>
       <c r="AT63" t="n">
-        <v>-112</v>
+        <v>-210</v>
       </c>
       <c r="AU63" t="n">
-        <v>-264</v>
+        <v>-258</v>
       </c>
       <c r="AV63" t="n">
-        <v>-323</v>
+        <v>-424415.008</v>
       </c>
       <c r="AW63" t="n">
-        <v>-210</v>
+        <v>-1255</v>
       </c>
       <c r="AX63" t="n">
-        <v>-258</v>
+        <v>-310</v>
       </c>
       <c r="AY63" t="n">
-        <v>-424415.008</v>
+        <v>-653077.952</v>
       </c>
       <c r="AZ63" t="n">
-        <v>-1255</v>
+        <v>3048</v>
       </c>
       <c r="BA63" t="n">
-        <v>-310</v>
+        <v>-1746</v>
       </c>
       <c r="BB63" t="n">
-        <v>-653077.952</v>
+        <v>-406</v>
       </c>
       <c r="BC63" t="n">
-        <v>3048</v>
+        <v>-992425.9840000001</v>
       </c>
       <c r="BD63" t="n">
-        <v>-1746</v>
+        <v>-1932</v>
       </c>
       <c r="BE63" t="n">
-        <v>-406</v>
+        <v>-111</v>
       </c>
       <c r="BF63" t="n">
-        <v>-992425.9840000001</v>
+        <v>-505</v>
       </c>
       <c r="BG63" t="n">
-        <v>-1932</v>
+        <v>-645556.992</v>
       </c>
       <c r="BH63" t="n">
-        <v>-111</v>
+        <v>-340868.992</v>
       </c>
       <c r="BI63" t="n">
-        <v>-505</v>
+        <v>-521</v>
       </c>
     </row>
     <row r="64">
@@ -12138,9 +12126,15 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
@@ -12302,19 +12296,19 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-16743</v>
+        <v>-413</v>
       </c>
       <c r="C65" t="n">
-        <v>-288</v>
+        <v>29542</v>
       </c>
       <c r="D65" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>-413</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>29542</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -12326,37 +12320,37 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>-589</v>
       </c>
       <c r="M65" t="n">
-        <v>276</v>
+        <v>16532</v>
       </c>
       <c r="N65" t="n">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>-589</v>
+        <v>181</v>
       </c>
       <c r="P65" t="n">
-        <v>16532</v>
+        <v>-16713</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>14026</v>
       </c>
       <c r="R65" t="n">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>-16713</v>
+        <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>14026</v>
+        <v>-14026</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
@@ -12365,100 +12359,100 @@
         <v>0</v>
       </c>
       <c r="W65" t="n">
-        <v>-14026</v>
+        <v>29495</v>
       </c>
       <c r="X65" t="n">
-        <v>0</v>
+        <v>95276</v>
       </c>
       <c r="Y65" t="n">
-        <v>0</v>
+        <v>6572</v>
       </c>
       <c r="Z65" t="n">
-        <v>29495</v>
+        <v>0</v>
       </c>
       <c r="AA65" t="n">
-        <v>95276</v>
+        <v>0</v>
       </c>
       <c r="AB65" t="n">
-        <v>6572</v>
+        <v>-75460</v>
       </c>
       <c r="AC65" t="n">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="AD65" t="n">
-        <v>0</v>
+        <v>-870</v>
       </c>
       <c r="AE65" t="n">
-        <v>-75460</v>
+        <v>0</v>
       </c>
       <c r="AF65" t="n">
-        <v>672</v>
+        <v>-152053.008</v>
       </c>
       <c r="AG65" t="n">
-        <v>-870</v>
+        <v>-41854</v>
       </c>
       <c r="AH65" t="n">
-        <v>0</v>
+        <v>-31025</v>
       </c>
       <c r="AI65" t="n">
-        <v>-152053.008</v>
+        <v>0</v>
       </c>
       <c r="AJ65" t="n">
-        <v>-41854</v>
+        <v>-778516.992</v>
       </c>
       <c r="AK65" t="n">
-        <v>-31025</v>
+        <v>-36782</v>
       </c>
       <c r="AL65" t="n">
-        <v>0</v>
+        <v>-27399</v>
       </c>
       <c r="AM65" t="n">
-        <v>-778516.992</v>
+        <v>0</v>
       </c>
       <c r="AN65" t="n">
-        <v>-36782</v>
+        <v>-154804</v>
       </c>
       <c r="AO65" t="n">
-        <v>-27399</v>
+        <v>-745</v>
       </c>
       <c r="AP65" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AQ65" t="n">
-        <v>-154804</v>
+        <v>0</v>
       </c>
       <c r="AR65" t="n">
-        <v>-745</v>
+        <v>-214592.992</v>
       </c>
       <c r="AS65" t="n">
-        <v>190</v>
+        <v>-5447</v>
       </c>
       <c r="AT65" t="n">
-        <v>0</v>
+        <v>-6100</v>
       </c>
       <c r="AU65" t="n">
-        <v>-214592.992</v>
+        <v>-886</v>
       </c>
       <c r="AV65" t="n">
-        <v>-5447</v>
+        <v>12433</v>
       </c>
       <c r="AW65" t="n">
-        <v>-6100</v>
+        <v>0</v>
       </c>
       <c r="AX65" t="n">
-        <v>-886</v>
+        <v>4316</v>
       </c>
       <c r="AY65" t="n">
-        <v>12433</v>
+        <v>-2191</v>
       </c>
       <c r="AZ65" t="n">
         <v>0</v>
       </c>
       <c r="BA65" t="n">
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="BB65" t="n">
-        <v>-2191</v>
+        <v>0</v>
       </c>
       <c r="BC65" t="n">
         <v>0</v>
@@ -12489,142 +12483,142 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2055</v>
+        <v>28</v>
       </c>
       <c r="C66" t="n">
-        <v>-101</v>
+        <v>-49</v>
       </c>
       <c r="D66" t="n">
-        <v>-449</v>
+        <v>-1650</v>
       </c>
       <c r="E66" t="n">
-        <v>28</v>
+        <v>-2938</v>
       </c>
       <c r="F66" t="n">
-        <v>-49</v>
+        <v>-1435</v>
       </c>
       <c r="G66" t="n">
-        <v>-1650</v>
+        <v>6023</v>
       </c>
       <c r="H66" t="n">
-        <v>-2938</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-1435</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>6023</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>-10624</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>-1629</v>
       </c>
       <c r="O66" t="n">
-        <v>-10624</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>-529284.992</v>
       </c>
       <c r="Q66" t="n">
-        <v>-1629</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>-33</v>
       </c>
       <c r="S66" t="n">
-        <v>-529284.992</v>
+        <v>67963</v>
       </c>
       <c r="T66" t="n">
-        <v>0</v>
+        <v>-165906</v>
       </c>
       <c r="U66" t="n">
-        <v>-33</v>
+        <v>-980</v>
       </c>
       <c r="V66" t="n">
-        <v>67963</v>
+        <v>-1568</v>
       </c>
       <c r="W66" t="n">
-        <v>-165906</v>
+        <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>-980</v>
+        <v>2548</v>
       </c>
       <c r="Y66" t="n">
-        <v>-1568</v>
+        <v>0</v>
       </c>
       <c r="Z66" t="n">
-        <v>0</v>
+        <v>-3307</v>
       </c>
       <c r="AA66" t="n">
-        <v>2548</v>
+        <v>-2146</v>
       </c>
       <c r="AB66" t="n">
-        <v>0</v>
+        <v>5453</v>
       </c>
       <c r="AC66" t="n">
-        <v>-3307</v>
+        <v>0</v>
       </c>
       <c r="AD66" t="n">
-        <v>-2146</v>
+        <v>0</v>
       </c>
       <c r="AE66" t="n">
-        <v>5453</v>
+        <v>-127676</v>
       </c>
       <c r="AF66" t="n">
-        <v>0</v>
+        <v>127676</v>
       </c>
       <c r="AG66" t="n">
         <v>0</v>
       </c>
       <c r="AH66" t="n">
-        <v>-127676</v>
+        <v>0</v>
       </c>
       <c r="AI66" t="n">
-        <v>127676</v>
+        <v>-37727</v>
       </c>
       <c r="AJ66" t="n">
-        <v>0</v>
+        <v>37727</v>
       </c>
       <c r="AK66" t="n">
         <v>0</v>
       </c>
       <c r="AL66" t="n">
-        <v>-37727</v>
+        <v>0</v>
       </c>
       <c r="AM66" t="n">
-        <v>37727</v>
+        <v>-38346</v>
       </c>
       <c r="AN66" t="n">
-        <v>0</v>
+        <v>38346</v>
       </c>
       <c r="AO66" t="n">
         <v>0</v>
       </c>
       <c r="AP66" t="n">
-        <v>-38346</v>
+        <v>0</v>
       </c>
       <c r="AQ66" t="n">
-        <v>38346</v>
+        <v>-1667</v>
       </c>
       <c r="AR66" t="n">
-        <v>0</v>
+        <v>1667</v>
       </c>
       <c r="AS66" t="n">
         <v>0</v>
       </c>
       <c r="AT66" t="n">
-        <v>-1667</v>
+        <v>0</v>
       </c>
       <c r="AU66" t="n">
-        <v>1667</v>
+        <v>0</v>
       </c>
       <c r="AV66" t="n">
         <v>0</v>
@@ -12642,31 +12636,31 @@
         <v>0</v>
       </c>
       <c r="BA66" t="n">
-        <v>0</v>
+        <v>-694326.976</v>
       </c>
       <c r="BB66" t="n">
-        <v>0</v>
+        <v>-126190</v>
       </c>
       <c r="BC66" t="n">
-        <v>0</v>
+        <v>820516.992</v>
       </c>
       <c r="BD66" t="n">
-        <v>-694326.976</v>
+        <v>0</v>
       </c>
       <c r="BE66" t="n">
-        <v>-126190</v>
+        <v>-265763.008</v>
       </c>
       <c r="BF66" t="n">
-        <v>820516.992</v>
+        <v>-132858</v>
       </c>
       <c r="BG66" t="n">
-        <v>0</v>
+        <v>398620.992</v>
       </c>
       <c r="BH66" t="n">
-        <v>-265763.008</v>
+        <v>0</v>
       </c>
       <c r="BI66" t="n">
-        <v>-132858</v>
+        <v>-160132.992</v>
       </c>
     </row>
     <row r="67">
@@ -12685,52 +12679,52 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2709</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>282</v>
       </c>
       <c r="I67" t="n">
-        <v>-2</v>
+        <v>282</v>
       </c>
       <c r="J67" t="n">
-        <v>2709</v>
+        <v>-1875</v>
       </c>
       <c r="K67" t="n">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>282</v>
+        <v>2669</v>
       </c>
       <c r="M67" t="n">
-        <v>-1875</v>
+        <v>-1268</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="O67" t="n">
-        <v>2669</v>
+        <v>1555</v>
       </c>
       <c r="P67" t="n">
-        <v>-1268</v>
+        <v>1021</v>
       </c>
       <c r="Q67" t="n">
-        <v>467</v>
+        <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>1555</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>1021</v>
+        <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>4483</v>
       </c>
       <c r="U67" t="n">
         <v>0</v>
@@ -12739,10 +12733,10 @@
         <v>0</v>
       </c>
       <c r="W67" t="n">
-        <v>4483</v>
+        <v>0</v>
       </c>
       <c r="X67" t="n">
-        <v>0</v>
+        <v>-6737</v>
       </c>
       <c r="Y67" t="n">
         <v>0</v>
@@ -12751,22 +12745,22 @@
         <v>0</v>
       </c>
       <c r="AA67" t="n">
-        <v>-6737</v>
+        <v>-59</v>
       </c>
       <c r="AB67" t="n">
-        <v>0</v>
+        <v>-17000</v>
       </c>
       <c r="AC67" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD67" t="n">
-        <v>-59</v>
+        <v>0</v>
       </c>
       <c r="AE67" t="n">
-        <v>-17000</v>
+        <v>0</v>
       </c>
       <c r="AF67" t="n">
-        <v>-1</v>
+        <v>575</v>
       </c>
       <c r="AG67" t="n">
         <v>0</v>
@@ -12775,10 +12769,10 @@
         <v>0</v>
       </c>
       <c r="AI67" t="n">
-        <v>575</v>
+        <v>0</v>
       </c>
       <c r="AJ67" t="n">
-        <v>0</v>
+        <v>-1857</v>
       </c>
       <c r="AK67" t="n">
         <v>0</v>
@@ -12787,10 +12781,10 @@
         <v>0</v>
       </c>
       <c r="AM67" t="n">
-        <v>-1857</v>
+        <v>0</v>
       </c>
       <c r="AN67" t="n">
-        <v>0</v>
+        <v>-1860</v>
       </c>
       <c r="AO67" t="n">
         <v>0</v>
@@ -12799,10 +12793,10 @@
         <v>0</v>
       </c>
       <c r="AQ67" t="n">
-        <v>-1860</v>
+        <v>0</v>
       </c>
       <c r="AR67" t="n">
-        <v>0</v>
+        <v>5042</v>
       </c>
       <c r="AS67" t="n">
         <v>0</v>
@@ -12811,10 +12805,10 @@
         <v>0</v>
       </c>
       <c r="AU67" t="n">
-        <v>5042</v>
+        <v>0</v>
       </c>
       <c r="AV67" t="n">
-        <v>0</v>
+        <v>-2845</v>
       </c>
       <c r="AW67" t="n">
         <v>0</v>
@@ -12823,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="AY67" t="n">
-        <v>-2845</v>
+        <v>1621</v>
       </c>
       <c r="AZ67" t="n">
         <v>0</v>
@@ -12832,10 +12826,10 @@
         <v>0</v>
       </c>
       <c r="BB67" t="n">
-        <v>1621</v>
+        <v>0</v>
       </c>
       <c r="BC67" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="BD67" t="n">
         <v>0</v>
@@ -12844,10 +12838,10 @@
         <v>0</v>
       </c>
       <c r="BF67" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BG67" t="n">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="BH67" t="n">
         <v>0</v>
@@ -12863,184 +12857,184 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>121551.008</v>
+        <v>124910</v>
       </c>
       <c r="C68" t="n">
-        <v>140200.992</v>
+        <v>156678.992</v>
       </c>
       <c r="D68" t="n">
-        <v>124188</v>
+        <v>91962</v>
       </c>
       <c r="E68" t="n">
-        <v>124910</v>
+        <v>117019</v>
       </c>
       <c r="F68" t="n">
-        <v>156678.992</v>
+        <v>135711.008</v>
       </c>
       <c r="G68" t="n">
-        <v>91962</v>
+        <v>309624.992</v>
       </c>
       <c r="H68" t="n">
-        <v>117019</v>
+        <v>203770</v>
       </c>
       <c r="I68" t="n">
-        <v>135711.008</v>
+        <v>203770</v>
       </c>
       <c r="J68" t="n">
-        <v>309624.992</v>
+        <v>227604</v>
       </c>
       <c r="K68" t="n">
-        <v>203770</v>
+        <v>234808.992</v>
       </c>
       <c r="L68" t="n">
-        <v>203770</v>
+        <v>224553.008</v>
       </c>
       <c r="M68" t="n">
-        <v>227604</v>
+        <v>-90658</v>
       </c>
       <c r="N68" t="n">
-        <v>234808.992</v>
+        <v>-121431</v>
       </c>
       <c r="O68" t="n">
-        <v>224553.008</v>
+        <v>27970</v>
       </c>
       <c r="P68" t="n">
-        <v>-90658</v>
+        <v>-102633</v>
       </c>
       <c r="Q68" t="n">
-        <v>-121431</v>
+        <v>-17018</v>
       </c>
       <c r="R68" t="n">
-        <v>27970</v>
+        <v>-110802</v>
       </c>
       <c r="S68" t="n">
-        <v>-102633</v>
+        <v>-235132.992</v>
       </c>
       <c r="T68" t="n">
-        <v>-17018</v>
+        <v>68340</v>
       </c>
       <c r="U68" t="n">
-        <v>-110802</v>
+        <v>-125242</v>
       </c>
       <c r="V68" t="n">
-        <v>-235132.992</v>
+        <v>-94701</v>
       </c>
       <c r="W68" t="n">
-        <v>68340</v>
+        <v>-90493</v>
       </c>
       <c r="X68" t="n">
-        <v>-125242</v>
+        <v>-125415.008</v>
       </c>
       <c r="Y68" t="n">
-        <v>-94701</v>
+        <v>-147212.992</v>
       </c>
       <c r="Z68" t="n">
-        <v>-90493</v>
+        <v>-103491</v>
       </c>
       <c r="AA68" t="n">
-        <v>-125415.008</v>
+        <v>-104402</v>
       </c>
       <c r="AB68" t="n">
-        <v>-147212.992</v>
+        <v>-165743.008</v>
       </c>
       <c r="AC68" t="n">
-        <v>-103491</v>
+        <v>-133921</v>
       </c>
       <c r="AD68" t="n">
-        <v>-104402</v>
+        <v>-158538</v>
       </c>
       <c r="AE68" t="n">
-        <v>-165743.008</v>
+        <v>-122019</v>
       </c>
       <c r="AF68" t="n">
-        <v>-133921</v>
+        <v>-354875.968</v>
       </c>
       <c r="AG68" t="n">
-        <v>-158538</v>
+        <v>-184624</v>
       </c>
       <c r="AH68" t="n">
-        <v>-122019</v>
+        <v>-114221</v>
       </c>
       <c r="AI68" t="n">
-        <v>-354875.968</v>
+        <v>-166386</v>
       </c>
       <c r="AJ68" t="n">
-        <v>-184624</v>
+        <v>-211576.992</v>
       </c>
       <c r="AK68" t="n">
-        <v>-114221</v>
+        <v>-208432</v>
       </c>
       <c r="AL68" t="n">
-        <v>-166386</v>
+        <v>-283871.008</v>
       </c>
       <c r="AM68" t="n">
-        <v>-211576.992</v>
+        <v>-262154</v>
       </c>
       <c r="AN68" t="n">
-        <v>-208432</v>
+        <v>-150179.024</v>
       </c>
       <c r="AO68" t="n">
-        <v>-283871.008</v>
+        <v>-70967</v>
       </c>
       <c r="AP68" t="n">
-        <v>-262154</v>
+        <v>-74227</v>
       </c>
       <c r="AQ68" t="n">
-        <v>-150179.024</v>
+        <v>-8171</v>
       </c>
       <c r="AR68" t="n">
-        <v>-70967</v>
+        <v>-97257</v>
       </c>
       <c r="AS68" t="n">
-        <v>-74227</v>
+        <v>-63275</v>
       </c>
       <c r="AT68" t="n">
-        <v>-8171</v>
+        <v>-81619</v>
       </c>
       <c r="AU68" t="n">
-        <v>-97257</v>
+        <v>-292283.008</v>
       </c>
       <c r="AV68" t="n">
-        <v>-63275</v>
+        <v>-267963.984</v>
       </c>
       <c r="AW68" t="n">
-        <v>-81619</v>
+        <v>-302086.016</v>
       </c>
       <c r="AX68" t="n">
-        <v>-292283.008</v>
+        <v>-253880</v>
       </c>
       <c r="AY68" t="n">
-        <v>-267963.984</v>
+        <v>-85000</v>
       </c>
       <c r="AZ68" t="n">
-        <v>-302086.016</v>
+        <v>-246474</v>
       </c>
       <c r="BA68" t="n">
-        <v>-253880</v>
+        <v>-136594</v>
       </c>
       <c r="BB68" t="n">
-        <v>-85000</v>
+        <v>43392</v>
       </c>
       <c r="BC68" t="n">
-        <v>-246474</v>
+        <v>25368</v>
       </c>
       <c r="BD68" t="n">
-        <v>-136594</v>
+        <v>-34287</v>
       </c>
       <c r="BE68" t="n">
-        <v>43392</v>
+        <v>-194879.008</v>
       </c>
       <c r="BF68" t="n">
-        <v>25368</v>
+        <v>-49545</v>
       </c>
       <c r="BG68" t="n">
-        <v>-34287</v>
+        <v>-74385.984</v>
       </c>
       <c r="BH68" t="n">
-        <v>-194879.008</v>
+        <v>-84465</v>
       </c>
       <c r="BI68" t="n">
-        <v>-49545</v>
+        <v>-40555</v>
       </c>
     </row>
     <row r="69">
@@ -13050,130 +13044,130 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>211964.016</v>
+        <v>201942</v>
       </c>
       <c r="C69" t="n">
-        <v>202207.008</v>
+        <v>219967.008</v>
       </c>
       <c r="D69" t="n">
-        <v>195786</v>
+        <v>213620.992</v>
       </c>
       <c r="E69" t="n">
-        <v>201942</v>
+        <v>247812</v>
       </c>
       <c r="F69" t="n">
-        <v>219967.008</v>
+        <v>225667.008</v>
       </c>
       <c r="G69" t="n">
-        <v>213620.992</v>
+        <v>-32783.008</v>
       </c>
       <c r="H69" t="n">
-        <v>247812</v>
+        <v>255196.992</v>
       </c>
       <c r="I69" t="n">
-        <v>225667.008</v>
+        <v>255196.992</v>
       </c>
       <c r="J69" t="n">
-        <v>-32783.008</v>
+        <v>262448.992</v>
       </c>
       <c r="K69" t="n">
-        <v>255196.992</v>
+        <v>281937.984</v>
       </c>
       <c r="L69" t="n">
-        <v>255196.992</v>
+        <v>274463.008</v>
       </c>
       <c r="M69" t="n">
-        <v>262448.992</v>
+        <v>24763</v>
       </c>
       <c r="N69" t="n">
-        <v>281937.984</v>
+        <v>9086</v>
       </c>
       <c r="O69" t="n">
-        <v>274463.008</v>
+        <v>168944.992</v>
       </c>
       <c r="P69" t="n">
-        <v>24763</v>
+        <v>2813.016</v>
       </c>
       <c r="Q69" t="n">
-        <v>9086</v>
+        <v>91496</v>
       </c>
       <c r="R69" t="n">
-        <v>168944.992</v>
+        <v>1240</v>
       </c>
       <c r="S69" t="n">
-        <v>2813.016</v>
+        <v>16110</v>
       </c>
       <c r="T69" t="n">
-        <v>91496</v>
+        <v>85284</v>
       </c>
       <c r="U69" t="n">
-        <v>1240</v>
+        <v>25582</v>
       </c>
       <c r="V69" t="n">
-        <v>16110</v>
+        <v>21493</v>
       </c>
       <c r="W69" t="n">
-        <v>85284</v>
+        <v>29300</v>
       </c>
       <c r="X69" t="n">
-        <v>25582</v>
+        <v>38639</v>
       </c>
       <c r="Y69" t="n">
-        <v>21493</v>
+        <v>33930</v>
       </c>
       <c r="Z69" t="n">
-        <v>29300</v>
+        <v>84352</v>
       </c>
       <c r="AA69" t="n">
-        <v>38639</v>
+        <v>110863</v>
       </c>
       <c r="AB69" t="n">
-        <v>33930</v>
+        <v>61280.984</v>
       </c>
       <c r="AC69" t="n">
-        <v>84352</v>
+        <v>79328</v>
       </c>
       <c r="AD69" t="n">
-        <v>110863</v>
+        <v>65613</v>
       </c>
       <c r="AE69" t="n">
-        <v>61280.984</v>
+        <v>63654</v>
       </c>
       <c r="AF69" t="n">
-        <v>79328</v>
+        <v>-161248.992</v>
       </c>
       <c r="AG69" t="n">
-        <v>65613</v>
+        <v>4345</v>
       </c>
       <c r="AH69" t="n">
-        <v>63654</v>
+        <v>44</v>
       </c>
       <c r="AI69" t="n">
-        <v>-161248.992</v>
+        <v>4284</v>
       </c>
       <c r="AJ69" t="n">
-        <v>4345</v>
+        <v>410</v>
       </c>
       <c r="AK69" t="n">
-        <v>44</v>
+        <v>3521</v>
       </c>
       <c r="AL69" t="n">
-        <v>4284</v>
+        <v>52</v>
       </c>
       <c r="AM69" t="n">
-        <v>410</v>
+        <v>5594</v>
       </c>
       <c r="AN69" t="n">
-        <v>3521</v>
+        <v>6882</v>
       </c>
       <c r="AO69" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>5594</v>
+        <v>0</v>
       </c>
       <c r="AQ69" t="n">
-        <v>6882</v>
+        <v>0</v>
       </c>
       <c r="AR69" t="n">
         <v>0</v>
@@ -13237,184 +13231,184 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-90412.992</v>
+        <v>-77032</v>
       </c>
       <c r="C70" t="n">
-        <v>-62006</v>
+        <v>-63288</v>
       </c>
       <c r="D70" t="n">
-        <v>-71598</v>
+        <v>-121659</v>
       </c>
       <c r="E70" t="n">
-        <v>-77032</v>
+        <v>-130793</v>
       </c>
       <c r="F70" t="n">
-        <v>-63288</v>
+        <v>-89956</v>
       </c>
       <c r="G70" t="n">
-        <v>-121659</v>
+        <v>342408</v>
       </c>
       <c r="H70" t="n">
-        <v>-130793</v>
+        <v>-51427</v>
       </c>
       <c r="I70" t="n">
-        <v>-89956</v>
+        <v>-51427</v>
       </c>
       <c r="J70" t="n">
-        <v>342408</v>
+        <v>-34845</v>
       </c>
       <c r="K70" t="n">
-        <v>-51427</v>
+        <v>-47129</v>
       </c>
       <c r="L70" t="n">
-        <v>-51427</v>
+        <v>-49910.008</v>
       </c>
       <c r="M70" t="n">
-        <v>-34845</v>
+        <v>-115421</v>
       </c>
       <c r="N70" t="n">
-        <v>-47129</v>
+        <v>-130517</v>
       </c>
       <c r="O70" t="n">
-        <v>-49910.008</v>
+        <v>-140975.008</v>
       </c>
       <c r="P70" t="n">
-        <v>-115421</v>
+        <v>-105446</v>
       </c>
       <c r="Q70" t="n">
-        <v>-130517</v>
+        <v>-108514</v>
       </c>
       <c r="R70" t="n">
-        <v>-140975.008</v>
+        <v>-112042</v>
       </c>
       <c r="S70" t="n">
-        <v>-105446</v>
+        <v>-251243.008</v>
       </c>
       <c r="T70" t="n">
-        <v>-108514</v>
+        <v>-16944</v>
       </c>
       <c r="U70" t="n">
-        <v>-112042</v>
+        <v>-150824</v>
       </c>
       <c r="V70" t="n">
-        <v>-251243.008</v>
+        <v>-116194</v>
       </c>
       <c r="W70" t="n">
-        <v>-16944</v>
+        <v>-119793</v>
       </c>
       <c r="X70" t="n">
-        <v>-150824</v>
+        <v>-164054.016</v>
       </c>
       <c r="Y70" t="n">
-        <v>-116194</v>
+        <v>-181143.008</v>
       </c>
       <c r="Z70" t="n">
-        <v>-119793</v>
+        <v>-187843.008</v>
       </c>
       <c r="AA70" t="n">
-        <v>-164054.016</v>
+        <v>-215264.992</v>
       </c>
       <c r="AB70" t="n">
-        <v>-181143.008</v>
+        <v>-227024</v>
       </c>
       <c r="AC70" t="n">
-        <v>-187843.008</v>
+        <v>-213248.992</v>
       </c>
       <c r="AD70" t="n">
-        <v>-215264.992</v>
+        <v>-224151.008</v>
       </c>
       <c r="AE70" t="n">
-        <v>-227024</v>
+        <v>-185672.992</v>
       </c>
       <c r="AF70" t="n">
-        <v>-213248.992</v>
+        <v>-193627.04</v>
       </c>
       <c r="AG70" t="n">
-        <v>-224151.008</v>
+        <v>-188968.992</v>
       </c>
       <c r="AH70" t="n">
-        <v>-185672.992</v>
+        <v>-114265</v>
       </c>
       <c r="AI70" t="n">
-        <v>-193627.04</v>
+        <v>-170670</v>
       </c>
       <c r="AJ70" t="n">
-        <v>-188968.992</v>
+        <v>-211987.008</v>
       </c>
       <c r="AK70" t="n">
-        <v>-114265</v>
+        <v>-211952.992</v>
       </c>
       <c r="AL70" t="n">
-        <v>-170670</v>
+        <v>-283923.008</v>
       </c>
       <c r="AM70" t="n">
-        <v>-211987.008</v>
+        <v>-267748</v>
       </c>
       <c r="AN70" t="n">
-        <v>-211952.992</v>
+        <v>-157060.992</v>
       </c>
       <c r="AO70" t="n">
-        <v>-283923.008</v>
+        <v>-70967</v>
       </c>
       <c r="AP70" t="n">
-        <v>-267748</v>
+        <v>-74227</v>
       </c>
       <c r="AQ70" t="n">
-        <v>-157060.992</v>
+        <v>-8171</v>
       </c>
       <c r="AR70" t="n">
-        <v>-70967</v>
+        <v>-97257</v>
       </c>
       <c r="AS70" t="n">
-        <v>-74227</v>
+        <v>-63275</v>
       </c>
       <c r="AT70" t="n">
-        <v>-8171</v>
+        <v>-81619</v>
       </c>
       <c r="AU70" t="n">
-        <v>-97257</v>
+        <v>-292283.008</v>
       </c>
       <c r="AV70" t="n">
-        <v>-63275</v>
+        <v>-267963.984</v>
       </c>
       <c r="AW70" t="n">
-        <v>-81619</v>
+        <v>-302086.016</v>
       </c>
       <c r="AX70" t="n">
-        <v>-292283.008</v>
+        <v>-253880</v>
       </c>
       <c r="AY70" t="n">
-        <v>-267963.984</v>
+        <v>-85000</v>
       </c>
       <c r="AZ70" t="n">
-        <v>-302086.016</v>
+        <v>-246474</v>
       </c>
       <c r="BA70" t="n">
-        <v>-253880</v>
+        <v>-136594</v>
       </c>
       <c r="BB70" t="n">
-        <v>-85000</v>
+        <v>43392</v>
       </c>
       <c r="BC70" t="n">
-        <v>-246474</v>
+        <v>25368</v>
       </c>
       <c r="BD70" t="n">
-        <v>-136594</v>
+        <v>-34287</v>
       </c>
       <c r="BE70" t="n">
-        <v>43392</v>
+        <v>-194879.008</v>
       </c>
       <c r="BF70" t="n">
-        <v>25368</v>
+        <v>-49545</v>
       </c>
       <c r="BG70" t="n">
-        <v>-34287</v>
+        <v>-74385.984</v>
       </c>
       <c r="BH70" t="n">
-        <v>-194879.008</v>
+        <v>-84465</v>
       </c>
       <c r="BI70" t="n">
-        <v>-49545</v>
+        <v>-40555</v>
       </c>
     </row>
     <row r="71">
@@ -13424,29 +13418,23 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="C71" t="n">
-        <v>933</v>
+        <v>379</v>
       </c>
       <c r="D71" t="n">
-        <v>81</v>
+        <v>860</v>
       </c>
       <c r="E71" t="n">
-        <v>197</v>
+        <v>646</v>
       </c>
       <c r="F71" t="n">
-        <v>379</v>
-      </c>
-      <c r="G71" t="n">
-        <v>860</v>
-      </c>
-      <c r="H71" t="n">
-        <v>646</v>
-      </c>
-      <c r="I71" t="n">
         <v>370</v>
       </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
@@ -13507,29 +13495,23 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="C72" t="n">
-        <v>937</v>
+        <v>444</v>
       </c>
       <c r="D72" t="n">
-        <v>83</v>
+        <v>864</v>
       </c>
       <c r="E72" t="n">
-        <v>197</v>
+        <v>686</v>
       </c>
       <c r="F72" t="n">
-        <v>444</v>
-      </c>
-      <c r="G72" t="n">
-        <v>864</v>
-      </c>
-      <c r="H72" t="n">
-        <v>686</v>
-      </c>
-      <c r="I72" t="n">
         <v>370</v>
       </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
@@ -13590,29 +13572,23 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
+        <v>-65</v>
+      </c>
+      <c r="D73" t="n">
         <v>-4</v>
       </c>
-      <c r="D73" t="n">
-        <v>-2</v>
-      </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F73" t="n">
-        <v>-65</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-4</v>
-      </c>
-      <c r="H73" t="n">
-        <v>-40</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
@@ -13673,184 +13649,184 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>102019</v>
+        <v>120938</v>
       </c>
       <c r="C74" t="n">
-        <v>137680.992</v>
+        <v>178386.992</v>
       </c>
       <c r="D74" t="n">
-        <v>120676</v>
+        <v>89069</v>
       </c>
       <c r="E74" t="n">
-        <v>120938</v>
+        <v>110205</v>
       </c>
       <c r="F74" t="n">
-        <v>178386.992</v>
+        <v>129905</v>
       </c>
       <c r="G74" t="n">
-        <v>89069</v>
+        <v>738273.024</v>
       </c>
       <c r="H74" t="n">
-        <v>110205</v>
+        <v>201600.992</v>
       </c>
       <c r="I74" t="n">
-        <v>129905</v>
+        <v>201600.992</v>
       </c>
       <c r="J74" t="n">
-        <v>738273.024</v>
+        <v>222204</v>
       </c>
       <c r="K74" t="n">
-        <v>201600.992</v>
+        <v>231408.992</v>
       </c>
       <c r="L74" t="n">
-        <v>201600.992</v>
+        <v>210037.984</v>
       </c>
       <c r="M74" t="n">
-        <v>222204</v>
+        <v>-78867</v>
       </c>
       <c r="N74" t="n">
-        <v>231408.992</v>
+        <v>-129045</v>
       </c>
       <c r="O74" t="n">
-        <v>210037.984</v>
+        <v>17973</v>
       </c>
       <c r="P74" t="n">
-        <v>-78867</v>
+        <v>-649387.008</v>
       </c>
       <c r="Q74" t="n">
-        <v>-129045</v>
+        <v>-5623</v>
       </c>
       <c r="R74" t="n">
-        <v>17973</v>
+        <v>-114222</v>
       </c>
       <c r="S74" t="n">
-        <v>-649387.008</v>
+        <v>-167535.008</v>
       </c>
       <c r="T74" t="n">
-        <v>-5623</v>
+        <v>-108242.008</v>
       </c>
       <c r="U74" t="n">
-        <v>-114222</v>
+        <v>-126803</v>
       </c>
       <c r="V74" t="n">
-        <v>-167535.008</v>
+        <v>-97646</v>
       </c>
       <c r="W74" t="n">
-        <v>-108242.008</v>
+        <v>-86762</v>
       </c>
       <c r="X74" t="n">
-        <v>-126803</v>
+        <v>-32225</v>
       </c>
       <c r="Y74" t="n">
-        <v>-97646</v>
+        <v>-143704.992</v>
       </c>
       <c r="Z74" t="n">
-        <v>-86762</v>
+        <v>-101797</v>
       </c>
       <c r="AA74" t="n">
-        <v>-32225</v>
+        <v>-111965</v>
       </c>
       <c r="AB74" t="n">
-        <v>-143704.992</v>
+        <v>-253153.04</v>
       </c>
       <c r="AC74" t="n">
-        <v>-101797</v>
+        <v>-134276</v>
       </c>
       <c r="AD74" t="n">
-        <v>-111965</v>
+        <v>-156266</v>
       </c>
       <c r="AE74" t="n">
-        <v>-253153.04</v>
+        <v>-249740.992</v>
       </c>
       <c r="AF74" t="n">
-        <v>-134276</v>
+        <v>-378212.992</v>
       </c>
       <c r="AG74" t="n">
-        <v>-156266</v>
+        <v>-226175.008</v>
       </c>
       <c r="AH74" t="n">
+        <v>-145080</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>-205974</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>-953656</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>-245122</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>-310862.016</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>-300075.008</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>-268535.936</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>-71771</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>-74287</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>-9613</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>-305072</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>-68801</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>-87940</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>-293251.008</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>-682526.0159999999</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>-303168</v>
+      </c>
+      <c r="AX74" t="n">
         <v>-249740.992</v>
       </c>
-      <c r="AI74" t="n">
-        <v>-378212.992</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>-226175.008</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>-145080</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>-205974</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>-953656</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>-245122</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>-310862.016</v>
-      </c>
-      <c r="AP74" t="n">
-        <v>-300075.008</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>-268535.936</v>
-      </c>
-      <c r="AR74" t="n">
-        <v>-71771</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>-74287</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>-9613</v>
-      </c>
-      <c r="AU74" t="n">
-        <v>-305072</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>-68801</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>-87940</v>
-      </c>
-      <c r="AX74" t="n">
-        <v>-293251.008</v>
-      </c>
       <c r="AY74" t="n">
-        <v>-682526.0159999999</v>
+        <v>-738494.0159999999</v>
       </c>
       <c r="AZ74" t="n">
-        <v>-303168</v>
+        <v>-243179.008</v>
       </c>
       <c r="BA74" t="n">
-        <v>-249740.992</v>
+        <v>-832739.968</v>
       </c>
       <c r="BB74" t="n">
-        <v>-738494.0159999999</v>
+        <v>-82896</v>
       </c>
       <c r="BC74" t="n">
-        <v>-243179.008</v>
+        <v>-145981.056</v>
       </c>
       <c r="BD74" t="n">
-        <v>-832739.968</v>
+        <v>-35926</v>
       </c>
       <c r="BE74" t="n">
-        <v>-82896</v>
+        <v>-460480</v>
       </c>
       <c r="BF74" t="n">
-        <v>-145981.056</v>
+        <v>-182616.992</v>
       </c>
       <c r="BG74" t="n">
-        <v>-35926</v>
+        <v>-319855.04</v>
       </c>
       <c r="BH74" t="n">
-        <v>-460480</v>
+        <v>-425032</v>
       </c>
       <c r="BI74" t="n">
-        <v>-182616.992</v>
+        <v>-200876.992</v>
       </c>
     </row>
     <row r="75">
@@ -13860,31 +13836,31 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-34667</v>
+        <v>-41099</v>
       </c>
       <c r="C75" t="n">
-        <v>-46660</v>
+        <v>-48046.992</v>
       </c>
       <c r="D75" t="n">
-        <v>-41095</v>
+        <v>-30292</v>
       </c>
       <c r="E75" t="n">
-        <v>-41099</v>
+        <v>-37639</v>
       </c>
       <c r="F75" t="n">
-        <v>-48046.992</v>
+        <v>-44173</v>
       </c>
       <c r="G75" t="n">
-        <v>-30292</v>
+        <v>112104</v>
       </c>
       <c r="H75" t="n">
-        <v>-37639</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-44173</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>112104</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -14071,109 +14047,109 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>-67552</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>-75840</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>143392</v>
       </c>
       <c r="M76" t="n">
-        <v>-67552</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>-75840</v>
+        <v>61871</v>
       </c>
       <c r="O76" t="n">
-        <v>143392</v>
+        <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>222226.976</v>
       </c>
       <c r="Q76" t="n">
-        <v>61871</v>
+        <v>-17728</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>42883</v>
       </c>
       <c r="S76" t="n">
-        <v>222226.976</v>
+        <v>32339</v>
       </c>
       <c r="T76" t="n">
-        <v>-17728</v>
+        <v>66016</v>
       </c>
       <c r="U76" t="n">
-        <v>42883</v>
+        <v>42882</v>
       </c>
       <c r="V76" t="n">
-        <v>32339</v>
+        <v>33016</v>
       </c>
       <c r="W76" t="n">
-        <v>66016</v>
+        <v>29225</v>
       </c>
       <c r="X76" t="n">
-        <v>42882</v>
+        <v>32831</v>
       </c>
       <c r="Y76" t="n">
-        <v>33016</v>
+        <v>52000</v>
       </c>
       <c r="Z76" t="n">
-        <v>29225</v>
+        <v>34635</v>
       </c>
       <c r="AA76" t="n">
-        <v>32831</v>
+        <v>37767</v>
       </c>
       <c r="AB76" t="n">
-        <v>52000</v>
+        <v>73425.008</v>
       </c>
       <c r="AC76" t="n">
-        <v>34635</v>
+        <v>49988</v>
       </c>
       <c r="AD76" t="n">
-        <v>37767</v>
+        <v>53081</v>
       </c>
       <c r="AE76" t="n">
-        <v>73425.008</v>
+        <v>41888</v>
       </c>
       <c r="AF76" t="n">
-        <v>49988</v>
+        <v>-144794</v>
       </c>
       <c r="AG76" t="n">
-        <v>53081</v>
+        <v>40</v>
       </c>
       <c r="AH76" t="n">
-        <v>41888</v>
+        <v>42</v>
       </c>
       <c r="AI76" t="n">
-        <v>-144794</v>
+        <v>41</v>
       </c>
       <c r="AJ76" t="n">
         <v>40</v>
       </c>
       <c r="AK76" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL76" t="n">
         <v>42</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>41</v>
       </c>
       <c r="AM76" t="n">
         <v>40</v>
       </c>
       <c r="AN76" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO76" t="n">
         <v>40</v>
       </c>
-      <c r="AO76" t="n">
-        <v>42</v>
-      </c>
       <c r="AP76" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ76" t="n">
         <v>41</v>
       </c>
       <c r="AR76" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AS76" t="n">
         <v>41</v>
@@ -14185,7 +14161,7 @@
         <v>41</v>
       </c>
       <c r="AV76" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AW76" t="n">
         <v>41</v>
@@ -14194,37 +14170,37 @@
         <v>41</v>
       </c>
       <c r="AY76" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AZ76" t="n">
         <v>41</v>
       </c>
       <c r="BA76" t="n">
+        <v>44</v>
+      </c>
+      <c r="BB76" t="n">
         <v>41</v>
-      </c>
-      <c r="BB76" t="n">
-        <v>51</v>
       </c>
       <c r="BC76" t="n">
         <v>41</v>
       </c>
       <c r="BD76" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="BE76" t="n">
         <v>41</v>
       </c>
       <c r="BF76" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="BG76" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BH76" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BI76" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77">
@@ -14248,15 +14224,9 @@
       <c r="F77" t="n">
         <v>0</v>
       </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
@@ -14331,15 +14301,9 @@
       <c r="F78" t="n">
         <v>0</v>
       </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
@@ -14467,184 +14431,184 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>67352.016</v>
+        <v>79839</v>
       </c>
       <c r="C80" t="n">
-        <v>91021</v>
+        <v>130339.992</v>
       </c>
       <c r="D80" t="n">
-        <v>79581</v>
+        <v>58777</v>
       </c>
       <c r="E80" t="n">
-        <v>79839</v>
+        <v>72566</v>
       </c>
       <c r="F80" t="n">
-        <v>130339.992</v>
+        <v>85732</v>
       </c>
       <c r="G80" t="n">
-        <v>58777</v>
+        <v>484318.016</v>
       </c>
       <c r="H80" t="n">
-        <v>72566</v>
+        <v>132441</v>
       </c>
       <c r="I80" t="n">
-        <v>85732</v>
+        <v>132441</v>
       </c>
       <c r="J80" t="n">
-        <v>484318.016</v>
+        <v>154652</v>
       </c>
       <c r="K80" t="n">
-        <v>132441</v>
+        <v>155568.992</v>
       </c>
       <c r="L80" t="n">
-        <v>132441</v>
+        <v>136244</v>
       </c>
       <c r="M80" t="n">
-        <v>154652</v>
+        <v>-74989</v>
       </c>
       <c r="N80" t="n">
-        <v>155568.992</v>
+        <v>-67174</v>
       </c>
       <c r="O80" t="n">
-        <v>136244</v>
+        <v>52617</v>
       </c>
       <c r="P80" t="n">
-        <v>-74989</v>
+        <v>-465682.048</v>
       </c>
       <c r="Q80" t="n">
-        <v>-67174</v>
+        <v>-23351</v>
       </c>
       <c r="R80" t="n">
-        <v>52617</v>
+        <v>-71339</v>
       </c>
       <c r="S80" t="n">
-        <v>-465682.048</v>
+        <v>-135196</v>
       </c>
       <c r="T80" t="n">
-        <v>-23351</v>
+        <v>-42226</v>
       </c>
       <c r="U80" t="n">
-        <v>-71339</v>
+        <v>-83921</v>
       </c>
       <c r="V80" t="n">
-        <v>-135196</v>
+        <v>-64630</v>
       </c>
       <c r="W80" t="n">
-        <v>-42226</v>
+        <v>-57537</v>
       </c>
       <c r="X80" t="n">
-        <v>-83921</v>
+        <v>606</v>
       </c>
       <c r="Y80" t="n">
-        <v>-64630</v>
+        <v>-91705</v>
       </c>
       <c r="Z80" t="n">
-        <v>-57537</v>
+        <v>-67162</v>
       </c>
       <c r="AA80" t="n">
-        <v>606</v>
+        <v>-74198</v>
       </c>
       <c r="AB80" t="n">
-        <v>-91705</v>
+        <v>-179728</v>
       </c>
       <c r="AC80" t="n">
-        <v>-67162</v>
+        <v>-84288</v>
       </c>
       <c r="AD80" t="n">
-        <v>-74198</v>
+        <v>-103185</v>
       </c>
       <c r="AE80" t="n">
-        <v>-179728</v>
+        <v>-207852.992</v>
       </c>
       <c r="AF80" t="n">
-        <v>-84288</v>
+        <v>-523007.008</v>
       </c>
       <c r="AG80" t="n">
-        <v>-103185</v>
+        <v>-226135.008</v>
       </c>
       <c r="AH80" t="n">
-        <v>-207852.992</v>
+        <v>-145038</v>
       </c>
       <c r="AI80" t="n">
-        <v>-523007.008</v>
+        <v>-205932.992</v>
       </c>
       <c r="AJ80" t="n">
-        <v>-226135.008</v>
+        <v>-953616.064</v>
       </c>
       <c r="AK80" t="n">
-        <v>-145038</v>
+        <v>-245082</v>
       </c>
       <c r="AL80" t="n">
-        <v>-205932.992</v>
+        <v>-310820</v>
       </c>
       <c r="AM80" t="n">
-        <v>-953616.064</v>
+        <v>-300035.008</v>
       </c>
       <c r="AN80" t="n">
-        <v>-245082</v>
+        <v>-268494.976</v>
       </c>
       <c r="AO80" t="n">
-        <v>-310820</v>
+        <v>-71731</v>
       </c>
       <c r="AP80" t="n">
-        <v>-300035.008</v>
+        <v>-74246</v>
       </c>
       <c r="AQ80" t="n">
-        <v>-268494.976</v>
+        <v>-9572</v>
       </c>
       <c r="AR80" t="n">
-        <v>-71731</v>
+        <v>-305031.008</v>
       </c>
       <c r="AS80" t="n">
-        <v>-74246</v>
+        <v>-68760</v>
       </c>
       <c r="AT80" t="n">
-        <v>-9572</v>
+        <v>-87899</v>
       </c>
       <c r="AU80" t="n">
-        <v>-305031.008</v>
+        <v>-293209.984</v>
       </c>
       <c r="AV80" t="n">
-        <v>-68760</v>
+        <v>-682485.952</v>
       </c>
       <c r="AW80" t="n">
-        <v>-87899</v>
+        <v>-303127.008</v>
       </c>
       <c r="AX80" t="n">
-        <v>-293209.984</v>
+        <v>-249700</v>
       </c>
       <c r="AY80" t="n">
-        <v>-682485.952</v>
+        <v>-738442.944</v>
       </c>
       <c r="AZ80" t="n">
-        <v>-303127.008</v>
+        <v>-243138</v>
       </c>
       <c r="BA80" t="n">
-        <v>-249700</v>
+        <v>-832696</v>
       </c>
       <c r="BB80" t="n">
-        <v>-738442.944</v>
+        <v>-82855</v>
       </c>
       <c r="BC80" t="n">
-        <v>-243138</v>
+        <v>-145940</v>
       </c>
       <c r="BD80" t="n">
-        <v>-832696</v>
+        <v>-35885</v>
       </c>
       <c r="BE80" t="n">
-        <v>-82855</v>
+        <v>-460439.008</v>
       </c>
       <c r="BF80" t="n">
-        <v>-145940</v>
+        <v>-182584.992</v>
       </c>
       <c r="BG80" t="n">
-        <v>-35885</v>
+        <v>-319820.992</v>
       </c>
       <c r="BH80" t="n">
-        <v>-460439.008</v>
+        <v>-424998.016</v>
       </c>
       <c r="BI80" t="n">
-        <v>-182584.992</v>
+        <v>-200842</v>
       </c>
     </row>
   </sheetData>
